--- a/resorces/Performance testing using JMETER._Load.xlsx
+++ b/resorces/Performance testing using JMETER._Load.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Load Test Strategy</t>
   </si>
@@ -29,6 +29,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <b/>
         <color rgb="FF1155CC"/>
         <sz val="11.0"/>
         <u/>
@@ -119,7 +120,6 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Server</t>
@@ -127,7 +127,6 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -136,10 +135,11 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF1155CC"/>
         <sz val="11.0"/>
+        <u/>
       </rPr>
-      <t>https://random-data-api.com/api/v2/users</t>
+      <t>https://demoqa.com/BookStore/v1/Books</t>
     </r>
   </si>
   <si>
@@ -191,14 +191,38 @@
     <t>Test - 9</t>
   </si>
   <si>
-    <t>Stress TPS 25.67 with error 1.19%</t>
+    <t>20/min</t>
+  </si>
+  <si>
+    <t>Test - 10</t>
+  </si>
+  <si>
+    <t>10.2/min</t>
+  </si>
+  <si>
+    <t>Test - 11</t>
+  </si>
+  <si>
+    <t>5/min</t>
+  </si>
+  <si>
+    <t>Test - 12</t>
+  </si>
+  <si>
+    <t>4.2/min</t>
+  </si>
+  <si>
+    <t>Stress TPS 4.2/min with error 1.20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity value is 60 users for 15 min with 0% error and capacity tps is 4.3/min </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -233,8 +257,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +329,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -547,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -677,8 +719,8 @@
     <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="24" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,7 +764,7 @@
     <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="11" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -737,20 +779,44 @@
     <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -7584,8 +7650,8 @@
       <c r="O8" s="80">
         <v>2.8</v>
       </c>
-      <c r="P8" s="76">
-        <v>4.48</v>
+      <c r="P8" s="78">
+        <v>0.0448</v>
       </c>
       <c r="Q8" s="62"/>
     </row>
@@ -7595,24 +7661,23 @@
       </c>
       <c r="J9" s="69"/>
       <c r="K9" s="76">
-        <v>5.0</v>
-      </c>
-      <c r="L9" s="69">
-        <f>K9*60</f>
-        <v>300</v>
+        <v>15.0</v>
+      </c>
+      <c r="L9" s="76">
+        <v>900.0</v>
       </c>
       <c r="M9" s="81">
-        <v>700.0</v>
+        <v>3000.0</v>
       </c>
       <c r="N9" s="73">
-        <f t="shared" ref="N9:N15" si="3">M9/L9</f>
-        <v>2.333333333</v>
+        <f t="shared" ref="N9:N18" si="3">M9/L9</f>
+        <v>3.333333333</v>
       </c>
       <c r="O9" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="83">
-        <v>3.58</v>
+        <v>3.3</v>
+      </c>
+      <c r="P9" s="78">
+        <v>0.0382</v>
       </c>
       <c r="Q9" s="62"/>
     </row>
@@ -7622,13 +7687,13 @@
       </c>
       <c r="J10" s="69"/>
       <c r="K10" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L10" s="76">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="M10" s="81">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="N10" s="73">
         <f t="shared" si="3"/>
@@ -7637,8 +7702,8 @@
       <c r="O10" s="82">
         <v>2.0</v>
       </c>
-      <c r="P10" s="83">
-        <v>3.67</v>
+      <c r="P10" s="78">
+        <v>0.0367</v>
       </c>
       <c r="Q10" s="62"/>
     </row>
@@ -7648,13 +7713,13 @@
       </c>
       <c r="J11" s="69"/>
       <c r="K11" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L11" s="76">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="M11" s="81">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="N11" s="73">
         <f t="shared" si="3"/>
@@ -7663,8 +7728,8 @@
       <c r="O11" s="82">
         <v>1.7</v>
       </c>
-      <c r="P11" s="83">
-        <v>3.6</v>
+      <c r="P11" s="78">
+        <v>0.036</v>
       </c>
       <c r="Q11" s="62"/>
     </row>
@@ -7674,13 +7739,13 @@
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L12" s="76">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="M12" s="81">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="N12" s="73">
         <f t="shared" si="3"/>
@@ -7689,8 +7754,8 @@
       <c r="O12" s="82">
         <v>1.3</v>
       </c>
-      <c r="P12" s="83">
-        <v>3.25</v>
+      <c r="P12" s="78">
+        <v>0.0325</v>
       </c>
       <c r="Q12" s="62"/>
     </row>
@@ -7700,13 +7765,13 @@
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L13" s="76">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="M13" s="81">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="N13" s="73">
         <f t="shared" si="3"/>
@@ -7715,8 +7780,8 @@
       <c r="O13" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="83">
-        <v>3.33</v>
+      <c r="P13" s="78">
+        <v>0.0333</v>
       </c>
       <c r="Q13" s="62"/>
     </row>
@@ -7726,13 +7791,13 @@
       </c>
       <c r="J14" s="69"/>
       <c r="K14" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L14" s="76">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="M14" s="81">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="N14" s="73">
         <f t="shared" si="3"/>
@@ -7741,8 +7806,8 @@
       <c r="O14" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="83">
-        <v>3.5</v>
+      <c r="P14" s="78">
+        <v>0.035</v>
       </c>
       <c r="Q14" s="62"/>
     </row>
@@ -7752,4982 +7817,5070 @@
       </c>
       <c r="J15" s="69"/>
       <c r="K15" s="76">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L15" s="76">
+        <v>900.0</v>
+      </c>
+      <c r="M15" s="81">
         <v>300.0</v>
-      </c>
-      <c r="M15" s="81">
-        <v>100.0</v>
       </c>
       <c r="N15" s="73">
         <f t="shared" si="3"/>
         <v>0.3333333333</v>
       </c>
-      <c r="O15" s="84">
-        <v>25.67</v>
-      </c>
-      <c r="P15" s="85">
-        <v>0.0119</v>
+      <c r="O15" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="78">
+        <v>0.0417</v>
       </c>
       <c r="Q15" s="62"/>
     </row>
     <row r="16">
-      <c r="I16" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
+      <c r="I16" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="76">
+        <v>15.0</v>
+      </c>
+      <c r="L16" s="76">
+        <v>900.0</v>
+      </c>
+      <c r="M16" s="81">
+        <v>150.0</v>
+      </c>
+      <c r="N16" s="73">
+        <f t="shared" si="3"/>
+        <v>0.1666666667</v>
+      </c>
+      <c r="O16" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="78">
+        <v>0.02</v>
+      </c>
       <c r="Q16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="P17" s="89"/>
+      <c r="I17" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84">
+        <v>15.0</v>
+      </c>
+      <c r="L17" s="84">
+        <v>900.0</v>
+      </c>
+      <c r="M17" s="85">
+        <v>75.0</v>
+      </c>
+      <c r="N17" s="86">
+        <f t="shared" si="3"/>
+        <v>0.08333333333</v>
+      </c>
+      <c r="O17" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="87">
+        <v>0.012</v>
+      </c>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18">
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="P18" s="89"/>
+      <c r="I18" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89">
+        <v>15.0</v>
+      </c>
+      <c r="L18" s="89">
+        <v>900.0</v>
+      </c>
+      <c r="M18" s="90">
+        <v>60.0</v>
+      </c>
+      <c r="N18" s="91">
+        <f t="shared" si="3"/>
+        <v>0.06666666667</v>
+      </c>
+      <c r="O18" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="92">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="62"/>
     </row>
     <row r="19">
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="P19" s="89"/>
+      <c r="I19" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20">
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="P20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21">
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="P21" s="89"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="P22" s="89"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="P23" s="89"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="P24" s="89"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="P21" s="97"/>
+    </row>
+    <row r="22">
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="P22" s="97"/>
+    </row>
+    <row r="23">
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="P23" s="97"/>
+    </row>
+    <row r="24">
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="P24" s="97"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="P25" s="89"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="P25" s="97"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="P26" s="89"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="P26" s="97"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="P27" s="89"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="P27" s="97"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="P28" s="89"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="P28" s="97"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="P29" s="89"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="P29" s="97"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="P30" s="89"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="P30" s="97"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="P31" s="89"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="P31" s="97"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="P32" s="89"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="P32" s="97"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="P33" s="89"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="P33" s="97"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="P34" s="89"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="P34" s="97"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="P35" s="89"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="P35" s="97"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="P36" s="89"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="P36" s="97"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="P37" s="89"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="P37" s="97"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="P38" s="89"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="P38" s="97"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="P39" s="89"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="P39" s="97"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="P40" s="89"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="P40" s="97"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="P41" s="89"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="P41" s="97"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="P42" s="89"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="P42" s="97"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="P43" s="89"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="P43" s="97"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="P44" s="89"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="P44" s="97"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="P45" s="89"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="P45" s="97"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="P46" s="89"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="P46" s="97"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="P47" s="89"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="P47" s="97"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="P48" s="89"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="P48" s="97"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="P49" s="89"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="P49" s="97"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="P50" s="89"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="P50" s="97"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="P51" s="89"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="P51" s="97"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="P52" s="89"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="P52" s="97"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="P53" s="89"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="P53" s="97"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="P54" s="89"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="P54" s="97"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="P55" s="89"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="P55" s="97"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="P56" s="89"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="P56" s="97"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="P57" s="89"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="P57" s="97"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="P58" s="89"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="P58" s="97"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="P59" s="89"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="P59" s="97"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="P60" s="89"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="P60" s="97"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="P61" s="89"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="P61" s="97"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="P62" s="89"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="P62" s="97"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="P63" s="89"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="P63" s="97"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="P64" s="89"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="P64" s="97"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="P65" s="89"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="P65" s="97"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="P66" s="89"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="P66" s="97"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="P67" s="89"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="P67" s="97"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="P68" s="89"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="P68" s="97"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="P69" s="89"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="P69" s="97"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="P70" s="89"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="P70" s="97"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
-      <c r="P71" s="89"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="P71" s="97"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="P72" s="89"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="P72" s="97"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-      <c r="P73" s="89"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="P73" s="97"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
-      <c r="P74" s="89"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="P74" s="97"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="P75" s="89"/>
+      <c r="M75" s="96"/>
+      <c r="N75" s="96"/>
+      <c r="P75" s="97"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="P76" s="89"/>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96"/>
+      <c r="P76" s="97"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="P77" s="89"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="P77" s="97"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="P78" s="89"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="P78" s="97"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="P79" s="89"/>
+      <c r="M79" s="96"/>
+      <c r="N79" s="96"/>
+      <c r="P79" s="97"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="P80" s="89"/>
+      <c r="M80" s="96"/>
+      <c r="N80" s="96"/>
+      <c r="P80" s="97"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="M81" s="88"/>
-      <c r="N81" s="88"/>
-      <c r="P81" s="89"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="P81" s="97"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="M82" s="88"/>
-      <c r="N82" s="88"/>
-      <c r="P82" s="89"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="96"/>
+      <c r="P82" s="97"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="P83" s="89"/>
+      <c r="M83" s="96"/>
+      <c r="N83" s="96"/>
+      <c r="P83" s="97"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="M84" s="88"/>
-      <c r="N84" s="88"/>
-      <c r="P84" s="89"/>
+      <c r="M84" s="96"/>
+      <c r="N84" s="96"/>
+      <c r="P84" s="97"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="M85" s="88"/>
-      <c r="N85" s="88"/>
-      <c r="P85" s="89"/>
+      <c r="M85" s="96"/>
+      <c r="N85" s="96"/>
+      <c r="P85" s="97"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="M86" s="88"/>
-      <c r="N86" s="88"/>
-      <c r="P86" s="89"/>
+      <c r="M86" s="96"/>
+      <c r="N86" s="96"/>
+      <c r="P86" s="97"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="P87" s="89"/>
+      <c r="M87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="P87" s="97"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="M88" s="88"/>
-      <c r="N88" s="88"/>
-      <c r="P88" s="89"/>
+      <c r="M88" s="96"/>
+      <c r="N88" s="96"/>
+      <c r="P88" s="97"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="M89" s="88"/>
-      <c r="N89" s="88"/>
-      <c r="P89" s="89"/>
+      <c r="M89" s="96"/>
+      <c r="N89" s="96"/>
+      <c r="P89" s="97"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="M90" s="88"/>
-      <c r="N90" s="88"/>
-      <c r="P90" s="89"/>
+      <c r="M90" s="96"/>
+      <c r="N90" s="96"/>
+      <c r="P90" s="97"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="M91" s="88"/>
-      <c r="N91" s="88"/>
-      <c r="P91" s="89"/>
+      <c r="M91" s="96"/>
+      <c r="N91" s="96"/>
+      <c r="P91" s="97"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="M92" s="88"/>
-      <c r="N92" s="88"/>
-      <c r="P92" s="89"/>
+      <c r="M92" s="96"/>
+      <c r="N92" s="96"/>
+      <c r="P92" s="97"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="M93" s="88"/>
-      <c r="N93" s="88"/>
-      <c r="P93" s="89"/>
+      <c r="M93" s="96"/>
+      <c r="N93" s="96"/>
+      <c r="P93" s="97"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="M94" s="88"/>
-      <c r="N94" s="88"/>
-      <c r="P94" s="89"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
+      <c r="P94" s="97"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="M95" s="88"/>
-      <c r="N95" s="88"/>
-      <c r="P95" s="89"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="96"/>
+      <c r="P95" s="97"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="M96" s="88"/>
-      <c r="N96" s="88"/>
-      <c r="P96" s="89"/>
+      <c r="M96" s="96"/>
+      <c r="N96" s="96"/>
+      <c r="P96" s="97"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="M97" s="88"/>
-      <c r="N97" s="88"/>
-      <c r="P97" s="89"/>
+      <c r="M97" s="96"/>
+      <c r="N97" s="96"/>
+      <c r="P97" s="97"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="M98" s="88"/>
-      <c r="N98" s="88"/>
-      <c r="P98" s="89"/>
+      <c r="M98" s="96"/>
+      <c r="N98" s="96"/>
+      <c r="P98" s="97"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="M99" s="88"/>
-      <c r="N99" s="88"/>
-      <c r="P99" s="89"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="96"/>
+      <c r="P99" s="97"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="M100" s="88"/>
-      <c r="N100" s="88"/>
-      <c r="P100" s="89"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="96"/>
+      <c r="P100" s="97"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="M101" s="88"/>
-      <c r="N101" s="88"/>
-      <c r="P101" s="89"/>
+      <c r="M101" s="96"/>
+      <c r="N101" s="96"/>
+      <c r="P101" s="97"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="M102" s="88"/>
-      <c r="N102" s="88"/>
-      <c r="P102" s="89"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="96"/>
+      <c r="P102" s="97"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="M103" s="88"/>
-      <c r="N103" s="88"/>
-      <c r="P103" s="89"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="96"/>
+      <c r="P103" s="97"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="M104" s="88"/>
-      <c r="N104" s="88"/>
-      <c r="P104" s="89"/>
+      <c r="M104" s="96"/>
+      <c r="N104" s="96"/>
+      <c r="P104" s="97"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="M105" s="88"/>
-      <c r="N105" s="88"/>
-      <c r="P105" s="89"/>
+      <c r="M105" s="96"/>
+      <c r="N105" s="96"/>
+      <c r="P105" s="97"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="M106" s="88"/>
-      <c r="N106" s="88"/>
-      <c r="P106" s="89"/>
+      <c r="M106" s="96"/>
+      <c r="N106" s="96"/>
+      <c r="P106" s="97"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="M107" s="88"/>
-      <c r="N107" s="88"/>
-      <c r="P107" s="89"/>
+      <c r="M107" s="96"/>
+      <c r="N107" s="96"/>
+      <c r="P107" s="97"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="M108" s="88"/>
-      <c r="N108" s="88"/>
-      <c r="P108" s="89"/>
+      <c r="M108" s="96"/>
+      <c r="N108" s="96"/>
+      <c r="P108" s="97"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="P109" s="89"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="96"/>
+      <c r="P109" s="97"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="M110" s="88"/>
-      <c r="N110" s="88"/>
-      <c r="P110" s="89"/>
+      <c r="M110" s="96"/>
+      <c r="N110" s="96"/>
+      <c r="P110" s="97"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="M111" s="88"/>
-      <c r="N111" s="88"/>
-      <c r="P111" s="89"/>
+      <c r="M111" s="96"/>
+      <c r="N111" s="96"/>
+      <c r="P111" s="97"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="M112" s="88"/>
-      <c r="N112" s="88"/>
-      <c r="P112" s="89"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="96"/>
+      <c r="P112" s="97"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="M113" s="88"/>
-      <c r="N113" s="88"/>
-      <c r="P113" s="89"/>
+      <c r="M113" s="96"/>
+      <c r="N113" s="96"/>
+      <c r="P113" s="97"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="M114" s="88"/>
-      <c r="N114" s="88"/>
-      <c r="P114" s="89"/>
+      <c r="M114" s="96"/>
+      <c r="N114" s="96"/>
+      <c r="P114" s="97"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="M115" s="88"/>
-      <c r="N115" s="88"/>
-      <c r="P115" s="89"/>
+      <c r="M115" s="96"/>
+      <c r="N115" s="96"/>
+      <c r="P115" s="97"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="M116" s="88"/>
-      <c r="N116" s="88"/>
-      <c r="P116" s="89"/>
+      <c r="M116" s="96"/>
+      <c r="N116" s="96"/>
+      <c r="P116" s="97"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="M117" s="88"/>
-      <c r="N117" s="88"/>
-      <c r="P117" s="89"/>
+      <c r="M117" s="96"/>
+      <c r="N117" s="96"/>
+      <c r="P117" s="97"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="M118" s="88"/>
-      <c r="N118" s="88"/>
-      <c r="P118" s="89"/>
+      <c r="M118" s="96"/>
+      <c r="N118" s="96"/>
+      <c r="P118" s="97"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="M119" s="88"/>
-      <c r="N119" s="88"/>
-      <c r="P119" s="89"/>
+      <c r="M119" s="96"/>
+      <c r="N119" s="96"/>
+      <c r="P119" s="97"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="M120" s="88"/>
-      <c r="N120" s="88"/>
-      <c r="P120" s="89"/>
+      <c r="M120" s="96"/>
+      <c r="N120" s="96"/>
+      <c r="P120" s="97"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="M121" s="88"/>
-      <c r="N121" s="88"/>
-      <c r="P121" s="89"/>
+      <c r="M121" s="96"/>
+      <c r="N121" s="96"/>
+      <c r="P121" s="97"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="M122" s="88"/>
-      <c r="N122" s="88"/>
-      <c r="P122" s="89"/>
+      <c r="M122" s="96"/>
+      <c r="N122" s="96"/>
+      <c r="P122" s="97"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="M123" s="88"/>
-      <c r="N123" s="88"/>
-      <c r="P123" s="89"/>
+      <c r="M123" s="96"/>
+      <c r="N123" s="96"/>
+      <c r="P123" s="97"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="M124" s="88"/>
-      <c r="N124" s="88"/>
-      <c r="P124" s="89"/>
+      <c r="M124" s="96"/>
+      <c r="N124" s="96"/>
+      <c r="P124" s="97"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="M125" s="88"/>
-      <c r="N125" s="88"/>
-      <c r="P125" s="89"/>
+      <c r="M125" s="96"/>
+      <c r="N125" s="96"/>
+      <c r="P125" s="97"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="M126" s="88"/>
-      <c r="N126" s="88"/>
-      <c r="P126" s="89"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="P126" s="97"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="M127" s="88"/>
-      <c r="N127" s="88"/>
-      <c r="P127" s="89"/>
+      <c r="M127" s="96"/>
+      <c r="N127" s="96"/>
+      <c r="P127" s="97"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="M128" s="88"/>
-      <c r="N128" s="88"/>
-      <c r="P128" s="89"/>
+      <c r="M128" s="96"/>
+      <c r="N128" s="96"/>
+      <c r="P128" s="97"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="P129" s="89"/>
+      <c r="M129" s="96"/>
+      <c r="N129" s="96"/>
+      <c r="P129" s="97"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="M130" s="88"/>
-      <c r="N130" s="88"/>
-      <c r="P130" s="89"/>
+      <c r="M130" s="96"/>
+      <c r="N130" s="96"/>
+      <c r="P130" s="97"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="M131" s="88"/>
-      <c r="N131" s="88"/>
-      <c r="P131" s="89"/>
+      <c r="M131" s="96"/>
+      <c r="N131" s="96"/>
+      <c r="P131" s="97"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="M132" s="88"/>
-      <c r="N132" s="88"/>
-      <c r="P132" s="89"/>
+      <c r="M132" s="96"/>
+      <c r="N132" s="96"/>
+      <c r="P132" s="97"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="M133" s="88"/>
-      <c r="N133" s="88"/>
-      <c r="P133" s="89"/>
+      <c r="M133" s="96"/>
+      <c r="N133" s="96"/>
+      <c r="P133" s="97"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="M134" s="88"/>
-      <c r="N134" s="88"/>
-      <c r="P134" s="89"/>
+      <c r="M134" s="96"/>
+      <c r="N134" s="96"/>
+      <c r="P134" s="97"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="M135" s="88"/>
-      <c r="N135" s="88"/>
-      <c r="P135" s="89"/>
+      <c r="M135" s="96"/>
+      <c r="N135" s="96"/>
+      <c r="P135" s="97"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="M136" s="88"/>
-      <c r="N136" s="88"/>
-      <c r="P136" s="89"/>
+      <c r="M136" s="96"/>
+      <c r="N136" s="96"/>
+      <c r="P136" s="97"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="M137" s="88"/>
-      <c r="N137" s="88"/>
-      <c r="P137" s="89"/>
+      <c r="M137" s="96"/>
+      <c r="N137" s="96"/>
+      <c r="P137" s="97"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="M138" s="88"/>
-      <c r="N138" s="88"/>
-      <c r="P138" s="89"/>
+      <c r="M138" s="96"/>
+      <c r="N138" s="96"/>
+      <c r="P138" s="97"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="M139" s="88"/>
-      <c r="N139" s="88"/>
-      <c r="P139" s="89"/>
+      <c r="M139" s="96"/>
+      <c r="N139" s="96"/>
+      <c r="P139" s="97"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="M140" s="88"/>
-      <c r="N140" s="88"/>
-      <c r="P140" s="89"/>
+      <c r="M140" s="96"/>
+      <c r="N140" s="96"/>
+      <c r="P140" s="97"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="M141" s="88"/>
-      <c r="N141" s="88"/>
-      <c r="P141" s="89"/>
+      <c r="M141" s="96"/>
+      <c r="N141" s="96"/>
+      <c r="P141" s="97"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="M142" s="88"/>
-      <c r="N142" s="88"/>
-      <c r="P142" s="89"/>
+      <c r="M142" s="96"/>
+      <c r="N142" s="96"/>
+      <c r="P142" s="97"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="M143" s="88"/>
-      <c r="N143" s="88"/>
-      <c r="P143" s="89"/>
+      <c r="M143" s="96"/>
+      <c r="N143" s="96"/>
+      <c r="P143" s="97"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="M144" s="88"/>
-      <c r="N144" s="88"/>
-      <c r="P144" s="89"/>
+      <c r="M144" s="96"/>
+      <c r="N144" s="96"/>
+      <c r="P144" s="97"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="M145" s="88"/>
-      <c r="N145" s="88"/>
-      <c r="P145" s="89"/>
+      <c r="M145" s="96"/>
+      <c r="N145" s="96"/>
+      <c r="P145" s="97"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="M146" s="88"/>
-      <c r="N146" s="88"/>
-      <c r="P146" s="89"/>
+      <c r="M146" s="96"/>
+      <c r="N146" s="96"/>
+      <c r="P146" s="97"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="M147" s="88"/>
-      <c r="N147" s="88"/>
-      <c r="P147" s="89"/>
+      <c r="M147" s="96"/>
+      <c r="N147" s="96"/>
+      <c r="P147" s="97"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="M148" s="88"/>
-      <c r="N148" s="88"/>
-      <c r="P148" s="89"/>
+      <c r="M148" s="96"/>
+      <c r="N148" s="96"/>
+      <c r="P148" s="97"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="M149" s="88"/>
-      <c r="N149" s="88"/>
-      <c r="P149" s="89"/>
+      <c r="M149" s="96"/>
+      <c r="N149" s="96"/>
+      <c r="P149" s="97"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="M150" s="88"/>
-      <c r="N150" s="88"/>
-      <c r="P150" s="89"/>
+      <c r="M150" s="96"/>
+      <c r="N150" s="96"/>
+      <c r="P150" s="97"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="M151" s="88"/>
-      <c r="N151" s="88"/>
-      <c r="P151" s="89"/>
+      <c r="M151" s="96"/>
+      <c r="N151" s="96"/>
+      <c r="P151" s="97"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="M152" s="88"/>
-      <c r="N152" s="88"/>
-      <c r="P152" s="89"/>
+      <c r="M152" s="96"/>
+      <c r="N152" s="96"/>
+      <c r="P152" s="97"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="M153" s="88"/>
-      <c r="N153" s="88"/>
-      <c r="P153" s="89"/>
+      <c r="M153" s="96"/>
+      <c r="N153" s="96"/>
+      <c r="P153" s="97"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="M154" s="88"/>
-      <c r="N154" s="88"/>
-      <c r="P154" s="89"/>
+      <c r="M154" s="96"/>
+      <c r="N154" s="96"/>
+      <c r="P154" s="97"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="M155" s="88"/>
-      <c r="N155" s="88"/>
-      <c r="P155" s="89"/>
+      <c r="M155" s="96"/>
+      <c r="N155" s="96"/>
+      <c r="P155" s="97"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="M156" s="88"/>
-      <c r="N156" s="88"/>
-      <c r="P156" s="89"/>
+      <c r="M156" s="96"/>
+      <c r="N156" s="96"/>
+      <c r="P156" s="97"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="M157" s="88"/>
-      <c r="N157" s="88"/>
-      <c r="P157" s="89"/>
+      <c r="M157" s="96"/>
+      <c r="N157" s="96"/>
+      <c r="P157" s="97"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="M158" s="88"/>
-      <c r="N158" s="88"/>
-      <c r="P158" s="89"/>
+      <c r="M158" s="96"/>
+      <c r="N158" s="96"/>
+      <c r="P158" s="97"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="M159" s="88"/>
-      <c r="N159" s="88"/>
-      <c r="P159" s="89"/>
+      <c r="M159" s="96"/>
+      <c r="N159" s="96"/>
+      <c r="P159" s="97"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="M160" s="88"/>
-      <c r="N160" s="88"/>
-      <c r="P160" s="89"/>
+      <c r="M160" s="96"/>
+      <c r="N160" s="96"/>
+      <c r="P160" s="97"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="M161" s="88"/>
-      <c r="N161" s="88"/>
-      <c r="P161" s="89"/>
+      <c r="M161" s="96"/>
+      <c r="N161" s="96"/>
+      <c r="P161" s="97"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="M162" s="88"/>
-      <c r="N162" s="88"/>
-      <c r="P162" s="89"/>
+      <c r="M162" s="96"/>
+      <c r="N162" s="96"/>
+      <c r="P162" s="97"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="M163" s="88"/>
-      <c r="N163" s="88"/>
-      <c r="P163" s="89"/>
+      <c r="M163" s="96"/>
+      <c r="N163" s="96"/>
+      <c r="P163" s="97"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="M164" s="88"/>
-      <c r="N164" s="88"/>
-      <c r="P164" s="89"/>
+      <c r="M164" s="96"/>
+      <c r="N164" s="96"/>
+      <c r="P164" s="97"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="M165" s="88"/>
-      <c r="N165" s="88"/>
-      <c r="P165" s="89"/>
+      <c r="M165" s="96"/>
+      <c r="N165" s="96"/>
+      <c r="P165" s="97"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="M166" s="88"/>
-      <c r="N166" s="88"/>
-      <c r="P166" s="89"/>
+      <c r="M166" s="96"/>
+      <c r="N166" s="96"/>
+      <c r="P166" s="97"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="M167" s="88"/>
-      <c r="N167" s="88"/>
-      <c r="P167" s="89"/>
+      <c r="M167" s="96"/>
+      <c r="N167" s="96"/>
+      <c r="P167" s="97"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="M168" s="88"/>
-      <c r="N168" s="88"/>
-      <c r="P168" s="89"/>
+      <c r="M168" s="96"/>
+      <c r="N168" s="96"/>
+      <c r="P168" s="97"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="M169" s="88"/>
-      <c r="N169" s="88"/>
-      <c r="P169" s="89"/>
+      <c r="M169" s="96"/>
+      <c r="N169" s="96"/>
+      <c r="P169" s="97"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="M170" s="88"/>
-      <c r="N170" s="88"/>
-      <c r="P170" s="89"/>
+      <c r="M170" s="96"/>
+      <c r="N170" s="96"/>
+      <c r="P170" s="97"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="M171" s="88"/>
-      <c r="N171" s="88"/>
-      <c r="P171" s="89"/>
+      <c r="M171" s="96"/>
+      <c r="N171" s="96"/>
+      <c r="P171" s="97"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="M172" s="88"/>
-      <c r="N172" s="88"/>
-      <c r="P172" s="89"/>
+      <c r="M172" s="96"/>
+      <c r="N172" s="96"/>
+      <c r="P172" s="97"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="M173" s="88"/>
-      <c r="N173" s="88"/>
-      <c r="P173" s="89"/>
+      <c r="M173" s="96"/>
+      <c r="N173" s="96"/>
+      <c r="P173" s="97"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="M174" s="88"/>
-      <c r="N174" s="88"/>
-      <c r="P174" s="89"/>
+      <c r="M174" s="96"/>
+      <c r="N174" s="96"/>
+      <c r="P174" s="97"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="M175" s="88"/>
-      <c r="N175" s="88"/>
-      <c r="P175" s="89"/>
+      <c r="M175" s="96"/>
+      <c r="N175" s="96"/>
+      <c r="P175" s="97"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="M176" s="88"/>
-      <c r="N176" s="88"/>
-      <c r="P176" s="89"/>
+      <c r="M176" s="96"/>
+      <c r="N176" s="96"/>
+      <c r="P176" s="97"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="M177" s="88"/>
-      <c r="N177" s="88"/>
-      <c r="P177" s="89"/>
+      <c r="M177" s="96"/>
+      <c r="N177" s="96"/>
+      <c r="P177" s="97"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="M178" s="88"/>
-      <c r="N178" s="88"/>
-      <c r="P178" s="89"/>
+      <c r="M178" s="96"/>
+      <c r="N178" s="96"/>
+      <c r="P178" s="97"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="M179" s="88"/>
-      <c r="N179" s="88"/>
-      <c r="P179" s="89"/>
+      <c r="M179" s="96"/>
+      <c r="N179" s="96"/>
+      <c r="P179" s="97"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="M180" s="88"/>
-      <c r="N180" s="88"/>
-      <c r="P180" s="89"/>
+      <c r="M180" s="96"/>
+      <c r="N180" s="96"/>
+      <c r="P180" s="97"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="M181" s="88"/>
-      <c r="N181" s="88"/>
-      <c r="P181" s="89"/>
+      <c r="M181" s="96"/>
+      <c r="N181" s="96"/>
+      <c r="P181" s="97"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="M182" s="88"/>
-      <c r="N182" s="88"/>
-      <c r="P182" s="89"/>
+      <c r="M182" s="96"/>
+      <c r="N182" s="96"/>
+      <c r="P182" s="97"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="M183" s="88"/>
-      <c r="N183" s="88"/>
-      <c r="P183" s="89"/>
+      <c r="M183" s="96"/>
+      <c r="N183" s="96"/>
+      <c r="P183" s="97"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="M184" s="88"/>
-      <c r="N184" s="88"/>
-      <c r="P184" s="89"/>
+      <c r="M184" s="96"/>
+      <c r="N184" s="96"/>
+      <c r="P184" s="97"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="M185" s="88"/>
-      <c r="N185" s="88"/>
-      <c r="P185" s="89"/>
+      <c r="M185" s="96"/>
+      <c r="N185" s="96"/>
+      <c r="P185" s="97"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="M186" s="88"/>
-      <c r="N186" s="88"/>
-      <c r="P186" s="89"/>
+      <c r="M186" s="96"/>
+      <c r="N186" s="96"/>
+      <c r="P186" s="97"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="M187" s="88"/>
-      <c r="N187" s="88"/>
-      <c r="P187" s="89"/>
+      <c r="M187" s="96"/>
+      <c r="N187" s="96"/>
+      <c r="P187" s="97"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="M188" s="88"/>
-      <c r="N188" s="88"/>
-      <c r="P188" s="89"/>
+      <c r="M188" s="96"/>
+      <c r="N188" s="96"/>
+      <c r="P188" s="97"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="M189" s="88"/>
-      <c r="N189" s="88"/>
-      <c r="P189" s="89"/>
+      <c r="M189" s="96"/>
+      <c r="N189" s="96"/>
+      <c r="P189" s="97"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="M190" s="88"/>
-      <c r="N190" s="88"/>
-      <c r="P190" s="89"/>
+      <c r="M190" s="96"/>
+      <c r="N190" s="96"/>
+      <c r="P190" s="97"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="M191" s="88"/>
-      <c r="N191" s="88"/>
-      <c r="P191" s="89"/>
+      <c r="M191" s="96"/>
+      <c r="N191" s="96"/>
+      <c r="P191" s="97"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="M192" s="88"/>
-      <c r="N192" s="88"/>
-      <c r="P192" s="89"/>
+      <c r="M192" s="96"/>
+      <c r="N192" s="96"/>
+      <c r="P192" s="97"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="M193" s="88"/>
-      <c r="N193" s="88"/>
-      <c r="P193" s="89"/>
+      <c r="M193" s="96"/>
+      <c r="N193" s="96"/>
+      <c r="P193" s="97"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="M194" s="88"/>
-      <c r="N194" s="88"/>
-      <c r="P194" s="89"/>
+      <c r="M194" s="96"/>
+      <c r="N194" s="96"/>
+      <c r="P194" s="97"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="M195" s="88"/>
-      <c r="N195" s="88"/>
-      <c r="P195" s="89"/>
+      <c r="M195" s="96"/>
+      <c r="N195" s="96"/>
+      <c r="P195" s="97"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="M196" s="88"/>
-      <c r="N196" s="88"/>
-      <c r="P196" s="89"/>
+      <c r="M196" s="96"/>
+      <c r="N196" s="96"/>
+      <c r="P196" s="97"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="M197" s="88"/>
-      <c r="N197" s="88"/>
-      <c r="P197" s="89"/>
+      <c r="M197" s="96"/>
+      <c r="N197" s="96"/>
+      <c r="P197" s="97"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="M198" s="88"/>
-      <c r="N198" s="88"/>
-      <c r="P198" s="89"/>
+      <c r="M198" s="96"/>
+      <c r="N198" s="96"/>
+      <c r="P198" s="97"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="M199" s="88"/>
-      <c r="N199" s="88"/>
-      <c r="P199" s="89"/>
+      <c r="M199" s="96"/>
+      <c r="N199" s="96"/>
+      <c r="P199" s="97"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="M200" s="88"/>
-      <c r="N200" s="88"/>
-      <c r="P200" s="89"/>
+      <c r="M200" s="96"/>
+      <c r="N200" s="96"/>
+      <c r="P200" s="97"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="M201" s="88"/>
-      <c r="N201" s="88"/>
-      <c r="P201" s="89"/>
+      <c r="M201" s="96"/>
+      <c r="N201" s="96"/>
+      <c r="P201" s="97"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="M202" s="88"/>
-      <c r="N202" s="88"/>
-      <c r="P202" s="89"/>
+      <c r="M202" s="96"/>
+      <c r="N202" s="96"/>
+      <c r="P202" s="97"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="M203" s="88"/>
-      <c r="N203" s="88"/>
-      <c r="P203" s="89"/>
+      <c r="M203" s="96"/>
+      <c r="N203" s="96"/>
+      <c r="P203" s="97"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="M204" s="88"/>
-      <c r="N204" s="88"/>
-      <c r="P204" s="89"/>
+      <c r="M204" s="96"/>
+      <c r="N204" s="96"/>
+      <c r="P204" s="97"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="M205" s="88"/>
-      <c r="N205" s="88"/>
-      <c r="P205" s="89"/>
+      <c r="M205" s="96"/>
+      <c r="N205" s="96"/>
+      <c r="P205" s="97"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="M206" s="88"/>
-      <c r="N206" s="88"/>
-      <c r="P206" s="89"/>
+      <c r="M206" s="96"/>
+      <c r="N206" s="96"/>
+      <c r="P206" s="97"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="M207" s="88"/>
-      <c r="N207" s="88"/>
-      <c r="P207" s="89"/>
+      <c r="M207" s="96"/>
+      <c r="N207" s="96"/>
+      <c r="P207" s="97"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="M208" s="88"/>
-      <c r="N208" s="88"/>
-      <c r="P208" s="89"/>
+      <c r="M208" s="96"/>
+      <c r="N208" s="96"/>
+      <c r="P208" s="97"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="M209" s="88"/>
-      <c r="N209" s="88"/>
-      <c r="P209" s="89"/>
+      <c r="M209" s="96"/>
+      <c r="N209" s="96"/>
+      <c r="P209" s="97"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="M210" s="88"/>
-      <c r="N210" s="88"/>
-      <c r="P210" s="89"/>
+      <c r="M210" s="96"/>
+      <c r="N210" s="96"/>
+      <c r="P210" s="97"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="M211" s="88"/>
-      <c r="N211" s="88"/>
-      <c r="P211" s="89"/>
+      <c r="M211" s="96"/>
+      <c r="N211" s="96"/>
+      <c r="P211" s="97"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="M212" s="88"/>
-      <c r="N212" s="88"/>
-      <c r="P212" s="89"/>
+      <c r="M212" s="96"/>
+      <c r="N212" s="96"/>
+      <c r="P212" s="97"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="M213" s="88"/>
-      <c r="N213" s="88"/>
-      <c r="P213" s="89"/>
+      <c r="M213" s="96"/>
+      <c r="N213" s="96"/>
+      <c r="P213" s="97"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="M214" s="88"/>
-      <c r="N214" s="88"/>
-      <c r="P214" s="89"/>
+      <c r="M214" s="96"/>
+      <c r="N214" s="96"/>
+      <c r="P214" s="97"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="M215" s="88"/>
-      <c r="N215" s="88"/>
-      <c r="P215" s="89"/>
+      <c r="M215" s="96"/>
+      <c r="N215" s="96"/>
+      <c r="P215" s="97"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="M216" s="88"/>
-      <c r="N216" s="88"/>
-      <c r="P216" s="89"/>
+      <c r="M216" s="96"/>
+      <c r="N216" s="96"/>
+      <c r="P216" s="97"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="M217" s="88"/>
-      <c r="N217" s="88"/>
-      <c r="P217" s="89"/>
+      <c r="M217" s="96"/>
+      <c r="N217" s="96"/>
+      <c r="P217" s="97"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="M218" s="88"/>
-      <c r="N218" s="88"/>
-      <c r="P218" s="89"/>
+      <c r="M218" s="96"/>
+      <c r="N218" s="96"/>
+      <c r="P218" s="97"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="M219" s="88"/>
-      <c r="N219" s="88"/>
-      <c r="P219" s="89"/>
+      <c r="M219" s="96"/>
+      <c r="N219" s="96"/>
+      <c r="P219" s="97"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="M220" s="88"/>
-      <c r="N220" s="88"/>
-      <c r="P220" s="89"/>
+      <c r="M220" s="96"/>
+      <c r="N220" s="96"/>
+      <c r="P220" s="97"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="M221" s="88"/>
-      <c r="N221" s="88"/>
-      <c r="P221" s="89"/>
+      <c r="M221" s="96"/>
+      <c r="N221" s="96"/>
+      <c r="P221" s="97"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="M222" s="88"/>
-      <c r="N222" s="88"/>
-      <c r="P222" s="89"/>
+      <c r="M222" s="96"/>
+      <c r="N222" s="96"/>
+      <c r="P222" s="97"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="M223" s="88"/>
-      <c r="N223" s="88"/>
-      <c r="P223" s="89"/>
+      <c r="M223" s="96"/>
+      <c r="N223" s="96"/>
+      <c r="P223" s="97"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="M224" s="88"/>
-      <c r="N224" s="88"/>
-      <c r="P224" s="89"/>
+      <c r="M224" s="96"/>
+      <c r="N224" s="96"/>
+      <c r="P224" s="97"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="M225" s="88"/>
-      <c r="N225" s="88"/>
-      <c r="P225" s="89"/>
+      <c r="M225" s="96"/>
+      <c r="N225" s="96"/>
+      <c r="P225" s="97"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="M226" s="88"/>
-      <c r="N226" s="88"/>
-      <c r="P226" s="89"/>
+      <c r="M226" s="96"/>
+      <c r="N226" s="96"/>
+      <c r="P226" s="97"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="M227" s="88"/>
-      <c r="N227" s="88"/>
-      <c r="P227" s="89"/>
+      <c r="M227" s="96"/>
+      <c r="N227" s="96"/>
+      <c r="P227" s="97"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="M228" s="88"/>
-      <c r="N228" s="88"/>
-      <c r="P228" s="89"/>
+      <c r="M228" s="96"/>
+      <c r="N228" s="96"/>
+      <c r="P228" s="97"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="M229" s="88"/>
-      <c r="N229" s="88"/>
-      <c r="P229" s="89"/>
+      <c r="M229" s="96"/>
+      <c r="N229" s="96"/>
+      <c r="P229" s="97"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="M230" s="88"/>
-      <c r="N230" s="88"/>
-      <c r="P230" s="89"/>
+      <c r="M230" s="96"/>
+      <c r="N230" s="96"/>
+      <c r="P230" s="97"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="M231" s="88"/>
-      <c r="N231" s="88"/>
-      <c r="P231" s="89"/>
+      <c r="M231" s="96"/>
+      <c r="N231" s="96"/>
+      <c r="P231" s="97"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="M232" s="88"/>
-      <c r="N232" s="88"/>
-      <c r="P232" s="89"/>
+      <c r="M232" s="96"/>
+      <c r="N232" s="96"/>
+      <c r="P232" s="97"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="M233" s="88"/>
-      <c r="N233" s="88"/>
-      <c r="P233" s="89"/>
+      <c r="M233" s="96"/>
+      <c r="N233" s="96"/>
+      <c r="P233" s="97"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="M234" s="88"/>
-      <c r="N234" s="88"/>
-      <c r="P234" s="89"/>
+      <c r="M234" s="96"/>
+      <c r="N234" s="96"/>
+      <c r="P234" s="97"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="M235" s="88"/>
-      <c r="N235" s="88"/>
-      <c r="P235" s="89"/>
+      <c r="M235" s="96"/>
+      <c r="N235" s="96"/>
+      <c r="P235" s="97"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="M236" s="88"/>
-      <c r="N236" s="88"/>
-      <c r="P236" s="89"/>
+      <c r="M236" s="96"/>
+      <c r="N236" s="96"/>
+      <c r="P236" s="97"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="M237" s="88"/>
-      <c r="N237" s="88"/>
-      <c r="P237" s="89"/>
+      <c r="M237" s="96"/>
+      <c r="N237" s="96"/>
+      <c r="P237" s="97"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="M238" s="88"/>
-      <c r="N238" s="88"/>
-      <c r="P238" s="89"/>
+      <c r="M238" s="96"/>
+      <c r="N238" s="96"/>
+      <c r="P238" s="97"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="M239" s="88"/>
-      <c r="N239" s="88"/>
-      <c r="P239" s="89"/>
+      <c r="M239" s="96"/>
+      <c r="N239" s="96"/>
+      <c r="P239" s="97"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="M240" s="88"/>
-      <c r="N240" s="88"/>
-      <c r="P240" s="89"/>
+      <c r="M240" s="96"/>
+      <c r="N240" s="96"/>
+      <c r="P240" s="97"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="M241" s="88"/>
-      <c r="N241" s="88"/>
-      <c r="P241" s="89"/>
+      <c r="M241" s="96"/>
+      <c r="N241" s="96"/>
+      <c r="P241" s="97"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="M242" s="88"/>
-      <c r="N242" s="88"/>
-      <c r="P242" s="89"/>
+      <c r="M242" s="96"/>
+      <c r="N242" s="96"/>
+      <c r="P242" s="97"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="M243" s="88"/>
-      <c r="N243" s="88"/>
-      <c r="P243" s="89"/>
+      <c r="M243" s="96"/>
+      <c r="N243" s="96"/>
+      <c r="P243" s="97"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="M244" s="88"/>
-      <c r="N244" s="88"/>
-      <c r="P244" s="89"/>
+      <c r="M244" s="96"/>
+      <c r="N244" s="96"/>
+      <c r="P244" s="97"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="M245" s="88"/>
-      <c r="N245" s="88"/>
-      <c r="P245" s="89"/>
+      <c r="M245" s="96"/>
+      <c r="N245" s="96"/>
+      <c r="P245" s="97"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="M246" s="88"/>
-      <c r="N246" s="88"/>
-      <c r="P246" s="89"/>
+      <c r="M246" s="96"/>
+      <c r="N246" s="96"/>
+      <c r="P246" s="97"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="M247" s="88"/>
-      <c r="N247" s="88"/>
-      <c r="P247" s="89"/>
+      <c r="M247" s="96"/>
+      <c r="N247" s="96"/>
+      <c r="P247" s="97"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="M248" s="88"/>
-      <c r="N248" s="88"/>
-      <c r="P248" s="89"/>
+      <c r="M248" s="96"/>
+      <c r="N248" s="96"/>
+      <c r="P248" s="97"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="M249" s="88"/>
-      <c r="N249" s="88"/>
-      <c r="P249" s="89"/>
+      <c r="M249" s="96"/>
+      <c r="N249" s="96"/>
+      <c r="P249" s="97"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="M250" s="88"/>
-      <c r="N250" s="88"/>
-      <c r="P250" s="89"/>
+      <c r="M250" s="96"/>
+      <c r="N250" s="96"/>
+      <c r="P250" s="97"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="M251" s="88"/>
-      <c r="N251" s="88"/>
-      <c r="P251" s="89"/>
+      <c r="M251" s="96"/>
+      <c r="N251" s="96"/>
+      <c r="P251" s="97"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="M252" s="88"/>
-      <c r="N252" s="88"/>
-      <c r="P252" s="89"/>
+      <c r="M252" s="96"/>
+      <c r="N252" s="96"/>
+      <c r="P252" s="97"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="M253" s="88"/>
-      <c r="N253" s="88"/>
-      <c r="P253" s="89"/>
+      <c r="M253" s="96"/>
+      <c r="N253" s="96"/>
+      <c r="P253" s="97"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="M254" s="88"/>
-      <c r="N254" s="88"/>
-      <c r="P254" s="89"/>
+      <c r="M254" s="96"/>
+      <c r="N254" s="96"/>
+      <c r="P254" s="97"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="M255" s="88"/>
-      <c r="N255" s="88"/>
-      <c r="P255" s="89"/>
+      <c r="M255" s="96"/>
+      <c r="N255" s="96"/>
+      <c r="P255" s="97"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="M256" s="88"/>
-      <c r="N256" s="88"/>
-      <c r="P256" s="89"/>
+      <c r="M256" s="96"/>
+      <c r="N256" s="96"/>
+      <c r="P256" s="97"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="M257" s="88"/>
-      <c r="N257" s="88"/>
-      <c r="P257" s="89"/>
+      <c r="M257" s="96"/>
+      <c r="N257" s="96"/>
+      <c r="P257" s="97"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="M258" s="88"/>
-      <c r="N258" s="88"/>
-      <c r="P258" s="89"/>
+      <c r="M258" s="96"/>
+      <c r="N258" s="96"/>
+      <c r="P258" s="97"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="M259" s="88"/>
-      <c r="N259" s="88"/>
-      <c r="P259" s="89"/>
+      <c r="M259" s="96"/>
+      <c r="N259" s="96"/>
+      <c r="P259" s="97"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="M260" s="88"/>
-      <c r="N260" s="88"/>
-      <c r="P260" s="89"/>
+      <c r="M260" s="96"/>
+      <c r="N260" s="96"/>
+      <c r="P260" s="97"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="M261" s="88"/>
-      <c r="N261" s="88"/>
-      <c r="P261" s="89"/>
+      <c r="M261" s="96"/>
+      <c r="N261" s="96"/>
+      <c r="P261" s="97"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="M262" s="88"/>
-      <c r="N262" s="88"/>
-      <c r="P262" s="89"/>
+      <c r="M262" s="96"/>
+      <c r="N262" s="96"/>
+      <c r="P262" s="97"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="M263" s="88"/>
-      <c r="N263" s="88"/>
-      <c r="P263" s="89"/>
+      <c r="M263" s="96"/>
+      <c r="N263" s="96"/>
+      <c r="P263" s="97"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="M264" s="88"/>
-      <c r="N264" s="88"/>
-      <c r="P264" s="89"/>
+      <c r="M264" s="96"/>
+      <c r="N264" s="96"/>
+      <c r="P264" s="97"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="M265" s="88"/>
-      <c r="N265" s="88"/>
-      <c r="P265" s="89"/>
+      <c r="M265" s="96"/>
+      <c r="N265" s="96"/>
+      <c r="P265" s="97"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="M266" s="88"/>
-      <c r="N266" s="88"/>
-      <c r="P266" s="89"/>
+      <c r="M266" s="96"/>
+      <c r="N266" s="96"/>
+      <c r="P266" s="97"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="M267" s="88"/>
-      <c r="N267" s="88"/>
-      <c r="P267" s="89"/>
+      <c r="M267" s="96"/>
+      <c r="N267" s="96"/>
+      <c r="P267" s="97"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="M268" s="88"/>
-      <c r="N268" s="88"/>
-      <c r="P268" s="89"/>
+      <c r="M268" s="96"/>
+      <c r="N268" s="96"/>
+      <c r="P268" s="97"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="M269" s="88"/>
-      <c r="N269" s="88"/>
-      <c r="P269" s="89"/>
+      <c r="M269" s="96"/>
+      <c r="N269" s="96"/>
+      <c r="P269" s="97"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="M270" s="88"/>
-      <c r="N270" s="88"/>
-      <c r="P270" s="89"/>
+      <c r="M270" s="96"/>
+      <c r="N270" s="96"/>
+      <c r="P270" s="97"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="M271" s="88"/>
-      <c r="N271" s="88"/>
-      <c r="P271" s="89"/>
+      <c r="M271" s="96"/>
+      <c r="N271" s="96"/>
+      <c r="P271" s="97"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="M272" s="88"/>
-      <c r="N272" s="88"/>
-      <c r="P272" s="89"/>
+      <c r="M272" s="96"/>
+      <c r="N272" s="96"/>
+      <c r="P272" s="97"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="M273" s="88"/>
-      <c r="N273" s="88"/>
-      <c r="P273" s="89"/>
+      <c r="M273" s="96"/>
+      <c r="N273" s="96"/>
+      <c r="P273" s="97"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="M274" s="88"/>
-      <c r="N274" s="88"/>
-      <c r="P274" s="89"/>
+      <c r="M274" s="96"/>
+      <c r="N274" s="96"/>
+      <c r="P274" s="97"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="M275" s="88"/>
-      <c r="N275" s="88"/>
-      <c r="P275" s="89"/>
+      <c r="M275" s="96"/>
+      <c r="N275" s="96"/>
+      <c r="P275" s="97"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="M276" s="88"/>
-      <c r="N276" s="88"/>
-      <c r="P276" s="89"/>
+      <c r="M276" s="96"/>
+      <c r="N276" s="96"/>
+      <c r="P276" s="97"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="M277" s="88"/>
-      <c r="N277" s="88"/>
-      <c r="P277" s="89"/>
+      <c r="M277" s="96"/>
+      <c r="N277" s="96"/>
+      <c r="P277" s="97"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="M278" s="88"/>
-      <c r="N278" s="88"/>
-      <c r="P278" s="89"/>
+      <c r="M278" s="96"/>
+      <c r="N278" s="96"/>
+      <c r="P278" s="97"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="M279" s="88"/>
-      <c r="N279" s="88"/>
-      <c r="P279" s="89"/>
+      <c r="M279" s="96"/>
+      <c r="N279" s="96"/>
+      <c r="P279" s="97"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="M280" s="88"/>
-      <c r="N280" s="88"/>
-      <c r="P280" s="89"/>
+      <c r="M280" s="96"/>
+      <c r="N280" s="96"/>
+      <c r="P280" s="97"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="M281" s="88"/>
-      <c r="N281" s="88"/>
-      <c r="P281" s="89"/>
+      <c r="M281" s="96"/>
+      <c r="N281" s="96"/>
+      <c r="P281" s="97"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="M282" s="88"/>
-      <c r="N282" s="88"/>
-      <c r="P282" s="89"/>
+      <c r="M282" s="96"/>
+      <c r="N282" s="96"/>
+      <c r="P282" s="97"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="M283" s="88"/>
-      <c r="N283" s="88"/>
-      <c r="P283" s="89"/>
+      <c r="M283" s="96"/>
+      <c r="N283" s="96"/>
+      <c r="P283" s="97"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="M284" s="88"/>
-      <c r="N284" s="88"/>
-      <c r="P284" s="89"/>
+      <c r="M284" s="96"/>
+      <c r="N284" s="96"/>
+      <c r="P284" s="97"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="M285" s="88"/>
-      <c r="N285" s="88"/>
-      <c r="P285" s="89"/>
+      <c r="M285" s="96"/>
+      <c r="N285" s="96"/>
+      <c r="P285" s="97"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="M286" s="88"/>
-      <c r="N286" s="88"/>
-      <c r="P286" s="89"/>
+      <c r="M286" s="96"/>
+      <c r="N286" s="96"/>
+      <c r="P286" s="97"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="M287" s="88"/>
-      <c r="N287" s="88"/>
-      <c r="P287" s="89"/>
+      <c r="M287" s="96"/>
+      <c r="N287" s="96"/>
+      <c r="P287" s="97"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="M288" s="88"/>
-      <c r="N288" s="88"/>
-      <c r="P288" s="89"/>
+      <c r="M288" s="96"/>
+      <c r="N288" s="96"/>
+      <c r="P288" s="97"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="M289" s="88"/>
-      <c r="N289" s="88"/>
-      <c r="P289" s="89"/>
+      <c r="M289" s="96"/>
+      <c r="N289" s="96"/>
+      <c r="P289" s="97"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="M290" s="88"/>
-      <c r="N290" s="88"/>
-      <c r="P290" s="89"/>
+      <c r="M290" s="96"/>
+      <c r="N290" s="96"/>
+      <c r="P290" s="97"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="M291" s="88"/>
-      <c r="N291" s="88"/>
-      <c r="P291" s="89"/>
+      <c r="M291" s="96"/>
+      <c r="N291" s="96"/>
+      <c r="P291" s="97"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="M292" s="88"/>
-      <c r="N292" s="88"/>
-      <c r="P292" s="89"/>
+      <c r="M292" s="96"/>
+      <c r="N292" s="96"/>
+      <c r="P292" s="97"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="M293" s="88"/>
-      <c r="N293" s="88"/>
-      <c r="P293" s="89"/>
+      <c r="M293" s="96"/>
+      <c r="N293" s="96"/>
+      <c r="P293" s="97"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="M294" s="88"/>
-      <c r="N294" s="88"/>
-      <c r="P294" s="89"/>
+      <c r="M294" s="96"/>
+      <c r="N294" s="96"/>
+      <c r="P294" s="97"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="M295" s="88"/>
-      <c r="N295" s="88"/>
-      <c r="P295" s="89"/>
+      <c r="M295" s="96"/>
+      <c r="N295" s="96"/>
+      <c r="P295" s="97"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="M296" s="88"/>
-      <c r="N296" s="88"/>
-      <c r="P296" s="89"/>
+      <c r="M296" s="96"/>
+      <c r="N296" s="96"/>
+      <c r="P296" s="97"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="M297" s="88"/>
-      <c r="N297" s="88"/>
-      <c r="P297" s="89"/>
+      <c r="M297" s="96"/>
+      <c r="N297" s="96"/>
+      <c r="P297" s="97"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="M298" s="88"/>
-      <c r="N298" s="88"/>
-      <c r="P298" s="89"/>
+      <c r="M298" s="96"/>
+      <c r="N298" s="96"/>
+      <c r="P298" s="97"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="M299" s="88"/>
-      <c r="N299" s="88"/>
-      <c r="P299" s="89"/>
+      <c r="M299" s="96"/>
+      <c r="N299" s="96"/>
+      <c r="P299" s="97"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="M300" s="88"/>
-      <c r="N300" s="88"/>
-      <c r="P300" s="89"/>
+      <c r="M300" s="96"/>
+      <c r="N300" s="96"/>
+      <c r="P300" s="97"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="M301" s="88"/>
-      <c r="N301" s="88"/>
-      <c r="P301" s="89"/>
+      <c r="M301" s="96"/>
+      <c r="N301" s="96"/>
+      <c r="P301" s="97"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="M302" s="88"/>
-      <c r="N302" s="88"/>
-      <c r="P302" s="89"/>
+      <c r="M302" s="96"/>
+      <c r="N302" s="96"/>
+      <c r="P302" s="97"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="M303" s="88"/>
-      <c r="N303" s="88"/>
-      <c r="P303" s="89"/>
+      <c r="M303" s="96"/>
+      <c r="N303" s="96"/>
+      <c r="P303" s="97"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="M304" s="88"/>
-      <c r="N304" s="88"/>
-      <c r="P304" s="89"/>
+      <c r="M304" s="96"/>
+      <c r="N304" s="96"/>
+      <c r="P304" s="97"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="M305" s="88"/>
-      <c r="N305" s="88"/>
-      <c r="P305" s="89"/>
+      <c r="M305" s="96"/>
+      <c r="N305" s="96"/>
+      <c r="P305" s="97"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="M306" s="88"/>
-      <c r="N306" s="88"/>
-      <c r="P306" s="89"/>
+      <c r="M306" s="96"/>
+      <c r="N306" s="96"/>
+      <c r="P306" s="97"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="M307" s="88"/>
-      <c r="N307" s="88"/>
-      <c r="P307" s="89"/>
+      <c r="M307" s="96"/>
+      <c r="N307" s="96"/>
+      <c r="P307" s="97"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="M308" s="88"/>
-      <c r="N308" s="88"/>
-      <c r="P308" s="89"/>
+      <c r="M308" s="96"/>
+      <c r="N308" s="96"/>
+      <c r="P308" s="97"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="M309" s="88"/>
-      <c r="N309" s="88"/>
-      <c r="P309" s="89"/>
+      <c r="M309" s="96"/>
+      <c r="N309" s="96"/>
+      <c r="P309" s="97"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="M310" s="88"/>
-      <c r="N310" s="88"/>
-      <c r="P310" s="89"/>
+      <c r="M310" s="96"/>
+      <c r="N310" s="96"/>
+      <c r="P310" s="97"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="M311" s="88"/>
-      <c r="N311" s="88"/>
-      <c r="P311" s="89"/>
+      <c r="M311" s="96"/>
+      <c r="N311" s="96"/>
+      <c r="P311" s="97"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="M312" s="88"/>
-      <c r="N312" s="88"/>
-      <c r="P312" s="89"/>
+      <c r="M312" s="96"/>
+      <c r="N312" s="96"/>
+      <c r="P312" s="97"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="M313" s="88"/>
-      <c r="N313" s="88"/>
-      <c r="P313" s="89"/>
+      <c r="M313" s="96"/>
+      <c r="N313" s="96"/>
+      <c r="P313" s="97"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="M314" s="88"/>
-      <c r="N314" s="88"/>
-      <c r="P314" s="89"/>
+      <c r="M314" s="96"/>
+      <c r="N314" s="96"/>
+      <c r="P314" s="97"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="M315" s="88"/>
-      <c r="N315" s="88"/>
-      <c r="P315" s="89"/>
+      <c r="M315" s="96"/>
+      <c r="N315" s="96"/>
+      <c r="P315" s="97"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="M316" s="88"/>
-      <c r="N316" s="88"/>
-      <c r="P316" s="89"/>
+      <c r="M316" s="96"/>
+      <c r="N316" s="96"/>
+      <c r="P316" s="97"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="M317" s="88"/>
-      <c r="N317" s="88"/>
-      <c r="P317" s="89"/>
+      <c r="M317" s="96"/>
+      <c r="N317" s="96"/>
+      <c r="P317" s="97"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="M318" s="88"/>
-      <c r="N318" s="88"/>
-      <c r="P318" s="89"/>
+      <c r="M318" s="96"/>
+      <c r="N318" s="96"/>
+      <c r="P318" s="97"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="M319" s="88"/>
-      <c r="N319" s="88"/>
-      <c r="P319" s="89"/>
+      <c r="M319" s="96"/>
+      <c r="N319" s="96"/>
+      <c r="P319" s="97"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="M320" s="88"/>
-      <c r="N320" s="88"/>
-      <c r="P320" s="89"/>
+      <c r="M320" s="96"/>
+      <c r="N320" s="96"/>
+      <c r="P320" s="97"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="M321" s="88"/>
-      <c r="N321" s="88"/>
-      <c r="P321" s="89"/>
+      <c r="M321" s="96"/>
+      <c r="N321" s="96"/>
+      <c r="P321" s="97"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="M322" s="88"/>
-      <c r="N322" s="88"/>
-      <c r="P322" s="89"/>
+      <c r="M322" s="96"/>
+      <c r="N322" s="96"/>
+      <c r="P322" s="97"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="M323" s="88"/>
-      <c r="N323" s="88"/>
-      <c r="P323" s="89"/>
+      <c r="M323" s="96"/>
+      <c r="N323" s="96"/>
+      <c r="P323" s="97"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="M324" s="88"/>
-      <c r="N324" s="88"/>
-      <c r="P324" s="89"/>
+      <c r="M324" s="96"/>
+      <c r="N324" s="96"/>
+      <c r="P324" s="97"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="M325" s="88"/>
-      <c r="N325" s="88"/>
-      <c r="P325" s="89"/>
+      <c r="M325" s="96"/>
+      <c r="N325" s="96"/>
+      <c r="P325" s="97"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="M326" s="88"/>
-      <c r="N326" s="88"/>
-      <c r="P326" s="89"/>
+      <c r="M326" s="96"/>
+      <c r="N326" s="96"/>
+      <c r="P326" s="97"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="M327" s="88"/>
-      <c r="N327" s="88"/>
-      <c r="P327" s="89"/>
+      <c r="M327" s="96"/>
+      <c r="N327" s="96"/>
+      <c r="P327" s="97"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="M328" s="88"/>
-      <c r="N328" s="88"/>
-      <c r="P328" s="89"/>
+      <c r="M328" s="96"/>
+      <c r="N328" s="96"/>
+      <c r="P328" s="97"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="M329" s="88"/>
-      <c r="N329" s="88"/>
-      <c r="P329" s="89"/>
+      <c r="M329" s="96"/>
+      <c r="N329" s="96"/>
+      <c r="P329" s="97"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="M330" s="88"/>
-      <c r="N330" s="88"/>
-      <c r="P330" s="89"/>
+      <c r="M330" s="96"/>
+      <c r="N330" s="96"/>
+      <c r="P330" s="97"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="M331" s="88"/>
-      <c r="N331" s="88"/>
-      <c r="P331" s="89"/>
+      <c r="M331" s="96"/>
+      <c r="N331" s="96"/>
+      <c r="P331" s="97"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="M332" s="88"/>
-      <c r="N332" s="88"/>
-      <c r="P332" s="89"/>
+      <c r="M332" s="96"/>
+      <c r="N332" s="96"/>
+      <c r="P332" s="97"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="M333" s="88"/>
-      <c r="N333" s="88"/>
-      <c r="P333" s="89"/>
+      <c r="M333" s="96"/>
+      <c r="N333" s="96"/>
+      <c r="P333" s="97"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="M334" s="88"/>
-      <c r="N334" s="88"/>
-      <c r="P334" s="89"/>
+      <c r="M334" s="96"/>
+      <c r="N334" s="96"/>
+      <c r="P334" s="97"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="M335" s="88"/>
-      <c r="N335" s="88"/>
-      <c r="P335" s="89"/>
+      <c r="M335" s="96"/>
+      <c r="N335" s="96"/>
+      <c r="P335" s="97"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="M336" s="88"/>
-      <c r="N336" s="88"/>
-      <c r="P336" s="89"/>
+      <c r="M336" s="96"/>
+      <c r="N336" s="96"/>
+      <c r="P336" s="97"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="M337" s="88"/>
-      <c r="N337" s="88"/>
-      <c r="P337" s="89"/>
+      <c r="M337" s="96"/>
+      <c r="N337" s="96"/>
+      <c r="P337" s="97"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="M338" s="88"/>
-      <c r="N338" s="88"/>
-      <c r="P338" s="89"/>
+      <c r="M338" s="96"/>
+      <c r="N338" s="96"/>
+      <c r="P338" s="97"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="M339" s="88"/>
-      <c r="N339" s="88"/>
-      <c r="P339" s="89"/>
+      <c r="M339" s="96"/>
+      <c r="N339" s="96"/>
+      <c r="P339" s="97"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="M340" s="88"/>
-      <c r="N340" s="88"/>
-      <c r="P340" s="89"/>
+      <c r="M340" s="96"/>
+      <c r="N340" s="96"/>
+      <c r="P340" s="97"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="M341" s="88"/>
-      <c r="N341" s="88"/>
-      <c r="P341" s="89"/>
+      <c r="M341" s="96"/>
+      <c r="N341" s="96"/>
+      <c r="P341" s="97"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="M342" s="88"/>
-      <c r="N342" s="88"/>
-      <c r="P342" s="89"/>
+      <c r="M342" s="96"/>
+      <c r="N342" s="96"/>
+      <c r="P342" s="97"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="M343" s="88"/>
-      <c r="N343" s="88"/>
-      <c r="P343" s="89"/>
+      <c r="M343" s="96"/>
+      <c r="N343" s="96"/>
+      <c r="P343" s="97"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="M344" s="88"/>
-      <c r="N344" s="88"/>
-      <c r="P344" s="89"/>
+      <c r="M344" s="96"/>
+      <c r="N344" s="96"/>
+      <c r="P344" s="97"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="M345" s="88"/>
-      <c r="N345" s="88"/>
-      <c r="P345" s="89"/>
+      <c r="M345" s="96"/>
+      <c r="N345" s="96"/>
+      <c r="P345" s="97"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="M346" s="88"/>
-      <c r="N346" s="88"/>
-      <c r="P346" s="89"/>
+      <c r="M346" s="96"/>
+      <c r="N346" s="96"/>
+      <c r="P346" s="97"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="M347" s="88"/>
-      <c r="N347" s="88"/>
-      <c r="P347" s="89"/>
+      <c r="M347" s="96"/>
+      <c r="N347" s="96"/>
+      <c r="P347" s="97"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="M348" s="88"/>
-      <c r="N348" s="88"/>
-      <c r="P348" s="89"/>
+      <c r="M348" s="96"/>
+      <c r="N348" s="96"/>
+      <c r="P348" s="97"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="M349" s="88"/>
-      <c r="N349" s="88"/>
-      <c r="P349" s="89"/>
+      <c r="M349" s="96"/>
+      <c r="N349" s="96"/>
+      <c r="P349" s="97"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="M350" s="88"/>
-      <c r="N350" s="88"/>
-      <c r="P350" s="89"/>
+      <c r="M350" s="96"/>
+      <c r="N350" s="96"/>
+      <c r="P350" s="97"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="M351" s="88"/>
-      <c r="N351" s="88"/>
-      <c r="P351" s="89"/>
+      <c r="M351" s="96"/>
+      <c r="N351" s="96"/>
+      <c r="P351" s="97"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="M352" s="88"/>
-      <c r="N352" s="88"/>
-      <c r="P352" s="89"/>
+      <c r="M352" s="96"/>
+      <c r="N352" s="96"/>
+      <c r="P352" s="97"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="M353" s="88"/>
-      <c r="N353" s="88"/>
-      <c r="P353" s="89"/>
+      <c r="M353" s="96"/>
+      <c r="N353" s="96"/>
+      <c r="P353" s="97"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="M354" s="88"/>
-      <c r="N354" s="88"/>
-      <c r="P354" s="89"/>
+      <c r="M354" s="96"/>
+      <c r="N354" s="96"/>
+      <c r="P354" s="97"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="M355" s="88"/>
-      <c r="N355" s="88"/>
-      <c r="P355" s="89"/>
+      <c r="M355" s="96"/>
+      <c r="N355" s="96"/>
+      <c r="P355" s="97"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="M356" s="88"/>
-      <c r="N356" s="88"/>
-      <c r="P356" s="89"/>
+      <c r="M356" s="96"/>
+      <c r="N356" s="96"/>
+      <c r="P356" s="97"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="M357" s="88"/>
-      <c r="N357" s="88"/>
-      <c r="P357" s="89"/>
+      <c r="M357" s="96"/>
+      <c r="N357" s="96"/>
+      <c r="P357" s="97"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="M358" s="88"/>
-      <c r="N358" s="88"/>
-      <c r="P358" s="89"/>
+      <c r="M358" s="96"/>
+      <c r="N358" s="96"/>
+      <c r="P358" s="97"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="M359" s="88"/>
-      <c r="N359" s="88"/>
-      <c r="P359" s="89"/>
+      <c r="M359" s="96"/>
+      <c r="N359" s="96"/>
+      <c r="P359" s="97"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="M360" s="88"/>
-      <c r="N360" s="88"/>
-      <c r="P360" s="89"/>
+      <c r="M360" s="96"/>
+      <c r="N360" s="96"/>
+      <c r="P360" s="97"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="M361" s="88"/>
-      <c r="N361" s="88"/>
-      <c r="P361" s="89"/>
+      <c r="M361" s="96"/>
+      <c r="N361" s="96"/>
+      <c r="P361" s="97"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="M362" s="88"/>
-      <c r="N362" s="88"/>
-      <c r="P362" s="89"/>
+      <c r="M362" s="96"/>
+      <c r="N362" s="96"/>
+      <c r="P362" s="97"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="M363" s="88"/>
-      <c r="N363" s="88"/>
-      <c r="P363" s="89"/>
+      <c r="M363" s="96"/>
+      <c r="N363" s="96"/>
+      <c r="P363" s="97"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="M364" s="88"/>
-      <c r="N364" s="88"/>
-      <c r="P364" s="89"/>
+      <c r="M364" s="96"/>
+      <c r="N364" s="96"/>
+      <c r="P364" s="97"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="M365" s="88"/>
-      <c r="N365" s="88"/>
-      <c r="P365" s="89"/>
+      <c r="M365" s="96"/>
+      <c r="N365" s="96"/>
+      <c r="P365" s="97"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="M366" s="88"/>
-      <c r="N366" s="88"/>
-      <c r="P366" s="89"/>
+      <c r="M366" s="96"/>
+      <c r="N366" s="96"/>
+      <c r="P366" s="97"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="M367" s="88"/>
-      <c r="N367" s="88"/>
-      <c r="P367" s="89"/>
+      <c r="M367" s="96"/>
+      <c r="N367" s="96"/>
+      <c r="P367" s="97"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="M368" s="88"/>
-      <c r="N368" s="88"/>
-      <c r="P368" s="89"/>
+      <c r="M368" s="96"/>
+      <c r="N368" s="96"/>
+      <c r="P368" s="97"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="M369" s="88"/>
-      <c r="N369" s="88"/>
-      <c r="P369" s="89"/>
+      <c r="M369" s="96"/>
+      <c r="N369" s="96"/>
+      <c r="P369" s="97"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="M370" s="88"/>
-      <c r="N370" s="88"/>
-      <c r="P370" s="89"/>
+      <c r="M370" s="96"/>
+      <c r="N370" s="96"/>
+      <c r="P370" s="97"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="M371" s="88"/>
-      <c r="N371" s="88"/>
-      <c r="P371" s="89"/>
+      <c r="M371" s="96"/>
+      <c r="N371" s="96"/>
+      <c r="P371" s="97"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="M372" s="88"/>
-      <c r="N372" s="88"/>
-      <c r="P372" s="89"/>
+      <c r="M372" s="96"/>
+      <c r="N372" s="96"/>
+      <c r="P372" s="97"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="M373" s="88"/>
-      <c r="N373" s="88"/>
-      <c r="P373" s="89"/>
+      <c r="M373" s="96"/>
+      <c r="N373" s="96"/>
+      <c r="P373" s="97"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="M374" s="88"/>
-      <c r="N374" s="88"/>
-      <c r="P374" s="89"/>
+      <c r="M374" s="96"/>
+      <c r="N374" s="96"/>
+      <c r="P374" s="97"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="M375" s="88"/>
-      <c r="N375" s="88"/>
-      <c r="P375" s="89"/>
+      <c r="M375" s="96"/>
+      <c r="N375" s="96"/>
+      <c r="P375" s="97"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="M376" s="88"/>
-      <c r="N376" s="88"/>
-      <c r="P376" s="89"/>
+      <c r="M376" s="96"/>
+      <c r="N376" s="96"/>
+      <c r="P376" s="97"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="M377" s="88"/>
-      <c r="N377" s="88"/>
-      <c r="P377" s="89"/>
+      <c r="M377" s="96"/>
+      <c r="N377" s="96"/>
+      <c r="P377" s="97"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="M378" s="88"/>
-      <c r="N378" s="88"/>
-      <c r="P378" s="89"/>
+      <c r="M378" s="96"/>
+      <c r="N378" s="96"/>
+      <c r="P378" s="97"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="M379" s="88"/>
-      <c r="N379" s="88"/>
-      <c r="P379" s="89"/>
+      <c r="M379" s="96"/>
+      <c r="N379" s="96"/>
+      <c r="P379" s="97"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="M380" s="88"/>
-      <c r="N380" s="88"/>
-      <c r="P380" s="89"/>
+      <c r="M380" s="96"/>
+      <c r="N380" s="96"/>
+      <c r="P380" s="97"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="M381" s="88"/>
-      <c r="N381" s="88"/>
-      <c r="P381" s="89"/>
+      <c r="M381" s="96"/>
+      <c r="N381" s="96"/>
+      <c r="P381" s="97"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="M382" s="88"/>
-      <c r="N382" s="88"/>
-      <c r="P382" s="89"/>
+      <c r="M382" s="96"/>
+      <c r="N382" s="96"/>
+      <c r="P382" s="97"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="M383" s="88"/>
-      <c r="N383" s="88"/>
-      <c r="P383" s="89"/>
+      <c r="M383" s="96"/>
+      <c r="N383" s="96"/>
+      <c r="P383" s="97"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="M384" s="88"/>
-      <c r="N384" s="88"/>
-      <c r="P384" s="89"/>
+      <c r="M384" s="96"/>
+      <c r="N384" s="96"/>
+      <c r="P384" s="97"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="M385" s="88"/>
-      <c r="N385" s="88"/>
-      <c r="P385" s="89"/>
+      <c r="M385" s="96"/>
+      <c r="N385" s="96"/>
+      <c r="P385" s="97"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="M386" s="88"/>
-      <c r="N386" s="88"/>
-      <c r="P386" s="89"/>
+      <c r="M386" s="96"/>
+      <c r="N386" s="96"/>
+      <c r="P386" s="97"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="M387" s="88"/>
-      <c r="N387" s="88"/>
-      <c r="P387" s="89"/>
+      <c r="M387" s="96"/>
+      <c r="N387" s="96"/>
+      <c r="P387" s="97"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="M388" s="88"/>
-      <c r="N388" s="88"/>
-      <c r="P388" s="89"/>
+      <c r="M388" s="96"/>
+      <c r="N388" s="96"/>
+      <c r="P388" s="97"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="M389" s="88"/>
-      <c r="N389" s="88"/>
-      <c r="P389" s="89"/>
+      <c r="M389" s="96"/>
+      <c r="N389" s="96"/>
+      <c r="P389" s="97"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="M390" s="88"/>
-      <c r="N390" s="88"/>
-      <c r="P390" s="89"/>
+      <c r="M390" s="96"/>
+      <c r="N390" s="96"/>
+      <c r="P390" s="97"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="M391" s="88"/>
-      <c r="N391" s="88"/>
-      <c r="P391" s="89"/>
+      <c r="M391" s="96"/>
+      <c r="N391" s="96"/>
+      <c r="P391" s="97"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="M392" s="88"/>
-      <c r="N392" s="88"/>
-      <c r="P392" s="89"/>
+      <c r="M392" s="96"/>
+      <c r="N392" s="96"/>
+      <c r="P392" s="97"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="M393" s="88"/>
-      <c r="N393" s="88"/>
-      <c r="P393" s="89"/>
+      <c r="M393" s="96"/>
+      <c r="N393" s="96"/>
+      <c r="P393" s="97"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="M394" s="88"/>
-      <c r="N394" s="88"/>
-      <c r="P394" s="89"/>
+      <c r="M394" s="96"/>
+      <c r="N394" s="96"/>
+      <c r="P394" s="97"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="M395" s="88"/>
-      <c r="N395" s="88"/>
-      <c r="P395" s="89"/>
+      <c r="M395" s="96"/>
+      <c r="N395" s="96"/>
+      <c r="P395" s="97"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="M396" s="88"/>
-      <c r="N396" s="88"/>
-      <c r="P396" s="89"/>
+      <c r="M396" s="96"/>
+      <c r="N396" s="96"/>
+      <c r="P396" s="97"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="M397" s="88"/>
-      <c r="N397" s="88"/>
-      <c r="P397" s="89"/>
+      <c r="M397" s="96"/>
+      <c r="N397" s="96"/>
+      <c r="P397" s="97"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="M398" s="88"/>
-      <c r="N398" s="88"/>
-      <c r="P398" s="89"/>
+      <c r="M398" s="96"/>
+      <c r="N398" s="96"/>
+      <c r="P398" s="97"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="M399" s="88"/>
-      <c r="N399" s="88"/>
-      <c r="P399" s="89"/>
+      <c r="M399" s="96"/>
+      <c r="N399" s="96"/>
+      <c r="P399" s="97"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="M400" s="88"/>
-      <c r="N400" s="88"/>
-      <c r="P400" s="89"/>
+      <c r="M400" s="96"/>
+      <c r="N400" s="96"/>
+      <c r="P400" s="97"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="M401" s="88"/>
-      <c r="N401" s="88"/>
-      <c r="P401" s="89"/>
+      <c r="M401" s="96"/>
+      <c r="N401" s="96"/>
+      <c r="P401" s="97"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="M402" s="88"/>
-      <c r="N402" s="88"/>
-      <c r="P402" s="89"/>
+      <c r="M402" s="96"/>
+      <c r="N402" s="96"/>
+      <c r="P402" s="97"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="M403" s="88"/>
-      <c r="N403" s="88"/>
-      <c r="P403" s="89"/>
+      <c r="M403" s="96"/>
+      <c r="N403" s="96"/>
+      <c r="P403" s="97"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="M404" s="88"/>
-      <c r="N404" s="88"/>
-      <c r="P404" s="89"/>
+      <c r="M404" s="96"/>
+      <c r="N404" s="96"/>
+      <c r="P404" s="97"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="M405" s="88"/>
-      <c r="N405" s="88"/>
-      <c r="P405" s="89"/>
+      <c r="M405" s="96"/>
+      <c r="N405" s="96"/>
+      <c r="P405" s="97"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="M406" s="88"/>
-      <c r="N406" s="88"/>
-      <c r="P406" s="89"/>
+      <c r="M406" s="96"/>
+      <c r="N406" s="96"/>
+      <c r="P406" s="97"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="M407" s="88"/>
-      <c r="N407" s="88"/>
-      <c r="P407" s="89"/>
+      <c r="M407" s="96"/>
+      <c r="N407" s="96"/>
+      <c r="P407" s="97"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="M408" s="88"/>
-      <c r="N408" s="88"/>
-      <c r="P408" s="89"/>
+      <c r="M408" s="96"/>
+      <c r="N408" s="96"/>
+      <c r="P408" s="97"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="M409" s="88"/>
-      <c r="N409" s="88"/>
-      <c r="P409" s="89"/>
+      <c r="M409" s="96"/>
+      <c r="N409" s="96"/>
+      <c r="P409" s="97"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="M410" s="88"/>
-      <c r="N410" s="88"/>
-      <c r="P410" s="89"/>
+      <c r="M410" s="96"/>
+      <c r="N410" s="96"/>
+      <c r="P410" s="97"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="M411" s="88"/>
-      <c r="N411" s="88"/>
-      <c r="P411" s="89"/>
+      <c r="M411" s="96"/>
+      <c r="N411" s="96"/>
+      <c r="P411" s="97"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="M412" s="88"/>
-      <c r="N412" s="88"/>
-      <c r="P412" s="89"/>
+      <c r="M412" s="96"/>
+      <c r="N412" s="96"/>
+      <c r="P412" s="97"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="M413" s="88"/>
-      <c r="N413" s="88"/>
-      <c r="P413" s="89"/>
+      <c r="M413" s="96"/>
+      <c r="N413" s="96"/>
+      <c r="P413" s="97"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="M414" s="88"/>
-      <c r="N414" s="88"/>
-      <c r="P414" s="89"/>
+      <c r="M414" s="96"/>
+      <c r="N414" s="96"/>
+      <c r="P414" s="97"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="M415" s="88"/>
-      <c r="N415" s="88"/>
-      <c r="P415" s="89"/>
+      <c r="M415" s="96"/>
+      <c r="N415" s="96"/>
+      <c r="P415" s="97"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="M416" s="88"/>
-      <c r="N416" s="88"/>
-      <c r="P416" s="89"/>
+      <c r="M416" s="96"/>
+      <c r="N416" s="96"/>
+      <c r="P416" s="97"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="M417" s="88"/>
-      <c r="N417" s="88"/>
-      <c r="P417" s="89"/>
+      <c r="M417" s="96"/>
+      <c r="N417" s="96"/>
+      <c r="P417" s="97"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="M418" s="88"/>
-      <c r="N418" s="88"/>
-      <c r="P418" s="89"/>
+      <c r="M418" s="96"/>
+      <c r="N418" s="96"/>
+      <c r="P418" s="97"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="M419" s="88"/>
-      <c r="N419" s="88"/>
-      <c r="P419" s="89"/>
+      <c r="M419" s="96"/>
+      <c r="N419" s="96"/>
+      <c r="P419" s="97"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="M420" s="88"/>
-      <c r="N420" s="88"/>
-      <c r="P420" s="89"/>
+      <c r="M420" s="96"/>
+      <c r="N420" s="96"/>
+      <c r="P420" s="97"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="M421" s="88"/>
-      <c r="N421" s="88"/>
-      <c r="P421" s="89"/>
+      <c r="M421" s="96"/>
+      <c r="N421" s="96"/>
+      <c r="P421" s="97"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="M422" s="88"/>
-      <c r="N422" s="88"/>
-      <c r="P422" s="89"/>
+      <c r="M422" s="96"/>
+      <c r="N422" s="96"/>
+      <c r="P422" s="97"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="M423" s="88"/>
-      <c r="N423" s="88"/>
-      <c r="P423" s="89"/>
+      <c r="M423" s="96"/>
+      <c r="N423" s="96"/>
+      <c r="P423" s="97"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="M424" s="88"/>
-      <c r="N424" s="88"/>
-      <c r="P424" s="89"/>
+      <c r="M424" s="96"/>
+      <c r="N424" s="96"/>
+      <c r="P424" s="97"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="M425" s="88"/>
-      <c r="N425" s="88"/>
-      <c r="P425" s="89"/>
+      <c r="M425" s="96"/>
+      <c r="N425" s="96"/>
+      <c r="P425" s="97"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="M426" s="88"/>
-      <c r="N426" s="88"/>
-      <c r="P426" s="89"/>
+      <c r="M426" s="96"/>
+      <c r="N426" s="96"/>
+      <c r="P426" s="97"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="M427" s="88"/>
-      <c r="N427" s="88"/>
-      <c r="P427" s="89"/>
+      <c r="M427" s="96"/>
+      <c r="N427" s="96"/>
+      <c r="P427" s="97"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="M428" s="88"/>
-      <c r="N428" s="88"/>
-      <c r="P428" s="89"/>
+      <c r="M428" s="96"/>
+      <c r="N428" s="96"/>
+      <c r="P428" s="97"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="M429" s="88"/>
-      <c r="N429" s="88"/>
-      <c r="P429" s="89"/>
+      <c r="M429" s="96"/>
+      <c r="N429" s="96"/>
+      <c r="P429" s="97"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="M430" s="88"/>
-      <c r="N430" s="88"/>
-      <c r="P430" s="89"/>
+      <c r="M430" s="96"/>
+      <c r="N430" s="96"/>
+      <c r="P430" s="97"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="M431" s="88"/>
-      <c r="N431" s="88"/>
-      <c r="P431" s="89"/>
+      <c r="M431" s="96"/>
+      <c r="N431" s="96"/>
+      <c r="P431" s="97"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="M432" s="88"/>
-      <c r="N432" s="88"/>
-      <c r="P432" s="89"/>
+      <c r="M432" s="96"/>
+      <c r="N432" s="96"/>
+      <c r="P432" s="97"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="M433" s="88"/>
-      <c r="N433" s="88"/>
-      <c r="P433" s="89"/>
+      <c r="M433" s="96"/>
+      <c r="N433" s="96"/>
+      <c r="P433" s="97"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="M434" s="88"/>
-      <c r="N434" s="88"/>
-      <c r="P434" s="89"/>
+      <c r="M434" s="96"/>
+      <c r="N434" s="96"/>
+      <c r="P434" s="97"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="M435" s="88"/>
-      <c r="N435" s="88"/>
-      <c r="P435" s="89"/>
+      <c r="M435" s="96"/>
+      <c r="N435" s="96"/>
+      <c r="P435" s="97"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="M436" s="88"/>
-      <c r="N436" s="88"/>
-      <c r="P436" s="89"/>
+      <c r="M436" s="96"/>
+      <c r="N436" s="96"/>
+      <c r="P436" s="97"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="M437" s="88"/>
-      <c r="N437" s="88"/>
-      <c r="P437" s="89"/>
+      <c r="M437" s="96"/>
+      <c r="N437" s="96"/>
+      <c r="P437" s="97"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="M438" s="88"/>
-      <c r="N438" s="88"/>
-      <c r="P438" s="89"/>
+      <c r="M438" s="96"/>
+      <c r="N438" s="96"/>
+      <c r="P438" s="97"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="M439" s="88"/>
-      <c r="N439" s="88"/>
-      <c r="P439" s="89"/>
+      <c r="M439" s="96"/>
+      <c r="N439" s="96"/>
+      <c r="P439" s="97"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="M440" s="88"/>
-      <c r="N440" s="88"/>
-      <c r="P440" s="89"/>
+      <c r="M440" s="96"/>
+      <c r="N440" s="96"/>
+      <c r="P440" s="97"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="M441" s="88"/>
-      <c r="N441" s="88"/>
-      <c r="P441" s="89"/>
+      <c r="M441" s="96"/>
+      <c r="N441" s="96"/>
+      <c r="P441" s="97"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="M442" s="88"/>
-      <c r="N442" s="88"/>
-      <c r="P442" s="89"/>
+      <c r="M442" s="96"/>
+      <c r="N442" s="96"/>
+      <c r="P442" s="97"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="M443" s="88"/>
-      <c r="N443" s="88"/>
-      <c r="P443" s="89"/>
+      <c r="M443" s="96"/>
+      <c r="N443" s="96"/>
+      <c r="P443" s="97"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="M444" s="88"/>
-      <c r="N444" s="88"/>
-      <c r="P444" s="89"/>
+      <c r="M444" s="96"/>
+      <c r="N444" s="96"/>
+      <c r="P444" s="97"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="M445" s="88"/>
-      <c r="N445" s="88"/>
-      <c r="P445" s="89"/>
+      <c r="M445" s="96"/>
+      <c r="N445" s="96"/>
+      <c r="P445" s="97"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="M446" s="88"/>
-      <c r="N446" s="88"/>
-      <c r="P446" s="89"/>
+      <c r="M446" s="96"/>
+      <c r="N446" s="96"/>
+      <c r="P446" s="97"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="M447" s="88"/>
-      <c r="N447" s="88"/>
-      <c r="P447" s="89"/>
+      <c r="M447" s="96"/>
+      <c r="N447" s="96"/>
+      <c r="P447" s="97"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="M448" s="88"/>
-      <c r="N448" s="88"/>
-      <c r="P448" s="89"/>
+      <c r="M448" s="96"/>
+      <c r="N448" s="96"/>
+      <c r="P448" s="97"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="M449" s="88"/>
-      <c r="N449" s="88"/>
-      <c r="P449" s="89"/>
+      <c r="M449" s="96"/>
+      <c r="N449" s="96"/>
+      <c r="P449" s="97"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="M450" s="88"/>
-      <c r="N450" s="88"/>
-      <c r="P450" s="89"/>
+      <c r="M450" s="96"/>
+      <c r="N450" s="96"/>
+      <c r="P450" s="97"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="M451" s="88"/>
-      <c r="N451" s="88"/>
-      <c r="P451" s="89"/>
+      <c r="M451" s="96"/>
+      <c r="N451" s="96"/>
+      <c r="P451" s="97"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="M452" s="88"/>
-      <c r="N452" s="88"/>
-      <c r="P452" s="89"/>
+      <c r="M452" s="96"/>
+      <c r="N452" s="96"/>
+      <c r="P452" s="97"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="M453" s="88"/>
-      <c r="N453" s="88"/>
-      <c r="P453" s="89"/>
+      <c r="M453" s="96"/>
+      <c r="N453" s="96"/>
+      <c r="P453" s="97"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="M454" s="88"/>
-      <c r="N454" s="88"/>
-      <c r="P454" s="89"/>
+      <c r="M454" s="96"/>
+      <c r="N454" s="96"/>
+      <c r="P454" s="97"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="M455" s="88"/>
-      <c r="N455" s="88"/>
-      <c r="P455" s="89"/>
+      <c r="M455" s="96"/>
+      <c r="N455" s="96"/>
+      <c r="P455" s="97"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="M456" s="88"/>
-      <c r="N456" s="88"/>
-      <c r="P456" s="89"/>
+      <c r="M456" s="96"/>
+      <c r="N456" s="96"/>
+      <c r="P456" s="97"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="M457" s="88"/>
-      <c r="N457" s="88"/>
-      <c r="P457" s="89"/>
+      <c r="M457" s="96"/>
+      <c r="N457" s="96"/>
+      <c r="P457" s="97"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="M458" s="88"/>
-      <c r="N458" s="88"/>
-      <c r="P458" s="89"/>
+      <c r="M458" s="96"/>
+      <c r="N458" s="96"/>
+      <c r="P458" s="97"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="M459" s="88"/>
-      <c r="N459" s="88"/>
-      <c r="P459" s="89"/>
+      <c r="M459" s="96"/>
+      <c r="N459" s="96"/>
+      <c r="P459" s="97"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="M460" s="88"/>
-      <c r="N460" s="88"/>
-      <c r="P460" s="89"/>
+      <c r="M460" s="96"/>
+      <c r="N460" s="96"/>
+      <c r="P460" s="97"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="M461" s="88"/>
-      <c r="N461" s="88"/>
-      <c r="P461" s="89"/>
+      <c r="M461" s="96"/>
+      <c r="N461" s="96"/>
+      <c r="P461" s="97"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="M462" s="88"/>
-      <c r="N462" s="88"/>
-      <c r="P462" s="89"/>
+      <c r="M462" s="96"/>
+      <c r="N462" s="96"/>
+      <c r="P462" s="97"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="M463" s="88"/>
-      <c r="N463" s="88"/>
-      <c r="P463" s="89"/>
+      <c r="M463" s="96"/>
+      <c r="N463" s="96"/>
+      <c r="P463" s="97"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="M464" s="88"/>
-      <c r="N464" s="88"/>
-      <c r="P464" s="89"/>
+      <c r="M464" s="96"/>
+      <c r="N464" s="96"/>
+      <c r="P464" s="97"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="M465" s="88"/>
-      <c r="N465" s="88"/>
-      <c r="P465" s="89"/>
+      <c r="M465" s="96"/>
+      <c r="N465" s="96"/>
+      <c r="P465" s="97"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="M466" s="88"/>
-      <c r="N466" s="88"/>
-      <c r="P466" s="89"/>
+      <c r="M466" s="96"/>
+      <c r="N466" s="96"/>
+      <c r="P466" s="97"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="M467" s="88"/>
-      <c r="N467" s="88"/>
-      <c r="P467" s="89"/>
+      <c r="M467" s="96"/>
+      <c r="N467" s="96"/>
+      <c r="P467" s="97"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="M468" s="88"/>
-      <c r="N468" s="88"/>
-      <c r="P468" s="89"/>
+      <c r="M468" s="96"/>
+      <c r="N468" s="96"/>
+      <c r="P468" s="97"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="M469" s="88"/>
-      <c r="N469" s="88"/>
-      <c r="P469" s="89"/>
+      <c r="M469" s="96"/>
+      <c r="N469" s="96"/>
+      <c r="P469" s="97"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="M470" s="88"/>
-      <c r="N470" s="88"/>
-      <c r="P470" s="89"/>
+      <c r="M470" s="96"/>
+      <c r="N470" s="96"/>
+      <c r="P470" s="97"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="M471" s="88"/>
-      <c r="N471" s="88"/>
-      <c r="P471" s="89"/>
+      <c r="M471" s="96"/>
+      <c r="N471" s="96"/>
+      <c r="P471" s="97"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="M472" s="88"/>
-      <c r="N472" s="88"/>
-      <c r="P472" s="89"/>
+      <c r="M472" s="96"/>
+      <c r="N472" s="96"/>
+      <c r="P472" s="97"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="M473" s="88"/>
-      <c r="N473" s="88"/>
-      <c r="P473" s="89"/>
+      <c r="M473" s="96"/>
+      <c r="N473" s="96"/>
+      <c r="P473" s="97"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="M474" s="88"/>
-      <c r="N474" s="88"/>
-      <c r="P474" s="89"/>
+      <c r="M474" s="96"/>
+      <c r="N474" s="96"/>
+      <c r="P474" s="97"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="M475" s="88"/>
-      <c r="N475" s="88"/>
-      <c r="P475" s="89"/>
+      <c r="M475" s="96"/>
+      <c r="N475" s="96"/>
+      <c r="P475" s="97"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="M476" s="88"/>
-      <c r="N476" s="88"/>
-      <c r="P476" s="89"/>
+      <c r="M476" s="96"/>
+      <c r="N476" s="96"/>
+      <c r="P476" s="97"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="M477" s="88"/>
-      <c r="N477" s="88"/>
-      <c r="P477" s="89"/>
+      <c r="M477" s="96"/>
+      <c r="N477" s="96"/>
+      <c r="P477" s="97"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="M478" s="88"/>
-      <c r="N478" s="88"/>
-      <c r="P478" s="89"/>
+      <c r="M478" s="96"/>
+      <c r="N478" s="96"/>
+      <c r="P478" s="97"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="M479" s="88"/>
-      <c r="N479" s="88"/>
-      <c r="P479" s="89"/>
+      <c r="M479" s="96"/>
+      <c r="N479" s="96"/>
+      <c r="P479" s="97"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="M480" s="88"/>
-      <c r="N480" s="88"/>
-      <c r="P480" s="89"/>
+      <c r="M480" s="96"/>
+      <c r="N480" s="96"/>
+      <c r="P480" s="97"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="M481" s="88"/>
-      <c r="N481" s="88"/>
-      <c r="P481" s="89"/>
+      <c r="M481" s="96"/>
+      <c r="N481" s="96"/>
+      <c r="P481" s="97"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="M482" s="88"/>
-      <c r="N482" s="88"/>
-      <c r="P482" s="89"/>
+      <c r="M482" s="96"/>
+      <c r="N482" s="96"/>
+      <c r="P482" s="97"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="M483" s="88"/>
-      <c r="N483" s="88"/>
-      <c r="P483" s="89"/>
+      <c r="M483" s="96"/>
+      <c r="N483" s="96"/>
+      <c r="P483" s="97"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="M484" s="88"/>
-      <c r="N484" s="88"/>
-      <c r="P484" s="89"/>
+      <c r="M484" s="96"/>
+      <c r="N484" s="96"/>
+      <c r="P484" s="97"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="M485" s="88"/>
-      <c r="N485" s="88"/>
-      <c r="P485" s="89"/>
+      <c r="M485" s="96"/>
+      <c r="N485" s="96"/>
+      <c r="P485" s="97"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="M486" s="88"/>
-      <c r="N486" s="88"/>
-      <c r="P486" s="89"/>
+      <c r="M486" s="96"/>
+      <c r="N486" s="96"/>
+      <c r="P486" s="97"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="M487" s="88"/>
-      <c r="N487" s="88"/>
-      <c r="P487" s="89"/>
+      <c r="M487" s="96"/>
+      <c r="N487" s="96"/>
+      <c r="P487" s="97"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="M488" s="88"/>
-      <c r="N488" s="88"/>
-      <c r="P488" s="89"/>
+      <c r="M488" s="96"/>
+      <c r="N488" s="96"/>
+      <c r="P488" s="97"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="M489" s="88"/>
-      <c r="N489" s="88"/>
-      <c r="P489" s="89"/>
+      <c r="M489" s="96"/>
+      <c r="N489" s="96"/>
+      <c r="P489" s="97"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="M490" s="88"/>
-      <c r="N490" s="88"/>
-      <c r="P490" s="89"/>
+      <c r="M490" s="96"/>
+      <c r="N490" s="96"/>
+      <c r="P490" s="97"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="M491" s="88"/>
-      <c r="N491" s="88"/>
-      <c r="P491" s="89"/>
+      <c r="M491" s="96"/>
+      <c r="N491" s="96"/>
+      <c r="P491" s="97"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="M492" s="88"/>
-      <c r="N492" s="88"/>
-      <c r="P492" s="89"/>
+      <c r="M492" s="96"/>
+      <c r="N492" s="96"/>
+      <c r="P492" s="97"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="M493" s="88"/>
-      <c r="N493" s="88"/>
-      <c r="P493" s="89"/>
+      <c r="M493" s="96"/>
+      <c r="N493" s="96"/>
+      <c r="P493" s="97"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="M494" s="88"/>
-      <c r="N494" s="88"/>
-      <c r="P494" s="89"/>
+      <c r="M494" s="96"/>
+      <c r="N494" s="96"/>
+      <c r="P494" s="97"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="M495" s="88"/>
-      <c r="N495" s="88"/>
-      <c r="P495" s="89"/>
+      <c r="M495" s="96"/>
+      <c r="N495" s="96"/>
+      <c r="P495" s="97"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="M496" s="88"/>
-      <c r="N496" s="88"/>
-      <c r="P496" s="89"/>
+      <c r="M496" s="96"/>
+      <c r="N496" s="96"/>
+      <c r="P496" s="97"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="M497" s="88"/>
-      <c r="N497" s="88"/>
-      <c r="P497" s="89"/>
+      <c r="M497" s="96"/>
+      <c r="N497" s="96"/>
+      <c r="P497" s="97"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="M498" s="88"/>
-      <c r="N498" s="88"/>
-      <c r="P498" s="89"/>
+      <c r="M498" s="96"/>
+      <c r="N498" s="96"/>
+      <c r="P498" s="97"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="M499" s="88"/>
-      <c r="N499" s="88"/>
-      <c r="P499" s="89"/>
+      <c r="M499" s="96"/>
+      <c r="N499" s="96"/>
+      <c r="P499" s="97"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="M500" s="88"/>
-      <c r="N500" s="88"/>
-      <c r="P500" s="89"/>
+      <c r="M500" s="96"/>
+      <c r="N500" s="96"/>
+      <c r="P500" s="97"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="M501" s="88"/>
-      <c r="N501" s="88"/>
-      <c r="P501" s="89"/>
+      <c r="M501" s="96"/>
+      <c r="N501" s="96"/>
+      <c r="P501" s="97"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="M502" s="88"/>
-      <c r="N502" s="88"/>
-      <c r="P502" s="89"/>
+      <c r="M502" s="96"/>
+      <c r="N502" s="96"/>
+      <c r="P502" s="97"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="M503" s="88"/>
-      <c r="N503" s="88"/>
-      <c r="P503" s="89"/>
+      <c r="M503" s="96"/>
+      <c r="N503" s="96"/>
+      <c r="P503" s="97"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="M504" s="88"/>
-      <c r="N504" s="88"/>
-      <c r="P504" s="89"/>
+      <c r="M504" s="96"/>
+      <c r="N504" s="96"/>
+      <c r="P504" s="97"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="M505" s="88"/>
-      <c r="N505" s="88"/>
-      <c r="P505" s="89"/>
+      <c r="M505" s="96"/>
+      <c r="N505" s="96"/>
+      <c r="P505" s="97"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="M506" s="88"/>
-      <c r="N506" s="88"/>
-      <c r="P506" s="89"/>
+      <c r="M506" s="96"/>
+      <c r="N506" s="96"/>
+      <c r="P506" s="97"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="M507" s="88"/>
-      <c r="N507" s="88"/>
-      <c r="P507" s="89"/>
+      <c r="M507" s="96"/>
+      <c r="N507" s="96"/>
+      <c r="P507" s="97"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="M508" s="88"/>
-      <c r="N508" s="88"/>
-      <c r="P508" s="89"/>
+      <c r="M508" s="96"/>
+      <c r="N508" s="96"/>
+      <c r="P508" s="97"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="M509" s="88"/>
-      <c r="N509" s="88"/>
-      <c r="P509" s="89"/>
+      <c r="M509" s="96"/>
+      <c r="N509" s="96"/>
+      <c r="P509" s="97"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="M510" s="88"/>
-      <c r="N510" s="88"/>
-      <c r="P510" s="89"/>
+      <c r="M510" s="96"/>
+      <c r="N510" s="96"/>
+      <c r="P510" s="97"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="M511" s="88"/>
-      <c r="N511" s="88"/>
-      <c r="P511" s="89"/>
+      <c r="M511" s="96"/>
+      <c r="N511" s="96"/>
+      <c r="P511" s="97"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="M512" s="88"/>
-      <c r="N512" s="88"/>
-      <c r="P512" s="89"/>
+      <c r="M512" s="96"/>
+      <c r="N512" s="96"/>
+      <c r="P512" s="97"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="M513" s="88"/>
-      <c r="N513" s="88"/>
-      <c r="P513" s="89"/>
+      <c r="M513" s="96"/>
+      <c r="N513" s="96"/>
+      <c r="P513" s="97"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="M514" s="88"/>
-      <c r="N514" s="88"/>
-      <c r="P514" s="89"/>
+      <c r="M514" s="96"/>
+      <c r="N514" s="96"/>
+      <c r="P514" s="97"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="M515" s="88"/>
-      <c r="N515" s="88"/>
-      <c r="P515" s="89"/>
+      <c r="M515" s="96"/>
+      <c r="N515" s="96"/>
+      <c r="P515" s="97"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="M516" s="88"/>
-      <c r="N516" s="88"/>
-      <c r="P516" s="89"/>
+      <c r="M516" s="96"/>
+      <c r="N516" s="96"/>
+      <c r="P516" s="97"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="M517" s="88"/>
-      <c r="N517" s="88"/>
-      <c r="P517" s="89"/>
+      <c r="M517" s="96"/>
+      <c r="N517" s="96"/>
+      <c r="P517" s="97"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="M518" s="88"/>
-      <c r="N518" s="88"/>
-      <c r="P518" s="89"/>
+      <c r="M518" s="96"/>
+      <c r="N518" s="96"/>
+      <c r="P518" s="97"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="M519" s="88"/>
-      <c r="N519" s="88"/>
-      <c r="P519" s="89"/>
+      <c r="M519" s="96"/>
+      <c r="N519" s="96"/>
+      <c r="P519" s="97"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="M520" s="88"/>
-      <c r="N520" s="88"/>
-      <c r="P520" s="89"/>
+      <c r="M520" s="96"/>
+      <c r="N520" s="96"/>
+      <c r="P520" s="97"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="M521" s="88"/>
-      <c r="N521" s="88"/>
-      <c r="P521" s="89"/>
+      <c r="M521" s="96"/>
+      <c r="N521" s="96"/>
+      <c r="P521" s="97"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="M522" s="88"/>
-      <c r="N522" s="88"/>
-      <c r="P522" s="89"/>
+      <c r="M522" s="96"/>
+      <c r="N522" s="96"/>
+      <c r="P522" s="97"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="M523" s="88"/>
-      <c r="N523" s="88"/>
-      <c r="P523" s="89"/>
+      <c r="M523" s="96"/>
+      <c r="N523" s="96"/>
+      <c r="P523" s="97"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="M524" s="88"/>
-      <c r="N524" s="88"/>
-      <c r="P524" s="89"/>
+      <c r="M524" s="96"/>
+      <c r="N524" s="96"/>
+      <c r="P524" s="97"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="M525" s="88"/>
-      <c r="N525" s="88"/>
-      <c r="P525" s="89"/>
+      <c r="M525" s="96"/>
+      <c r="N525" s="96"/>
+      <c r="P525" s="97"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="M526" s="88"/>
-      <c r="N526" s="88"/>
-      <c r="P526" s="89"/>
+      <c r="M526" s="96"/>
+      <c r="N526" s="96"/>
+      <c r="P526" s="97"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="M527" s="88"/>
-      <c r="N527" s="88"/>
-      <c r="P527" s="89"/>
+      <c r="M527" s="96"/>
+      <c r="N527" s="96"/>
+      <c r="P527" s="97"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="M528" s="88"/>
-      <c r="N528" s="88"/>
-      <c r="P528" s="89"/>
+      <c r="M528" s="96"/>
+      <c r="N528" s="96"/>
+      <c r="P528" s="97"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="M529" s="88"/>
-      <c r="N529" s="88"/>
-      <c r="P529" s="89"/>
+      <c r="M529" s="96"/>
+      <c r="N529" s="96"/>
+      <c r="P529" s="97"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="M530" s="88"/>
-      <c r="N530" s="88"/>
-      <c r="P530" s="89"/>
+      <c r="M530" s="96"/>
+      <c r="N530" s="96"/>
+      <c r="P530" s="97"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="M531" s="88"/>
-      <c r="N531" s="88"/>
-      <c r="P531" s="89"/>
+      <c r="M531" s="96"/>
+      <c r="N531" s="96"/>
+      <c r="P531" s="97"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="M532" s="88"/>
-      <c r="N532" s="88"/>
-      <c r="P532" s="89"/>
+      <c r="M532" s="96"/>
+      <c r="N532" s="96"/>
+      <c r="P532" s="97"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="M533" s="88"/>
-      <c r="N533" s="88"/>
-      <c r="P533" s="89"/>
+      <c r="M533" s="96"/>
+      <c r="N533" s="96"/>
+      <c r="P533" s="97"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="M534" s="88"/>
-      <c r="N534" s="88"/>
-      <c r="P534" s="89"/>
+      <c r="M534" s="96"/>
+      <c r="N534" s="96"/>
+      <c r="P534" s="97"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="M535" s="88"/>
-      <c r="N535" s="88"/>
-      <c r="P535" s="89"/>
+      <c r="M535" s="96"/>
+      <c r="N535" s="96"/>
+      <c r="P535" s="97"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="M536" s="88"/>
-      <c r="N536" s="88"/>
-      <c r="P536" s="89"/>
+      <c r="M536" s="96"/>
+      <c r="N536" s="96"/>
+      <c r="P536" s="97"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="M537" s="88"/>
-      <c r="N537" s="88"/>
-      <c r="P537" s="89"/>
+      <c r="M537" s="96"/>
+      <c r="N537" s="96"/>
+      <c r="P537" s="97"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="M538" s="88"/>
-      <c r="N538" s="88"/>
-      <c r="P538" s="89"/>
+      <c r="M538" s="96"/>
+      <c r="N538" s="96"/>
+      <c r="P538" s="97"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="M539" s="88"/>
-      <c r="N539" s="88"/>
-      <c r="P539" s="89"/>
+      <c r="M539" s="96"/>
+      <c r="N539" s="96"/>
+      <c r="P539" s="97"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="M540" s="88"/>
-      <c r="N540" s="88"/>
-      <c r="P540" s="89"/>
+      <c r="M540" s="96"/>
+      <c r="N540" s="96"/>
+      <c r="P540" s="97"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="M541" s="88"/>
-      <c r="N541" s="88"/>
-      <c r="P541" s="89"/>
+      <c r="M541" s="96"/>
+      <c r="N541" s="96"/>
+      <c r="P541" s="97"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="M542" s="88"/>
-      <c r="N542" s="88"/>
-      <c r="P542" s="89"/>
+      <c r="M542" s="96"/>
+      <c r="N542" s="96"/>
+      <c r="P542" s="97"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="M543" s="88"/>
-      <c r="N543" s="88"/>
-      <c r="P543" s="89"/>
+      <c r="M543" s="96"/>
+      <c r="N543" s="96"/>
+      <c r="P543" s="97"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="M544" s="88"/>
-      <c r="N544" s="88"/>
-      <c r="P544" s="89"/>
+      <c r="M544" s="96"/>
+      <c r="N544" s="96"/>
+      <c r="P544" s="97"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="M545" s="88"/>
-      <c r="N545" s="88"/>
-      <c r="P545" s="89"/>
+      <c r="M545" s="96"/>
+      <c r="N545" s="96"/>
+      <c r="P545" s="97"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="M546" s="88"/>
-      <c r="N546" s="88"/>
-      <c r="P546" s="89"/>
+      <c r="M546" s="96"/>
+      <c r="N546" s="96"/>
+      <c r="P546" s="97"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="M547" s="88"/>
-      <c r="N547" s="88"/>
-      <c r="P547" s="89"/>
+      <c r="M547" s="96"/>
+      <c r="N547" s="96"/>
+      <c r="P547" s="97"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="M548" s="88"/>
-      <c r="N548" s="88"/>
-      <c r="P548" s="89"/>
+      <c r="M548" s="96"/>
+      <c r="N548" s="96"/>
+      <c r="P548" s="97"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="M549" s="88"/>
-      <c r="N549" s="88"/>
-      <c r="P549" s="89"/>
+      <c r="M549" s="96"/>
+      <c r="N549" s="96"/>
+      <c r="P549" s="97"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="M550" s="88"/>
-      <c r="N550" s="88"/>
-      <c r="P550" s="89"/>
+      <c r="M550" s="96"/>
+      <c r="N550" s="96"/>
+      <c r="P550" s="97"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="M551" s="88"/>
-      <c r="N551" s="88"/>
-      <c r="P551" s="89"/>
+      <c r="M551" s="96"/>
+      <c r="N551" s="96"/>
+      <c r="P551" s="97"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="M552" s="88"/>
-      <c r="N552" s="88"/>
-      <c r="P552" s="89"/>
+      <c r="M552" s="96"/>
+      <c r="N552" s="96"/>
+      <c r="P552" s="97"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="M553" s="88"/>
-      <c r="N553" s="88"/>
-      <c r="P553" s="89"/>
+      <c r="M553" s="96"/>
+      <c r="N553" s="96"/>
+      <c r="P553" s="97"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="M554" s="88"/>
-      <c r="N554" s="88"/>
-      <c r="P554" s="89"/>
+      <c r="M554" s="96"/>
+      <c r="N554" s="96"/>
+      <c r="P554" s="97"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="M555" s="88"/>
-      <c r="N555" s="88"/>
-      <c r="P555" s="89"/>
+      <c r="M555" s="96"/>
+      <c r="N555" s="96"/>
+      <c r="P555" s="97"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="M556" s="88"/>
-      <c r="N556" s="88"/>
-      <c r="P556" s="89"/>
+      <c r="M556" s="96"/>
+      <c r="N556" s="96"/>
+      <c r="P556" s="97"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="M557" s="88"/>
-      <c r="N557" s="88"/>
-      <c r="P557" s="89"/>
+      <c r="M557" s="96"/>
+      <c r="N557" s="96"/>
+      <c r="P557" s="97"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="M558" s="88"/>
-      <c r="N558" s="88"/>
-      <c r="P558" s="89"/>
+      <c r="M558" s="96"/>
+      <c r="N558" s="96"/>
+      <c r="P558" s="97"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="M559" s="88"/>
-      <c r="N559" s="88"/>
-      <c r="P559" s="89"/>
+      <c r="M559" s="96"/>
+      <c r="N559" s="96"/>
+      <c r="P559" s="97"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="M560" s="88"/>
-      <c r="N560" s="88"/>
-      <c r="P560" s="89"/>
+      <c r="M560" s="96"/>
+      <c r="N560" s="96"/>
+      <c r="P560" s="97"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="M561" s="88"/>
-      <c r="N561" s="88"/>
-      <c r="P561" s="89"/>
+      <c r="M561" s="96"/>
+      <c r="N561" s="96"/>
+      <c r="P561" s="97"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="M562" s="88"/>
-      <c r="N562" s="88"/>
-      <c r="P562" s="89"/>
+      <c r="M562" s="96"/>
+      <c r="N562" s="96"/>
+      <c r="P562" s="97"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="M563" s="88"/>
-      <c r="N563" s="88"/>
-      <c r="P563" s="89"/>
+      <c r="M563" s="96"/>
+      <c r="N563" s="96"/>
+      <c r="P563" s="97"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="M564" s="88"/>
-      <c r="N564" s="88"/>
-      <c r="P564" s="89"/>
+      <c r="M564" s="96"/>
+      <c r="N564" s="96"/>
+      <c r="P564" s="97"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="M565" s="88"/>
-      <c r="N565" s="88"/>
-      <c r="P565" s="89"/>
+      <c r="M565" s="96"/>
+      <c r="N565" s="96"/>
+      <c r="P565" s="97"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="M566" s="88"/>
-      <c r="N566" s="88"/>
-      <c r="P566" s="89"/>
+      <c r="M566" s="96"/>
+      <c r="N566" s="96"/>
+      <c r="P566" s="97"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="M567" s="88"/>
-      <c r="N567" s="88"/>
-      <c r="P567" s="89"/>
+      <c r="M567" s="96"/>
+      <c r="N567" s="96"/>
+      <c r="P567" s="97"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="M568" s="88"/>
-      <c r="N568" s="88"/>
-      <c r="P568" s="89"/>
+      <c r="M568" s="96"/>
+      <c r="N568" s="96"/>
+      <c r="P568" s="97"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="M569" s="88"/>
-      <c r="N569" s="88"/>
-      <c r="P569" s="89"/>
+      <c r="M569" s="96"/>
+      <c r="N569" s="96"/>
+      <c r="P569" s="97"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="M570" s="88"/>
-      <c r="N570" s="88"/>
-      <c r="P570" s="89"/>
+      <c r="M570" s="96"/>
+      <c r="N570" s="96"/>
+      <c r="P570" s="97"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="M571" s="88"/>
-      <c r="N571" s="88"/>
-      <c r="P571" s="89"/>
+      <c r="M571" s="96"/>
+      <c r="N571" s="96"/>
+      <c r="P571" s="97"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="M572" s="88"/>
-      <c r="N572" s="88"/>
-      <c r="P572" s="89"/>
+      <c r="M572" s="96"/>
+      <c r="N572" s="96"/>
+      <c r="P572" s="97"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="M573" s="88"/>
-      <c r="N573" s="88"/>
-      <c r="P573" s="89"/>
+      <c r="M573" s="96"/>
+      <c r="N573" s="96"/>
+      <c r="P573" s="97"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="M574" s="88"/>
-      <c r="N574" s="88"/>
-      <c r="P574" s="89"/>
+      <c r="M574" s="96"/>
+      <c r="N574" s="96"/>
+      <c r="P574" s="97"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="M575" s="88"/>
-      <c r="N575" s="88"/>
-      <c r="P575" s="89"/>
+      <c r="M575" s="96"/>
+      <c r="N575" s="96"/>
+      <c r="P575" s="97"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="M576" s="88"/>
-      <c r="N576" s="88"/>
-      <c r="P576" s="89"/>
+      <c r="M576" s="96"/>
+      <c r="N576" s="96"/>
+      <c r="P576" s="97"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="M577" s="88"/>
-      <c r="N577" s="88"/>
-      <c r="P577" s="89"/>
+      <c r="M577" s="96"/>
+      <c r="N577" s="96"/>
+      <c r="P577" s="97"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="M578" s="88"/>
-      <c r="N578" s="88"/>
-      <c r="P578" s="89"/>
+      <c r="M578" s="96"/>
+      <c r="N578" s="96"/>
+      <c r="P578" s="97"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="M579" s="88"/>
-      <c r="N579" s="88"/>
-      <c r="P579" s="89"/>
+      <c r="M579" s="96"/>
+      <c r="N579" s="96"/>
+      <c r="P579" s="97"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="M580" s="88"/>
-      <c r="N580" s="88"/>
-      <c r="P580" s="89"/>
+      <c r="M580" s="96"/>
+      <c r="N580" s="96"/>
+      <c r="P580" s="97"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="M581" s="88"/>
-      <c r="N581" s="88"/>
-      <c r="P581" s="89"/>
+      <c r="M581" s="96"/>
+      <c r="N581" s="96"/>
+      <c r="P581" s="97"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="M582" s="88"/>
-      <c r="N582" s="88"/>
-      <c r="P582" s="89"/>
+      <c r="M582" s="96"/>
+      <c r="N582" s="96"/>
+      <c r="P582" s="97"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="M583" s="88"/>
-      <c r="N583" s="88"/>
-      <c r="P583" s="89"/>
+      <c r="M583" s="96"/>
+      <c r="N583" s="96"/>
+      <c r="P583" s="97"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="M584" s="88"/>
-      <c r="N584" s="88"/>
-      <c r="P584" s="89"/>
+      <c r="M584" s="96"/>
+      <c r="N584" s="96"/>
+      <c r="P584" s="97"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="M585" s="88"/>
-      <c r="N585" s="88"/>
-      <c r="P585" s="89"/>
+      <c r="M585" s="96"/>
+      <c r="N585" s="96"/>
+      <c r="P585" s="97"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="M586" s="88"/>
-      <c r="N586" s="88"/>
-      <c r="P586" s="89"/>
+      <c r="M586" s="96"/>
+      <c r="N586" s="96"/>
+      <c r="P586" s="97"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="M587" s="88"/>
-      <c r="N587" s="88"/>
-      <c r="P587" s="89"/>
+      <c r="M587" s="96"/>
+      <c r="N587" s="96"/>
+      <c r="P587" s="97"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="M588" s="88"/>
-      <c r="N588" s="88"/>
-      <c r="P588" s="89"/>
+      <c r="M588" s="96"/>
+      <c r="N588" s="96"/>
+      <c r="P588" s="97"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="M589" s="88"/>
-      <c r="N589" s="88"/>
-      <c r="P589" s="89"/>
+      <c r="M589" s="96"/>
+      <c r="N589" s="96"/>
+      <c r="P589" s="97"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="M590" s="88"/>
-      <c r="N590" s="88"/>
-      <c r="P590" s="89"/>
+      <c r="M590" s="96"/>
+      <c r="N590" s="96"/>
+      <c r="P590" s="97"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="M591" s="88"/>
-      <c r="N591" s="88"/>
-      <c r="P591" s="89"/>
+      <c r="M591" s="96"/>
+      <c r="N591" s="96"/>
+      <c r="P591" s="97"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="M592" s="88"/>
-      <c r="N592" s="88"/>
-      <c r="P592" s="89"/>
+      <c r="M592" s="96"/>
+      <c r="N592" s="96"/>
+      <c r="P592" s="97"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="M593" s="88"/>
-      <c r="N593" s="88"/>
-      <c r="P593" s="89"/>
+      <c r="M593" s="96"/>
+      <c r="N593" s="96"/>
+      <c r="P593" s="97"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="M594" s="88"/>
-      <c r="N594" s="88"/>
-      <c r="P594" s="89"/>
+      <c r="M594" s="96"/>
+      <c r="N594" s="96"/>
+      <c r="P594" s="97"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="M595" s="88"/>
-      <c r="N595" s="88"/>
-      <c r="P595" s="89"/>
+      <c r="M595" s="96"/>
+      <c r="N595" s="96"/>
+      <c r="P595" s="97"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="M596" s="88"/>
-      <c r="N596" s="88"/>
-      <c r="P596" s="89"/>
+      <c r="M596" s="96"/>
+      <c r="N596" s="96"/>
+      <c r="P596" s="97"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="M597" s="88"/>
-      <c r="N597" s="88"/>
-      <c r="P597" s="89"/>
+      <c r="M597" s="96"/>
+      <c r="N597" s="96"/>
+      <c r="P597" s="97"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="M598" s="88"/>
-      <c r="N598" s="88"/>
-      <c r="P598" s="89"/>
+      <c r="M598" s="96"/>
+      <c r="N598" s="96"/>
+      <c r="P598" s="97"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="M599" s="88"/>
-      <c r="N599" s="88"/>
-      <c r="P599" s="89"/>
+      <c r="M599" s="96"/>
+      <c r="N599" s="96"/>
+      <c r="P599" s="97"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="M600" s="88"/>
-      <c r="N600" s="88"/>
-      <c r="P600" s="89"/>
+      <c r="M600" s="96"/>
+      <c r="N600" s="96"/>
+      <c r="P600" s="97"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="M601" s="88"/>
-      <c r="N601" s="88"/>
-      <c r="P601" s="89"/>
+      <c r="M601" s="96"/>
+      <c r="N601" s="96"/>
+      <c r="P601" s="97"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="M602" s="88"/>
-      <c r="N602" s="88"/>
-      <c r="P602" s="89"/>
+      <c r="M602" s="96"/>
+      <c r="N602" s="96"/>
+      <c r="P602" s="97"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="M603" s="88"/>
-      <c r="N603" s="88"/>
-      <c r="P603" s="89"/>
+      <c r="M603" s="96"/>
+      <c r="N603" s="96"/>
+      <c r="P603" s="97"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="M604" s="88"/>
-      <c r="N604" s="88"/>
-      <c r="P604" s="89"/>
+      <c r="M604" s="96"/>
+      <c r="N604" s="96"/>
+      <c r="P604" s="97"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="M605" s="88"/>
-      <c r="N605" s="88"/>
-      <c r="P605" s="89"/>
+      <c r="M605" s="96"/>
+      <c r="N605" s="96"/>
+      <c r="P605" s="97"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="M606" s="88"/>
-      <c r="N606" s="88"/>
-      <c r="P606" s="89"/>
+      <c r="M606" s="96"/>
+      <c r="N606" s="96"/>
+      <c r="P606" s="97"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="M607" s="88"/>
-      <c r="N607" s="88"/>
-      <c r="P607" s="89"/>
+      <c r="M607" s="96"/>
+      <c r="N607" s="96"/>
+      <c r="P607" s="97"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="M608" s="88"/>
-      <c r="N608" s="88"/>
-      <c r="P608" s="89"/>
+      <c r="M608" s="96"/>
+      <c r="N608" s="96"/>
+      <c r="P608" s="97"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="M609" s="88"/>
-      <c r="N609" s="88"/>
-      <c r="P609" s="89"/>
+      <c r="M609" s="96"/>
+      <c r="N609" s="96"/>
+      <c r="P609" s="97"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="M610" s="88"/>
-      <c r="N610" s="88"/>
-      <c r="P610" s="89"/>
+      <c r="M610" s="96"/>
+      <c r="N610" s="96"/>
+      <c r="P610" s="97"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="M611" s="88"/>
-      <c r="N611" s="88"/>
-      <c r="P611" s="89"/>
+      <c r="M611" s="96"/>
+      <c r="N611" s="96"/>
+      <c r="P611" s="97"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="M612" s="88"/>
-      <c r="N612" s="88"/>
-      <c r="P612" s="89"/>
+      <c r="M612" s="96"/>
+      <c r="N612" s="96"/>
+      <c r="P612" s="97"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="M613" s="88"/>
-      <c r="N613" s="88"/>
-      <c r="P613" s="89"/>
+      <c r="M613" s="96"/>
+      <c r="N613" s="96"/>
+      <c r="P613" s="97"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="M614" s="88"/>
-      <c r="N614" s="88"/>
-      <c r="P614" s="89"/>
+      <c r="M614" s="96"/>
+      <c r="N614" s="96"/>
+      <c r="P614" s="97"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="M615" s="88"/>
-      <c r="N615" s="88"/>
-      <c r="P615" s="89"/>
+      <c r="M615" s="96"/>
+      <c r="N615" s="96"/>
+      <c r="P615" s="97"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="M616" s="88"/>
-      <c r="N616" s="88"/>
-      <c r="P616" s="89"/>
+      <c r="M616" s="96"/>
+      <c r="N616" s="96"/>
+      <c r="P616" s="97"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="M617" s="88"/>
-      <c r="N617" s="88"/>
-      <c r="P617" s="89"/>
+      <c r="M617" s="96"/>
+      <c r="N617" s="96"/>
+      <c r="P617" s="97"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="M618" s="88"/>
-      <c r="N618" s="88"/>
-      <c r="P618" s="89"/>
+      <c r="M618" s="96"/>
+      <c r="N618" s="96"/>
+      <c r="P618" s="97"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="M619" s="88"/>
-      <c r="N619" s="88"/>
-      <c r="P619" s="89"/>
+      <c r="M619" s="96"/>
+      <c r="N619" s="96"/>
+      <c r="P619" s="97"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="M620" s="88"/>
-      <c r="N620" s="88"/>
-      <c r="P620" s="89"/>
+      <c r="M620" s="96"/>
+      <c r="N620" s="96"/>
+      <c r="P620" s="97"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="M621" s="88"/>
-      <c r="N621" s="88"/>
-      <c r="P621" s="89"/>
+      <c r="M621" s="96"/>
+      <c r="N621" s="96"/>
+      <c r="P621" s="97"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="M622" s="88"/>
-      <c r="N622" s="88"/>
-      <c r="P622" s="89"/>
+      <c r="M622" s="96"/>
+      <c r="N622" s="96"/>
+      <c r="P622" s="97"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="M623" s="88"/>
-      <c r="N623" s="88"/>
-      <c r="P623" s="89"/>
+      <c r="M623" s="96"/>
+      <c r="N623" s="96"/>
+      <c r="P623" s="97"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="M624" s="88"/>
-      <c r="N624" s="88"/>
-      <c r="P624" s="89"/>
+      <c r="M624" s="96"/>
+      <c r="N624" s="96"/>
+      <c r="P624" s="97"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="M625" s="88"/>
-      <c r="N625" s="88"/>
-      <c r="P625" s="89"/>
+      <c r="M625" s="96"/>
+      <c r="N625" s="96"/>
+      <c r="P625" s="97"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="M626" s="88"/>
-      <c r="N626" s="88"/>
-      <c r="P626" s="89"/>
+      <c r="M626" s="96"/>
+      <c r="N626" s="96"/>
+      <c r="P626" s="97"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="M627" s="88"/>
-      <c r="N627" s="88"/>
-      <c r="P627" s="89"/>
+      <c r="M627" s="96"/>
+      <c r="N627" s="96"/>
+      <c r="P627" s="97"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="M628" s="88"/>
-      <c r="N628" s="88"/>
-      <c r="P628" s="89"/>
+      <c r="M628" s="96"/>
+      <c r="N628" s="96"/>
+      <c r="P628" s="97"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="M629" s="88"/>
-      <c r="N629" s="88"/>
-      <c r="P629" s="89"/>
+      <c r="M629" s="96"/>
+      <c r="N629" s="96"/>
+      <c r="P629" s="97"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="M630" s="88"/>
-      <c r="N630" s="88"/>
-      <c r="P630" s="89"/>
+      <c r="M630" s="96"/>
+      <c r="N630" s="96"/>
+      <c r="P630" s="97"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="M631" s="88"/>
-      <c r="N631" s="88"/>
-      <c r="P631" s="89"/>
+      <c r="M631" s="96"/>
+      <c r="N631" s="96"/>
+      <c r="P631" s="97"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="M632" s="88"/>
-      <c r="N632" s="88"/>
-      <c r="P632" s="89"/>
+      <c r="M632" s="96"/>
+      <c r="N632" s="96"/>
+      <c r="P632" s="97"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="M633" s="88"/>
-      <c r="N633" s="88"/>
-      <c r="P633" s="89"/>
+      <c r="M633" s="96"/>
+      <c r="N633" s="96"/>
+      <c r="P633" s="97"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="M634" s="88"/>
-      <c r="N634" s="88"/>
-      <c r="P634" s="89"/>
+      <c r="M634" s="96"/>
+      <c r="N634" s="96"/>
+      <c r="P634" s="97"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="M635" s="88"/>
-      <c r="N635" s="88"/>
-      <c r="P635" s="89"/>
+      <c r="M635" s="96"/>
+      <c r="N635" s="96"/>
+      <c r="P635" s="97"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="M636" s="88"/>
-      <c r="N636" s="88"/>
-      <c r="P636" s="89"/>
+      <c r="M636" s="96"/>
+      <c r="N636" s="96"/>
+      <c r="P636" s="97"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="M637" s="88"/>
-      <c r="N637" s="88"/>
-      <c r="P637" s="89"/>
+      <c r="M637" s="96"/>
+      <c r="N637" s="96"/>
+      <c r="P637" s="97"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="M638" s="88"/>
-      <c r="N638" s="88"/>
-      <c r="P638" s="89"/>
+      <c r="M638" s="96"/>
+      <c r="N638" s="96"/>
+      <c r="P638" s="97"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="M639" s="88"/>
-      <c r="N639" s="88"/>
-      <c r="P639" s="89"/>
+      <c r="M639" s="96"/>
+      <c r="N639" s="96"/>
+      <c r="P639" s="97"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="M640" s="88"/>
-      <c r="N640" s="88"/>
-      <c r="P640" s="89"/>
+      <c r="M640" s="96"/>
+      <c r="N640" s="96"/>
+      <c r="P640" s="97"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="M641" s="88"/>
-      <c r="N641" s="88"/>
-      <c r="P641" s="89"/>
+      <c r="M641" s="96"/>
+      <c r="N641" s="96"/>
+      <c r="P641" s="97"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="M642" s="88"/>
-      <c r="N642" s="88"/>
-      <c r="P642" s="89"/>
+      <c r="M642" s="96"/>
+      <c r="N642" s="96"/>
+      <c r="P642" s="97"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="M643" s="88"/>
-      <c r="N643" s="88"/>
-      <c r="P643" s="89"/>
+      <c r="M643" s="96"/>
+      <c r="N643" s="96"/>
+      <c r="P643" s="97"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="M644" s="88"/>
-      <c r="N644" s="88"/>
-      <c r="P644" s="89"/>
+      <c r="M644" s="96"/>
+      <c r="N644" s="96"/>
+      <c r="P644" s="97"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="M645" s="88"/>
-      <c r="N645" s="88"/>
-      <c r="P645" s="89"/>
+      <c r="M645" s="96"/>
+      <c r="N645" s="96"/>
+      <c r="P645" s="97"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="M646" s="88"/>
-      <c r="N646" s="88"/>
-      <c r="P646" s="89"/>
+      <c r="M646" s="96"/>
+      <c r="N646" s="96"/>
+      <c r="P646" s="97"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="M647" s="88"/>
-      <c r="N647" s="88"/>
-      <c r="P647" s="89"/>
+      <c r="M647" s="96"/>
+      <c r="N647" s="96"/>
+      <c r="P647" s="97"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="M648" s="88"/>
-      <c r="N648" s="88"/>
-      <c r="P648" s="89"/>
+      <c r="M648" s="96"/>
+      <c r="N648" s="96"/>
+      <c r="P648" s="97"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="M649" s="88"/>
-      <c r="N649" s="88"/>
-      <c r="P649" s="89"/>
+      <c r="M649" s="96"/>
+      <c r="N649" s="96"/>
+      <c r="P649" s="97"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="M650" s="88"/>
-      <c r="N650" s="88"/>
-      <c r="P650" s="89"/>
+      <c r="M650" s="96"/>
+      <c r="N650" s="96"/>
+      <c r="P650" s="97"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="M651" s="88"/>
-      <c r="N651" s="88"/>
-      <c r="P651" s="89"/>
+      <c r="M651" s="96"/>
+      <c r="N651" s="96"/>
+      <c r="P651" s="97"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="M652" s="88"/>
-      <c r="N652" s="88"/>
-      <c r="P652" s="89"/>
+      <c r="M652" s="96"/>
+      <c r="N652" s="96"/>
+      <c r="P652" s="97"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="M653" s="88"/>
-      <c r="N653" s="88"/>
-      <c r="P653" s="89"/>
+      <c r="M653" s="96"/>
+      <c r="N653" s="96"/>
+      <c r="P653" s="97"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="M654" s="88"/>
-      <c r="N654" s="88"/>
-      <c r="P654" s="89"/>
+      <c r="M654" s="96"/>
+      <c r="N654" s="96"/>
+      <c r="P654" s="97"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="M655" s="88"/>
-      <c r="N655" s="88"/>
-      <c r="P655" s="89"/>
+      <c r="M655" s="96"/>
+      <c r="N655" s="96"/>
+      <c r="P655" s="97"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="M656" s="88"/>
-      <c r="N656" s="88"/>
-      <c r="P656" s="89"/>
+      <c r="M656" s="96"/>
+      <c r="N656" s="96"/>
+      <c r="P656" s="97"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="M657" s="88"/>
-      <c r="N657" s="88"/>
-      <c r="P657" s="89"/>
+      <c r="M657" s="96"/>
+      <c r="N657" s="96"/>
+      <c r="P657" s="97"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="M658" s="88"/>
-      <c r="N658" s="88"/>
-      <c r="P658" s="89"/>
+      <c r="M658" s="96"/>
+      <c r="N658" s="96"/>
+      <c r="P658" s="97"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="M659" s="88"/>
-      <c r="N659" s="88"/>
-      <c r="P659" s="89"/>
+      <c r="M659" s="96"/>
+      <c r="N659" s="96"/>
+      <c r="P659" s="97"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="M660" s="88"/>
-      <c r="N660" s="88"/>
-      <c r="P660" s="89"/>
+      <c r="M660" s="96"/>
+      <c r="N660" s="96"/>
+      <c r="P660" s="97"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="M661" s="88"/>
-      <c r="N661" s="88"/>
-      <c r="P661" s="89"/>
+      <c r="M661" s="96"/>
+      <c r="N661" s="96"/>
+      <c r="P661" s="97"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="M662" s="88"/>
-      <c r="N662" s="88"/>
-      <c r="P662" s="89"/>
+      <c r="M662" s="96"/>
+      <c r="N662" s="96"/>
+      <c r="P662" s="97"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="M663" s="88"/>
-      <c r="N663" s="88"/>
-      <c r="P663" s="89"/>
+      <c r="M663" s="96"/>
+      <c r="N663" s="96"/>
+      <c r="P663" s="97"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="M664" s="88"/>
-      <c r="N664" s="88"/>
-      <c r="P664" s="89"/>
+      <c r="M664" s="96"/>
+      <c r="N664" s="96"/>
+      <c r="P664" s="97"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="M665" s="88"/>
-      <c r="N665" s="88"/>
-      <c r="P665" s="89"/>
+      <c r="M665" s="96"/>
+      <c r="N665" s="96"/>
+      <c r="P665" s="97"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="M666" s="88"/>
-      <c r="N666" s="88"/>
-      <c r="P666" s="89"/>
+      <c r="M666" s="96"/>
+      <c r="N666" s="96"/>
+      <c r="P666" s="97"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="M667" s="88"/>
-      <c r="N667" s="88"/>
-      <c r="P667" s="89"/>
+      <c r="M667" s="96"/>
+      <c r="N667" s="96"/>
+      <c r="P667" s="97"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="M668" s="88"/>
-      <c r="N668" s="88"/>
-      <c r="P668" s="89"/>
+      <c r="M668" s="96"/>
+      <c r="N668" s="96"/>
+      <c r="P668" s="97"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="M669" s="88"/>
-      <c r="N669" s="88"/>
-      <c r="P669" s="89"/>
+      <c r="M669" s="96"/>
+      <c r="N669" s="96"/>
+      <c r="P669" s="97"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="M670" s="88"/>
-      <c r="N670" s="88"/>
-      <c r="P670" s="89"/>
+      <c r="M670" s="96"/>
+      <c r="N670" s="96"/>
+      <c r="P670" s="97"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="M671" s="88"/>
-      <c r="N671" s="88"/>
-      <c r="P671" s="89"/>
+      <c r="M671" s="96"/>
+      <c r="N671" s="96"/>
+      <c r="P671" s="97"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="M672" s="88"/>
-      <c r="N672" s="88"/>
-      <c r="P672" s="89"/>
+      <c r="M672" s="96"/>
+      <c r="N672" s="96"/>
+      <c r="P672" s="97"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="M673" s="88"/>
-      <c r="N673" s="88"/>
-      <c r="P673" s="89"/>
+      <c r="M673" s="96"/>
+      <c r="N673" s="96"/>
+      <c r="P673" s="97"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="M674" s="88"/>
-      <c r="N674" s="88"/>
-      <c r="P674" s="89"/>
+      <c r="M674" s="96"/>
+      <c r="N674" s="96"/>
+      <c r="P674" s="97"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="M675" s="88"/>
-      <c r="N675" s="88"/>
-      <c r="P675" s="89"/>
+      <c r="M675" s="96"/>
+      <c r="N675" s="96"/>
+      <c r="P675" s="97"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="M676" s="88"/>
-      <c r="N676" s="88"/>
-      <c r="P676" s="89"/>
+      <c r="M676" s="96"/>
+      <c r="N676" s="96"/>
+      <c r="P676" s="97"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="M677" s="88"/>
-      <c r="N677" s="88"/>
-      <c r="P677" s="89"/>
+      <c r="M677" s="96"/>
+      <c r="N677" s="96"/>
+      <c r="P677" s="97"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="M678" s="88"/>
-      <c r="N678" s="88"/>
-      <c r="P678" s="89"/>
+      <c r="M678" s="96"/>
+      <c r="N678" s="96"/>
+      <c r="P678" s="97"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="M679" s="88"/>
-      <c r="N679" s="88"/>
-      <c r="P679" s="89"/>
+      <c r="M679" s="96"/>
+      <c r="N679" s="96"/>
+      <c r="P679" s="97"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="M680" s="88"/>
-      <c r="N680" s="88"/>
-      <c r="P680" s="89"/>
+      <c r="M680" s="96"/>
+      <c r="N680" s="96"/>
+      <c r="P680" s="97"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="M681" s="88"/>
-      <c r="N681" s="88"/>
-      <c r="P681" s="89"/>
+      <c r="M681" s="96"/>
+      <c r="N681" s="96"/>
+      <c r="P681" s="97"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="M682" s="88"/>
-      <c r="N682" s="88"/>
-      <c r="P682" s="89"/>
+      <c r="M682" s="96"/>
+      <c r="N682" s="96"/>
+      <c r="P682" s="97"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="M683" s="88"/>
-      <c r="N683" s="88"/>
-      <c r="P683" s="89"/>
+      <c r="M683" s="96"/>
+      <c r="N683" s="96"/>
+      <c r="P683" s="97"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="M684" s="88"/>
-      <c r="N684" s="88"/>
-      <c r="P684" s="89"/>
+      <c r="M684" s="96"/>
+      <c r="N684" s="96"/>
+      <c r="P684" s="97"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="M685" s="88"/>
-      <c r="N685" s="88"/>
-      <c r="P685" s="89"/>
+      <c r="M685" s="96"/>
+      <c r="N685" s="96"/>
+      <c r="P685" s="97"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="M686" s="88"/>
-      <c r="N686" s="88"/>
-      <c r="P686" s="89"/>
+      <c r="M686" s="96"/>
+      <c r="N686" s="96"/>
+      <c r="P686" s="97"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="M687" s="88"/>
-      <c r="N687" s="88"/>
-      <c r="P687" s="89"/>
+      <c r="M687" s="96"/>
+      <c r="N687" s="96"/>
+      <c r="P687" s="97"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="M688" s="88"/>
-      <c r="N688" s="88"/>
-      <c r="P688" s="89"/>
+      <c r="M688" s="96"/>
+      <c r="N688" s="96"/>
+      <c r="P688" s="97"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="M689" s="88"/>
-      <c r="N689" s="88"/>
-      <c r="P689" s="89"/>
+      <c r="M689" s="96"/>
+      <c r="N689" s="96"/>
+      <c r="P689" s="97"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="M690" s="88"/>
-      <c r="N690" s="88"/>
-      <c r="P690" s="89"/>
+      <c r="M690" s="96"/>
+      <c r="N690" s="96"/>
+      <c r="P690" s="97"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="M691" s="88"/>
-      <c r="N691" s="88"/>
-      <c r="P691" s="89"/>
+      <c r="M691" s="96"/>
+      <c r="N691" s="96"/>
+      <c r="P691" s="97"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="M692" s="88"/>
-      <c r="N692" s="88"/>
-      <c r="P692" s="89"/>
+      <c r="M692" s="96"/>
+      <c r="N692" s="96"/>
+      <c r="P692" s="97"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="M693" s="88"/>
-      <c r="N693" s="88"/>
-      <c r="P693" s="89"/>
+      <c r="M693" s="96"/>
+      <c r="N693" s="96"/>
+      <c r="P693" s="97"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="M694" s="88"/>
-      <c r="N694" s="88"/>
-      <c r="P694" s="89"/>
+      <c r="M694" s="96"/>
+      <c r="N694" s="96"/>
+      <c r="P694" s="97"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="M695" s="88"/>
-      <c r="N695" s="88"/>
-      <c r="P695" s="89"/>
+      <c r="M695" s="96"/>
+      <c r="N695" s="96"/>
+      <c r="P695" s="97"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="M696" s="88"/>
-      <c r="N696" s="88"/>
-      <c r="P696" s="89"/>
+      <c r="M696" s="96"/>
+      <c r="N696" s="96"/>
+      <c r="P696" s="97"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="M697" s="88"/>
-      <c r="N697" s="88"/>
-      <c r="P697" s="89"/>
+      <c r="M697" s="96"/>
+      <c r="N697" s="96"/>
+      <c r="P697" s="97"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="M698" s="88"/>
-      <c r="N698" s="88"/>
-      <c r="P698" s="89"/>
+      <c r="M698" s="96"/>
+      <c r="N698" s="96"/>
+      <c r="P698" s="97"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="M699" s="88"/>
-      <c r="N699" s="88"/>
-      <c r="P699" s="89"/>
+      <c r="M699" s="96"/>
+      <c r="N699" s="96"/>
+      <c r="P699" s="97"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="M700" s="88"/>
-      <c r="N700" s="88"/>
-      <c r="P700" s="89"/>
+      <c r="M700" s="96"/>
+      <c r="N700" s="96"/>
+      <c r="P700" s="97"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="M701" s="88"/>
-      <c r="N701" s="88"/>
-      <c r="P701" s="89"/>
+      <c r="M701" s="96"/>
+      <c r="N701" s="96"/>
+      <c r="P701" s="97"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="M702" s="88"/>
-      <c r="N702" s="88"/>
-      <c r="P702" s="89"/>
+      <c r="M702" s="96"/>
+      <c r="N702" s="96"/>
+      <c r="P702" s="97"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="M703" s="88"/>
-      <c r="N703" s="88"/>
-      <c r="P703" s="89"/>
+      <c r="M703" s="96"/>
+      <c r="N703" s="96"/>
+      <c r="P703" s="97"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="M704" s="88"/>
-      <c r="N704" s="88"/>
-      <c r="P704" s="89"/>
+      <c r="M704" s="96"/>
+      <c r="N704" s="96"/>
+      <c r="P704" s="97"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="M705" s="88"/>
-      <c r="N705" s="88"/>
-      <c r="P705" s="89"/>
+      <c r="M705" s="96"/>
+      <c r="N705" s="96"/>
+      <c r="P705" s="97"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="M706" s="88"/>
-      <c r="N706" s="88"/>
-      <c r="P706" s="89"/>
+      <c r="M706" s="96"/>
+      <c r="N706" s="96"/>
+      <c r="P706" s="97"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="M707" s="88"/>
-      <c r="N707" s="88"/>
-      <c r="P707" s="89"/>
+      <c r="M707" s="96"/>
+      <c r="N707" s="96"/>
+      <c r="P707" s="97"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="M708" s="88"/>
-      <c r="N708" s="88"/>
-      <c r="P708" s="89"/>
+      <c r="M708" s="96"/>
+      <c r="N708" s="96"/>
+      <c r="P708" s="97"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="M709" s="88"/>
-      <c r="N709" s="88"/>
-      <c r="P709" s="89"/>
+      <c r="M709" s="96"/>
+      <c r="N709" s="96"/>
+      <c r="P709" s="97"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="M710" s="88"/>
-      <c r="N710" s="88"/>
-      <c r="P710" s="89"/>
+      <c r="M710" s="96"/>
+      <c r="N710" s="96"/>
+      <c r="P710" s="97"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="M711" s="88"/>
-      <c r="N711" s="88"/>
-      <c r="P711" s="89"/>
+      <c r="M711" s="96"/>
+      <c r="N711" s="96"/>
+      <c r="P711" s="97"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="M712" s="88"/>
-      <c r="N712" s="88"/>
-      <c r="P712" s="89"/>
+      <c r="M712" s="96"/>
+      <c r="N712" s="96"/>
+      <c r="P712" s="97"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="M713" s="88"/>
-      <c r="N713" s="88"/>
-      <c r="P713" s="89"/>
+      <c r="M713" s="96"/>
+      <c r="N713" s="96"/>
+      <c r="P713" s="97"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="M714" s="88"/>
-      <c r="N714" s="88"/>
-      <c r="P714" s="89"/>
+      <c r="M714" s="96"/>
+      <c r="N714" s="96"/>
+      <c r="P714" s="97"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="M715" s="88"/>
-      <c r="N715" s="88"/>
-      <c r="P715" s="89"/>
+      <c r="M715" s="96"/>
+      <c r="N715" s="96"/>
+      <c r="P715" s="97"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="M716" s="88"/>
-      <c r="N716" s="88"/>
-      <c r="P716" s="89"/>
+      <c r="M716" s="96"/>
+      <c r="N716" s="96"/>
+      <c r="P716" s="97"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="M717" s="88"/>
-      <c r="N717" s="88"/>
-      <c r="P717" s="89"/>
+      <c r="M717" s="96"/>
+      <c r="N717" s="96"/>
+      <c r="P717" s="97"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="M718" s="88"/>
-      <c r="N718" s="88"/>
-      <c r="P718" s="89"/>
+      <c r="M718" s="96"/>
+      <c r="N718" s="96"/>
+      <c r="P718" s="97"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="M719" s="88"/>
-      <c r="N719" s="88"/>
-      <c r="P719" s="89"/>
+      <c r="M719" s="96"/>
+      <c r="N719" s="96"/>
+      <c r="P719" s="97"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="M720" s="88"/>
-      <c r="N720" s="88"/>
-      <c r="P720" s="89"/>
+      <c r="M720" s="96"/>
+      <c r="N720" s="96"/>
+      <c r="P720" s="97"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="M721" s="88"/>
-      <c r="N721" s="88"/>
-      <c r="P721" s="89"/>
+      <c r="M721" s="96"/>
+      <c r="N721" s="96"/>
+      <c r="P721" s="97"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="M722" s="88"/>
-      <c r="N722" s="88"/>
-      <c r="P722" s="89"/>
+      <c r="M722" s="96"/>
+      <c r="N722" s="96"/>
+      <c r="P722" s="97"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="M723" s="88"/>
-      <c r="N723" s="88"/>
-      <c r="P723" s="89"/>
+      <c r="M723" s="96"/>
+      <c r="N723" s="96"/>
+      <c r="P723" s="97"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="M724" s="88"/>
-      <c r="N724" s="88"/>
-      <c r="P724" s="89"/>
+      <c r="M724" s="96"/>
+      <c r="N724" s="96"/>
+      <c r="P724" s="97"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="M725" s="88"/>
-      <c r="N725" s="88"/>
-      <c r="P725" s="89"/>
+      <c r="M725" s="96"/>
+      <c r="N725" s="96"/>
+      <c r="P725" s="97"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="M726" s="88"/>
-      <c r="N726" s="88"/>
-      <c r="P726" s="89"/>
+      <c r="M726" s="96"/>
+      <c r="N726" s="96"/>
+      <c r="P726" s="97"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="M727" s="88"/>
-      <c r="N727" s="88"/>
-      <c r="P727" s="89"/>
+      <c r="M727" s="96"/>
+      <c r="N727" s="96"/>
+      <c r="P727" s="97"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="M728" s="88"/>
-      <c r="N728" s="88"/>
-      <c r="P728" s="89"/>
+      <c r="M728" s="96"/>
+      <c r="N728" s="96"/>
+      <c r="P728" s="97"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="M729" s="88"/>
-      <c r="N729" s="88"/>
-      <c r="P729" s="89"/>
+      <c r="M729" s="96"/>
+      <c r="N729" s="96"/>
+      <c r="P729" s="97"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="M730" s="88"/>
-      <c r="N730" s="88"/>
-      <c r="P730" s="89"/>
+      <c r="M730" s="96"/>
+      <c r="N730" s="96"/>
+      <c r="P730" s="97"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="M731" s="88"/>
-      <c r="N731" s="88"/>
-      <c r="P731" s="89"/>
+      <c r="M731" s="96"/>
+      <c r="N731" s="96"/>
+      <c r="P731" s="97"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="M732" s="88"/>
-      <c r="N732" s="88"/>
-      <c r="P732" s="89"/>
+      <c r="M732" s="96"/>
+      <c r="N732" s="96"/>
+      <c r="P732" s="97"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="M733" s="88"/>
-      <c r="N733" s="88"/>
-      <c r="P733" s="89"/>
+      <c r="M733" s="96"/>
+      <c r="N733" s="96"/>
+      <c r="P733" s="97"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="M734" s="88"/>
-      <c r="N734" s="88"/>
-      <c r="P734" s="89"/>
+      <c r="M734" s="96"/>
+      <c r="N734" s="96"/>
+      <c r="P734" s="97"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="M735" s="88"/>
-      <c r="N735" s="88"/>
-      <c r="P735" s="89"/>
+      <c r="M735" s="96"/>
+      <c r="N735" s="96"/>
+      <c r="P735" s="97"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="M736" s="88"/>
-      <c r="N736" s="88"/>
-      <c r="P736" s="89"/>
+      <c r="M736" s="96"/>
+      <c r="N736" s="96"/>
+      <c r="P736" s="97"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="M737" s="88"/>
-      <c r="N737" s="88"/>
-      <c r="P737" s="89"/>
+      <c r="M737" s="96"/>
+      <c r="N737" s="96"/>
+      <c r="P737" s="97"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="M738" s="88"/>
-      <c r="N738" s="88"/>
-      <c r="P738" s="89"/>
+      <c r="M738" s="96"/>
+      <c r="N738" s="96"/>
+      <c r="P738" s="97"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="M739" s="88"/>
-      <c r="N739" s="88"/>
-      <c r="P739" s="89"/>
+      <c r="M739" s="96"/>
+      <c r="N739" s="96"/>
+      <c r="P739" s="97"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="M740" s="88"/>
-      <c r="N740" s="88"/>
-      <c r="P740" s="89"/>
+      <c r="M740" s="96"/>
+      <c r="N740" s="96"/>
+      <c r="P740" s="97"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="M741" s="88"/>
-      <c r="N741" s="88"/>
-      <c r="P741" s="89"/>
+      <c r="M741" s="96"/>
+      <c r="N741" s="96"/>
+      <c r="P741" s="97"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="M742" s="88"/>
-      <c r="N742" s="88"/>
-      <c r="P742" s="89"/>
+      <c r="M742" s="96"/>
+      <c r="N742" s="96"/>
+      <c r="P742" s="97"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="M743" s="88"/>
-      <c r="N743" s="88"/>
-      <c r="P743" s="89"/>
+      <c r="M743" s="96"/>
+      <c r="N743" s="96"/>
+      <c r="P743" s="97"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="M744" s="88"/>
-      <c r="N744" s="88"/>
-      <c r="P744" s="89"/>
+      <c r="M744" s="96"/>
+      <c r="N744" s="96"/>
+      <c r="P744" s="97"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="M745" s="88"/>
-      <c r="N745" s="88"/>
-      <c r="P745" s="89"/>
+      <c r="M745" s="96"/>
+      <c r="N745" s="96"/>
+      <c r="P745" s="97"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="M746" s="88"/>
-      <c r="N746" s="88"/>
-      <c r="P746" s="89"/>
+      <c r="M746" s="96"/>
+      <c r="N746" s="96"/>
+      <c r="P746" s="97"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="M747" s="88"/>
-      <c r="N747" s="88"/>
-      <c r="P747" s="89"/>
+      <c r="M747" s="96"/>
+      <c r="N747" s="96"/>
+      <c r="P747" s="97"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="M748" s="88"/>
-      <c r="N748" s="88"/>
-      <c r="P748" s="89"/>
+      <c r="M748" s="96"/>
+      <c r="N748" s="96"/>
+      <c r="P748" s="97"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="M749" s="88"/>
-      <c r="N749" s="88"/>
-      <c r="P749" s="89"/>
+      <c r="M749" s="96"/>
+      <c r="N749" s="96"/>
+      <c r="P749" s="97"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="M750" s="88"/>
-      <c r="N750" s="88"/>
-      <c r="P750" s="89"/>
+      <c r="M750" s="96"/>
+      <c r="N750" s="96"/>
+      <c r="P750" s="97"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="M751" s="88"/>
-      <c r="N751" s="88"/>
-      <c r="P751" s="89"/>
+      <c r="M751" s="96"/>
+      <c r="N751" s="96"/>
+      <c r="P751" s="97"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="M752" s="88"/>
-      <c r="N752" s="88"/>
-      <c r="P752" s="89"/>
+      <c r="M752" s="96"/>
+      <c r="N752" s="96"/>
+      <c r="P752" s="97"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="M753" s="88"/>
-      <c r="N753" s="88"/>
-      <c r="P753" s="89"/>
+      <c r="M753" s="96"/>
+      <c r="N753" s="96"/>
+      <c r="P753" s="97"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="M754" s="88"/>
-      <c r="N754" s="88"/>
-      <c r="P754" s="89"/>
+      <c r="M754" s="96"/>
+      <c r="N754" s="96"/>
+      <c r="P754" s="97"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="M755" s="88"/>
-      <c r="N755" s="88"/>
-      <c r="P755" s="89"/>
+      <c r="M755" s="96"/>
+      <c r="N755" s="96"/>
+      <c r="P755" s="97"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="M756" s="88"/>
-      <c r="N756" s="88"/>
-      <c r="P756" s="89"/>
+      <c r="M756" s="96"/>
+      <c r="N756" s="96"/>
+      <c r="P756" s="97"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="M757" s="88"/>
-      <c r="N757" s="88"/>
-      <c r="P757" s="89"/>
+      <c r="M757" s="96"/>
+      <c r="N757" s="96"/>
+      <c r="P757" s="97"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="M758" s="88"/>
-      <c r="N758" s="88"/>
-      <c r="P758" s="89"/>
+      <c r="M758" s="96"/>
+      <c r="N758" s="96"/>
+      <c r="P758" s="97"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="M759" s="88"/>
-      <c r="N759" s="88"/>
-      <c r="P759" s="89"/>
+      <c r="M759" s="96"/>
+      <c r="N759" s="96"/>
+      <c r="P759" s="97"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="M760" s="88"/>
-      <c r="N760" s="88"/>
-      <c r="P760" s="89"/>
+      <c r="M760" s="96"/>
+      <c r="N760" s="96"/>
+      <c r="P760" s="97"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="M761" s="88"/>
-      <c r="N761" s="88"/>
-      <c r="P761" s="89"/>
+      <c r="M761" s="96"/>
+      <c r="N761" s="96"/>
+      <c r="P761" s="97"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="M762" s="88"/>
-      <c r="N762" s="88"/>
-      <c r="P762" s="89"/>
+      <c r="M762" s="96"/>
+      <c r="N762" s="96"/>
+      <c r="P762" s="97"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="M763" s="88"/>
-      <c r="N763" s="88"/>
-      <c r="P763" s="89"/>
+      <c r="M763" s="96"/>
+      <c r="N763" s="96"/>
+      <c r="P763" s="97"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="M764" s="88"/>
-      <c r="N764" s="88"/>
-      <c r="P764" s="89"/>
+      <c r="M764" s="96"/>
+      <c r="N764" s="96"/>
+      <c r="P764" s="97"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="M765" s="88"/>
-      <c r="N765" s="88"/>
-      <c r="P765" s="89"/>
+      <c r="M765" s="96"/>
+      <c r="N765" s="96"/>
+      <c r="P765" s="97"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="M766" s="88"/>
-      <c r="N766" s="88"/>
-      <c r="P766" s="89"/>
+      <c r="M766" s="96"/>
+      <c r="N766" s="96"/>
+      <c r="P766" s="97"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="M767" s="88"/>
-      <c r="N767" s="88"/>
-      <c r="P767" s="89"/>
+      <c r="M767" s="96"/>
+      <c r="N767" s="96"/>
+      <c r="P767" s="97"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="M768" s="88"/>
-      <c r="N768" s="88"/>
-      <c r="P768" s="89"/>
+      <c r="M768" s="96"/>
+      <c r="N768" s="96"/>
+      <c r="P768" s="97"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="M769" s="88"/>
-      <c r="N769" s="88"/>
-      <c r="P769" s="89"/>
+      <c r="M769" s="96"/>
+      <c r="N769" s="96"/>
+      <c r="P769" s="97"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="M770" s="88"/>
-      <c r="N770" s="88"/>
-      <c r="P770" s="89"/>
+      <c r="M770" s="96"/>
+      <c r="N770" s="96"/>
+      <c r="P770" s="97"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="M771" s="88"/>
-      <c r="N771" s="88"/>
-      <c r="P771" s="89"/>
+      <c r="M771" s="96"/>
+      <c r="N771" s="96"/>
+      <c r="P771" s="97"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="M772" s="88"/>
-      <c r="N772" s="88"/>
-      <c r="P772" s="89"/>
+      <c r="M772" s="96"/>
+      <c r="N772" s="96"/>
+      <c r="P772" s="97"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="M773" s="88"/>
-      <c r="N773" s="88"/>
-      <c r="P773" s="89"/>
+      <c r="M773" s="96"/>
+      <c r="N773" s="96"/>
+      <c r="P773" s="97"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="M774" s="88"/>
-      <c r="N774" s="88"/>
-      <c r="P774" s="89"/>
+      <c r="M774" s="96"/>
+      <c r="N774" s="96"/>
+      <c r="P774" s="97"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="M775" s="88"/>
-      <c r="N775" s="88"/>
-      <c r="P775" s="89"/>
+      <c r="M775" s="96"/>
+      <c r="N775" s="96"/>
+      <c r="P775" s="97"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="M776" s="88"/>
-      <c r="N776" s="88"/>
-      <c r="P776" s="89"/>
+      <c r="M776" s="96"/>
+      <c r="N776" s="96"/>
+      <c r="P776" s="97"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="M777" s="88"/>
-      <c r="N777" s="88"/>
-      <c r="P777" s="89"/>
+      <c r="M777" s="96"/>
+      <c r="N777" s="96"/>
+      <c r="P777" s="97"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="M778" s="88"/>
-      <c r="N778" s="88"/>
-      <c r="P778" s="89"/>
+      <c r="M778" s="96"/>
+      <c r="N778" s="96"/>
+      <c r="P778" s="97"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="M779" s="88"/>
-      <c r="N779" s="88"/>
-      <c r="P779" s="89"/>
+      <c r="M779" s="96"/>
+      <c r="N779" s="96"/>
+      <c r="P779" s="97"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="M780" s="88"/>
-      <c r="N780" s="88"/>
-      <c r="P780" s="89"/>
+      <c r="M780" s="96"/>
+      <c r="N780" s="96"/>
+      <c r="P780" s="97"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="M781" s="88"/>
-      <c r="N781" s="88"/>
-      <c r="P781" s="89"/>
+      <c r="M781" s="96"/>
+      <c r="N781" s="96"/>
+      <c r="P781" s="97"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="M782" s="88"/>
-      <c r="N782" s="88"/>
-      <c r="P782" s="89"/>
+      <c r="M782" s="96"/>
+      <c r="N782" s="96"/>
+      <c r="P782" s="97"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="M783" s="88"/>
-      <c r="N783" s="88"/>
-      <c r="P783" s="89"/>
+      <c r="M783" s="96"/>
+      <c r="N783" s="96"/>
+      <c r="P783" s="97"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="M784" s="88"/>
-      <c r="N784" s="88"/>
-      <c r="P784" s="89"/>
+      <c r="M784" s="96"/>
+      <c r="N784" s="96"/>
+      <c r="P784" s="97"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="M785" s="88"/>
-      <c r="N785" s="88"/>
-      <c r="P785" s="89"/>
+      <c r="M785" s="96"/>
+      <c r="N785" s="96"/>
+      <c r="P785" s="97"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="M786" s="88"/>
-      <c r="N786" s="88"/>
-      <c r="P786" s="89"/>
+      <c r="M786" s="96"/>
+      <c r="N786" s="96"/>
+      <c r="P786" s="97"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="M787" s="88"/>
-      <c r="N787" s="88"/>
-      <c r="P787" s="89"/>
+      <c r="M787" s="96"/>
+      <c r="N787" s="96"/>
+      <c r="P787" s="97"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="M788" s="88"/>
-      <c r="N788" s="88"/>
-      <c r="P788" s="89"/>
+      <c r="M788" s="96"/>
+      <c r="N788" s="96"/>
+      <c r="P788" s="97"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="M789" s="88"/>
-      <c r="N789" s="88"/>
-      <c r="P789" s="89"/>
+      <c r="M789" s="96"/>
+      <c r="N789" s="96"/>
+      <c r="P789" s="97"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="M790" s="88"/>
-      <c r="N790" s="88"/>
-      <c r="P790" s="89"/>
+      <c r="M790" s="96"/>
+      <c r="N790" s="96"/>
+      <c r="P790" s="97"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="M791" s="88"/>
-      <c r="N791" s="88"/>
-      <c r="P791" s="89"/>
+      <c r="M791" s="96"/>
+      <c r="N791" s="96"/>
+      <c r="P791" s="97"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="M792" s="88"/>
-      <c r="N792" s="88"/>
-      <c r="P792" s="89"/>
+      <c r="M792" s="96"/>
+      <c r="N792" s="96"/>
+      <c r="P792" s="97"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="M793" s="88"/>
-      <c r="N793" s="88"/>
-      <c r="P793" s="89"/>
+      <c r="M793" s="96"/>
+      <c r="N793" s="96"/>
+      <c r="P793" s="97"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="M794" s="88"/>
-      <c r="N794" s="88"/>
-      <c r="P794" s="89"/>
+      <c r="M794" s="96"/>
+      <c r="N794" s="96"/>
+      <c r="P794" s="97"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="M795" s="88"/>
-      <c r="N795" s="88"/>
-      <c r="P795" s="89"/>
+      <c r="M795" s="96"/>
+      <c r="N795" s="96"/>
+      <c r="P795" s="97"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="M796" s="88"/>
-      <c r="N796" s="88"/>
-      <c r="P796" s="89"/>
+      <c r="M796" s="96"/>
+      <c r="N796" s="96"/>
+      <c r="P796" s="97"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="M797" s="88"/>
-      <c r="N797" s="88"/>
-      <c r="P797" s="89"/>
+      <c r="M797" s="96"/>
+      <c r="N797" s="96"/>
+      <c r="P797" s="97"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="M798" s="88"/>
-      <c r="N798" s="88"/>
-      <c r="P798" s="89"/>
+      <c r="M798" s="96"/>
+      <c r="N798" s="96"/>
+      <c r="P798" s="97"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="M799" s="88"/>
-      <c r="N799" s="88"/>
-      <c r="P799" s="89"/>
+      <c r="M799" s="96"/>
+      <c r="N799" s="96"/>
+      <c r="P799" s="97"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="M800" s="88"/>
-      <c r="N800" s="88"/>
-      <c r="P800" s="89"/>
+      <c r="M800" s="96"/>
+      <c r="N800" s="96"/>
+      <c r="P800" s="97"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="M801" s="88"/>
-      <c r="N801" s="88"/>
-      <c r="P801" s="89"/>
+      <c r="M801" s="96"/>
+      <c r="N801" s="96"/>
+      <c r="P801" s="97"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="M802" s="88"/>
-      <c r="N802" s="88"/>
-      <c r="P802" s="89"/>
+      <c r="M802" s="96"/>
+      <c r="N802" s="96"/>
+      <c r="P802" s="97"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="M803" s="88"/>
-      <c r="N803" s="88"/>
-      <c r="P803" s="89"/>
+      <c r="M803" s="96"/>
+      <c r="N803" s="96"/>
+      <c r="P803" s="97"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="M804" s="88"/>
-      <c r="N804" s="88"/>
-      <c r="P804" s="89"/>
+      <c r="M804" s="96"/>
+      <c r="N804" s="96"/>
+      <c r="P804" s="97"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="M805" s="88"/>
-      <c r="N805" s="88"/>
-      <c r="P805" s="89"/>
+      <c r="M805" s="96"/>
+      <c r="N805" s="96"/>
+      <c r="P805" s="97"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="M806" s="88"/>
-      <c r="N806" s="88"/>
-      <c r="P806" s="89"/>
+      <c r="M806" s="96"/>
+      <c r="N806" s="96"/>
+      <c r="P806" s="97"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="M807" s="88"/>
-      <c r="N807" s="88"/>
-      <c r="P807" s="89"/>
+      <c r="M807" s="96"/>
+      <c r="N807" s="96"/>
+      <c r="P807" s="97"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="M808" s="88"/>
-      <c r="N808" s="88"/>
-      <c r="P808" s="89"/>
+      <c r="M808" s="96"/>
+      <c r="N808" s="96"/>
+      <c r="P808" s="97"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="M809" s="88"/>
-      <c r="N809" s="88"/>
-      <c r="P809" s="89"/>
+      <c r="M809" s="96"/>
+      <c r="N809" s="96"/>
+      <c r="P809" s="97"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="M810" s="88"/>
-      <c r="N810" s="88"/>
-      <c r="P810" s="89"/>
+      <c r="M810" s="96"/>
+      <c r="N810" s="96"/>
+      <c r="P810" s="97"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="M811" s="88"/>
-      <c r="N811" s="88"/>
-      <c r="P811" s="89"/>
+      <c r="M811" s="96"/>
+      <c r="N811" s="96"/>
+      <c r="P811" s="97"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="M812" s="88"/>
-      <c r="N812" s="88"/>
-      <c r="P812" s="89"/>
+      <c r="M812" s="96"/>
+      <c r="N812" s="96"/>
+      <c r="P812" s="97"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="M813" s="88"/>
-      <c r="N813" s="88"/>
-      <c r="P813" s="89"/>
+      <c r="M813" s="96"/>
+      <c r="N813" s="96"/>
+      <c r="P813" s="97"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="M814" s="88"/>
-      <c r="N814" s="88"/>
-      <c r="P814" s="89"/>
+      <c r="M814" s="96"/>
+      <c r="N814" s="96"/>
+      <c r="P814" s="97"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="M815" s="88"/>
-      <c r="N815" s="88"/>
-      <c r="P815" s="89"/>
+      <c r="M815" s="96"/>
+      <c r="N815" s="96"/>
+      <c r="P815" s="97"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="M816" s="88"/>
-      <c r="N816" s="88"/>
-      <c r="P816" s="89"/>
+      <c r="M816" s="96"/>
+      <c r="N816" s="96"/>
+      <c r="P816" s="97"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="M817" s="88"/>
-      <c r="N817" s="88"/>
-      <c r="P817" s="89"/>
+      <c r="M817" s="96"/>
+      <c r="N817" s="96"/>
+      <c r="P817" s="97"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="M818" s="88"/>
-      <c r="N818" s="88"/>
-      <c r="P818" s="89"/>
+      <c r="M818" s="96"/>
+      <c r="N818" s="96"/>
+      <c r="P818" s="97"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="M819" s="88"/>
-      <c r="N819" s="88"/>
-      <c r="P819" s="89"/>
+      <c r="M819" s="96"/>
+      <c r="N819" s="96"/>
+      <c r="P819" s="97"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="M820" s="88"/>
-      <c r="N820" s="88"/>
-      <c r="P820" s="89"/>
+      <c r="M820" s="96"/>
+      <c r="N820" s="96"/>
+      <c r="P820" s="97"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="M821" s="88"/>
-      <c r="N821" s="88"/>
-      <c r="P821" s="89"/>
+      <c r="M821" s="96"/>
+      <c r="N821" s="96"/>
+      <c r="P821" s="97"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="M822" s="88"/>
-      <c r="N822" s="88"/>
-      <c r="P822" s="89"/>
+      <c r="M822" s="96"/>
+      <c r="N822" s="96"/>
+      <c r="P822" s="97"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="M823" s="88"/>
-      <c r="N823" s="88"/>
-      <c r="P823" s="89"/>
+      <c r="M823" s="96"/>
+      <c r="N823" s="96"/>
+      <c r="P823" s="97"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="M824" s="88"/>
-      <c r="N824" s="88"/>
-      <c r="P824" s="89"/>
+      <c r="M824" s="96"/>
+      <c r="N824" s="96"/>
+      <c r="P824" s="97"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="M825" s="88"/>
-      <c r="N825" s="88"/>
-      <c r="P825" s="89"/>
+      <c r="M825" s="96"/>
+      <c r="N825" s="96"/>
+      <c r="P825" s="97"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="M826" s="88"/>
-      <c r="N826" s="88"/>
-      <c r="P826" s="89"/>
+      <c r="M826" s="96"/>
+      <c r="N826" s="96"/>
+      <c r="P826" s="97"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="M827" s="88"/>
-      <c r="N827" s="88"/>
-      <c r="P827" s="89"/>
+      <c r="M827" s="96"/>
+      <c r="N827" s="96"/>
+      <c r="P827" s="97"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="M828" s="88"/>
-      <c r="N828" s="88"/>
-      <c r="P828" s="89"/>
+      <c r="M828" s="96"/>
+      <c r="N828" s="96"/>
+      <c r="P828" s="97"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="M829" s="88"/>
-      <c r="N829" s="88"/>
-      <c r="P829" s="89"/>
+      <c r="M829" s="96"/>
+      <c r="N829" s="96"/>
+      <c r="P829" s="97"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="M830" s="88"/>
-      <c r="N830" s="88"/>
-      <c r="P830" s="89"/>
+      <c r="M830" s="96"/>
+      <c r="N830" s="96"/>
+      <c r="P830" s="97"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="M831" s="88"/>
-      <c r="N831" s="88"/>
-      <c r="P831" s="89"/>
+      <c r="M831" s="96"/>
+      <c r="N831" s="96"/>
+      <c r="P831" s="97"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="M832" s="88"/>
-      <c r="N832" s="88"/>
-      <c r="P832" s="89"/>
+      <c r="M832" s="96"/>
+      <c r="N832" s="96"/>
+      <c r="P832" s="97"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="M833" s="88"/>
-      <c r="N833" s="88"/>
-      <c r="P833" s="89"/>
+      <c r="M833" s="96"/>
+      <c r="N833" s="96"/>
+      <c r="P833" s="97"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="M834" s="88"/>
-      <c r="N834" s="88"/>
-      <c r="P834" s="89"/>
+      <c r="M834" s="96"/>
+      <c r="N834" s="96"/>
+      <c r="P834" s="97"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="M835" s="88"/>
-      <c r="N835" s="88"/>
-      <c r="P835" s="89"/>
+      <c r="M835" s="96"/>
+      <c r="N835" s="96"/>
+      <c r="P835" s="97"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="M836" s="88"/>
-      <c r="N836" s="88"/>
-      <c r="P836" s="89"/>
+      <c r="M836" s="96"/>
+      <c r="N836" s="96"/>
+      <c r="P836" s="97"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="M837" s="88"/>
-      <c r="N837" s="88"/>
-      <c r="P837" s="89"/>
+      <c r="M837" s="96"/>
+      <c r="N837" s="96"/>
+      <c r="P837" s="97"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="M838" s="88"/>
-      <c r="N838" s="88"/>
-      <c r="P838" s="89"/>
+      <c r="M838" s="96"/>
+      <c r="N838" s="96"/>
+      <c r="P838" s="97"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="M839" s="88"/>
-      <c r="N839" s="88"/>
-      <c r="P839" s="89"/>
+      <c r="M839" s="96"/>
+      <c r="N839" s="96"/>
+      <c r="P839" s="97"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="M840" s="88"/>
-      <c r="N840" s="88"/>
-      <c r="P840" s="89"/>
+      <c r="M840" s="96"/>
+      <c r="N840" s="96"/>
+      <c r="P840" s="97"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="M841" s="88"/>
-      <c r="N841" s="88"/>
-      <c r="P841" s="89"/>
+      <c r="M841" s="96"/>
+      <c r="N841" s="96"/>
+      <c r="P841" s="97"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="M842" s="88"/>
-      <c r="N842" s="88"/>
-      <c r="P842" s="89"/>
+      <c r="M842" s="96"/>
+      <c r="N842" s="96"/>
+      <c r="P842" s="97"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="M843" s="88"/>
-      <c r="N843" s="88"/>
-      <c r="P843" s="89"/>
+      <c r="M843" s="96"/>
+      <c r="N843" s="96"/>
+      <c r="P843" s="97"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="M844" s="88"/>
-      <c r="N844" s="88"/>
-      <c r="P844" s="89"/>
+      <c r="M844" s="96"/>
+      <c r="N844" s="96"/>
+      <c r="P844" s="97"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="M845" s="88"/>
-      <c r="N845" s="88"/>
-      <c r="P845" s="89"/>
+      <c r="M845" s="96"/>
+      <c r="N845" s="96"/>
+      <c r="P845" s="97"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="M846" s="88"/>
-      <c r="N846" s="88"/>
-      <c r="P846" s="89"/>
+      <c r="M846" s="96"/>
+      <c r="N846" s="96"/>
+      <c r="P846" s="97"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="M847" s="88"/>
-      <c r="N847" s="88"/>
-      <c r="P847" s="89"/>
+      <c r="M847" s="96"/>
+      <c r="N847" s="96"/>
+      <c r="P847" s="97"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="M848" s="88"/>
-      <c r="N848" s="88"/>
-      <c r="P848" s="89"/>
+      <c r="M848" s="96"/>
+      <c r="N848" s="96"/>
+      <c r="P848" s="97"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="M849" s="88"/>
-      <c r="N849" s="88"/>
-      <c r="P849" s="89"/>
+      <c r="M849" s="96"/>
+      <c r="N849" s="96"/>
+      <c r="P849" s="97"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="M850" s="88"/>
-      <c r="N850" s="88"/>
-      <c r="P850" s="89"/>
+      <c r="M850" s="96"/>
+      <c r="N850" s="96"/>
+      <c r="P850" s="97"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="M851" s="88"/>
-      <c r="N851" s="88"/>
-      <c r="P851" s="89"/>
+      <c r="M851" s="96"/>
+      <c r="N851" s="96"/>
+      <c r="P851" s="97"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="M852" s="88"/>
-      <c r="N852" s="88"/>
-      <c r="P852" s="89"/>
+      <c r="M852" s="96"/>
+      <c r="N852" s="96"/>
+      <c r="P852" s="97"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="M853" s="88"/>
-      <c r="N853" s="88"/>
-      <c r="P853" s="89"/>
+      <c r="M853" s="96"/>
+      <c r="N853" s="96"/>
+      <c r="P853" s="97"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="M854" s="88"/>
-      <c r="N854" s="88"/>
-      <c r="P854" s="89"/>
+      <c r="M854" s="96"/>
+      <c r="N854" s="96"/>
+      <c r="P854" s="97"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="M855" s="88"/>
-      <c r="N855" s="88"/>
-      <c r="P855" s="89"/>
+      <c r="M855" s="96"/>
+      <c r="N855" s="96"/>
+      <c r="P855" s="97"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="M856" s="88"/>
-      <c r="N856" s="88"/>
-      <c r="P856" s="89"/>
+      <c r="M856" s="96"/>
+      <c r="N856" s="96"/>
+      <c r="P856" s="97"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="M857" s="88"/>
-      <c r="N857" s="88"/>
-      <c r="P857" s="89"/>
+      <c r="M857" s="96"/>
+      <c r="N857" s="96"/>
+      <c r="P857" s="97"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="M858" s="88"/>
-      <c r="N858" s="88"/>
-      <c r="P858" s="89"/>
+      <c r="M858" s="96"/>
+      <c r="N858" s="96"/>
+      <c r="P858" s="97"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="M859" s="88"/>
-      <c r="N859" s="88"/>
-      <c r="P859" s="89"/>
+      <c r="M859" s="96"/>
+      <c r="N859" s="96"/>
+      <c r="P859" s="97"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="M860" s="88"/>
-      <c r="N860" s="88"/>
-      <c r="P860" s="89"/>
+      <c r="M860" s="96"/>
+      <c r="N860" s="96"/>
+      <c r="P860" s="97"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="M861" s="88"/>
-      <c r="N861" s="88"/>
-      <c r="P861" s="89"/>
+      <c r="M861" s="96"/>
+      <c r="N861" s="96"/>
+      <c r="P861" s="97"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="M862" s="88"/>
-      <c r="N862" s="88"/>
-      <c r="P862" s="89"/>
+      <c r="M862" s="96"/>
+      <c r="N862" s="96"/>
+      <c r="P862" s="97"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="M863" s="88"/>
-      <c r="N863" s="88"/>
-      <c r="P863" s="89"/>
+      <c r="M863" s="96"/>
+      <c r="N863" s="96"/>
+      <c r="P863" s="97"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="M864" s="88"/>
-      <c r="N864" s="88"/>
-      <c r="P864" s="89"/>
+      <c r="M864" s="96"/>
+      <c r="N864" s="96"/>
+      <c r="P864" s="97"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="M865" s="88"/>
-      <c r="N865" s="88"/>
-      <c r="P865" s="89"/>
+      <c r="M865" s="96"/>
+      <c r="N865" s="96"/>
+      <c r="P865" s="97"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="M866" s="88"/>
-      <c r="N866" s="88"/>
-      <c r="P866" s="89"/>
+      <c r="M866" s="96"/>
+      <c r="N866" s="96"/>
+      <c r="P866" s="97"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="M867" s="88"/>
-      <c r="N867" s="88"/>
-      <c r="P867" s="89"/>
+      <c r="M867" s="96"/>
+      <c r="N867" s="96"/>
+      <c r="P867" s="97"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="M868" s="88"/>
-      <c r="N868" s="88"/>
-      <c r="P868" s="89"/>
+      <c r="M868" s="96"/>
+      <c r="N868" s="96"/>
+      <c r="P868" s="97"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="M869" s="88"/>
-      <c r="N869" s="88"/>
-      <c r="P869" s="89"/>
+      <c r="M869" s="96"/>
+      <c r="N869" s="96"/>
+      <c r="P869" s="97"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="M870" s="88"/>
-      <c r="N870" s="88"/>
-      <c r="P870" s="89"/>
+      <c r="M870" s="96"/>
+      <c r="N870" s="96"/>
+      <c r="P870" s="97"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="M871" s="88"/>
-      <c r="N871" s="88"/>
-      <c r="P871" s="89"/>
+      <c r="M871" s="96"/>
+      <c r="N871" s="96"/>
+      <c r="P871" s="97"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="M872" s="88"/>
-      <c r="N872" s="88"/>
-      <c r="P872" s="89"/>
+      <c r="M872" s="96"/>
+      <c r="N872" s="96"/>
+      <c r="P872" s="97"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="M873" s="88"/>
-      <c r="N873" s="88"/>
-      <c r="P873" s="89"/>
+      <c r="M873" s="96"/>
+      <c r="N873" s="96"/>
+      <c r="P873" s="97"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="M874" s="88"/>
-      <c r="N874" s="88"/>
-      <c r="P874" s="89"/>
+      <c r="M874" s="96"/>
+      <c r="N874" s="96"/>
+      <c r="P874" s="97"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="M875" s="88"/>
-      <c r="N875" s="88"/>
-      <c r="P875" s="89"/>
+      <c r="M875" s="96"/>
+      <c r="N875" s="96"/>
+      <c r="P875" s="97"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="M876" s="88"/>
-      <c r="N876" s="88"/>
-      <c r="P876" s="89"/>
+      <c r="M876" s="96"/>
+      <c r="N876" s="96"/>
+      <c r="P876" s="97"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="M877" s="88"/>
-      <c r="N877" s="88"/>
-      <c r="P877" s="89"/>
+      <c r="M877" s="96"/>
+      <c r="N877" s="96"/>
+      <c r="P877" s="97"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="M878" s="88"/>
-      <c r="N878" s="88"/>
-      <c r="P878" s="89"/>
+      <c r="M878" s="96"/>
+      <c r="N878" s="96"/>
+      <c r="P878" s="97"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="M879" s="88"/>
-      <c r="N879" s="88"/>
-      <c r="P879" s="89"/>
+      <c r="M879" s="96"/>
+      <c r="N879" s="96"/>
+      <c r="P879" s="97"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="M880" s="88"/>
-      <c r="N880" s="88"/>
-      <c r="P880" s="89"/>
+      <c r="M880" s="96"/>
+      <c r="N880" s="96"/>
+      <c r="P880" s="97"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="M881" s="88"/>
-      <c r="N881" s="88"/>
-      <c r="P881" s="89"/>
+      <c r="M881" s="96"/>
+      <c r="N881" s="96"/>
+      <c r="P881" s="97"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="M882" s="88"/>
-      <c r="N882" s="88"/>
-      <c r="P882" s="89"/>
+      <c r="M882" s="96"/>
+      <c r="N882" s="96"/>
+      <c r="P882" s="97"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="M883" s="88"/>
-      <c r="N883" s="88"/>
-      <c r="P883" s="89"/>
+      <c r="M883" s="96"/>
+      <c r="N883" s="96"/>
+      <c r="P883" s="97"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="M884" s="88"/>
-      <c r="N884" s="88"/>
-      <c r="P884" s="89"/>
+      <c r="M884" s="96"/>
+      <c r="N884" s="96"/>
+      <c r="P884" s="97"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="M885" s="88"/>
-      <c r="N885" s="88"/>
-      <c r="P885" s="89"/>
+      <c r="M885" s="96"/>
+      <c r="N885" s="96"/>
+      <c r="P885" s="97"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="M886" s="88"/>
-      <c r="N886" s="88"/>
-      <c r="P886" s="89"/>
+      <c r="M886" s="96"/>
+      <c r="N886" s="96"/>
+      <c r="P886" s="97"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="M887" s="88"/>
-      <c r="N887" s="88"/>
-      <c r="P887" s="89"/>
+      <c r="M887" s="96"/>
+      <c r="N887" s="96"/>
+      <c r="P887" s="97"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="M888" s="88"/>
-      <c r="N888" s="88"/>
-      <c r="P888" s="89"/>
+      <c r="M888" s="96"/>
+      <c r="N888" s="96"/>
+      <c r="P888" s="97"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="M889" s="88"/>
-      <c r="N889" s="88"/>
-      <c r="P889" s="89"/>
+      <c r="M889" s="96"/>
+      <c r="N889" s="96"/>
+      <c r="P889" s="97"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="M890" s="88"/>
-      <c r="N890" s="88"/>
-      <c r="P890" s="89"/>
+      <c r="M890" s="96"/>
+      <c r="N890" s="96"/>
+      <c r="P890" s="97"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="M891" s="88"/>
-      <c r="N891" s="88"/>
-      <c r="P891" s="89"/>
+      <c r="M891" s="96"/>
+      <c r="N891" s="96"/>
+      <c r="P891" s="97"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="M892" s="88"/>
-      <c r="N892" s="88"/>
-      <c r="P892" s="89"/>
+      <c r="M892" s="96"/>
+      <c r="N892" s="96"/>
+      <c r="P892" s="97"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="M893" s="88"/>
-      <c r="N893" s="88"/>
-      <c r="P893" s="89"/>
+      <c r="M893" s="96"/>
+      <c r="N893" s="96"/>
+      <c r="P893" s="97"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="M894" s="88"/>
-      <c r="N894" s="88"/>
-      <c r="P894" s="89"/>
+      <c r="M894" s="96"/>
+      <c r="N894" s="96"/>
+      <c r="P894" s="97"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="M895" s="88"/>
-      <c r="N895" s="88"/>
-      <c r="P895" s="89"/>
+      <c r="M895" s="96"/>
+      <c r="N895" s="96"/>
+      <c r="P895" s="97"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="M896" s="88"/>
-      <c r="N896" s="88"/>
-      <c r="P896" s="89"/>
+      <c r="M896" s="96"/>
+      <c r="N896" s="96"/>
+      <c r="P896" s="97"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="M897" s="88"/>
-      <c r="N897" s="88"/>
-      <c r="P897" s="89"/>
+      <c r="M897" s="96"/>
+      <c r="N897" s="96"/>
+      <c r="P897" s="97"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="M898" s="88"/>
-      <c r="N898" s="88"/>
-      <c r="P898" s="89"/>
+      <c r="M898" s="96"/>
+      <c r="N898" s="96"/>
+      <c r="P898" s="97"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="M899" s="88"/>
-      <c r="N899" s="88"/>
-      <c r="P899" s="89"/>
+      <c r="M899" s="96"/>
+      <c r="N899" s="96"/>
+      <c r="P899" s="97"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="M900" s="88"/>
-      <c r="N900" s="88"/>
-      <c r="P900" s="89"/>
+      <c r="M900" s="96"/>
+      <c r="N900" s="96"/>
+      <c r="P900" s="97"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="M901" s="88"/>
-      <c r="N901" s="88"/>
-      <c r="P901" s="89"/>
+      <c r="M901" s="96"/>
+      <c r="N901" s="96"/>
+      <c r="P901" s="97"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="M902" s="88"/>
-      <c r="N902" s="88"/>
-      <c r="P902" s="89"/>
+      <c r="M902" s="96"/>
+      <c r="N902" s="96"/>
+      <c r="P902" s="97"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="M903" s="88"/>
-      <c r="N903" s="88"/>
-      <c r="P903" s="89"/>
+      <c r="M903" s="96"/>
+      <c r="N903" s="96"/>
+      <c r="P903" s="97"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="M904" s="88"/>
-      <c r="N904" s="88"/>
-      <c r="P904" s="89"/>
+      <c r="M904" s="96"/>
+      <c r="N904" s="96"/>
+      <c r="P904" s="97"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="M905" s="88"/>
-      <c r="N905" s="88"/>
-      <c r="P905" s="89"/>
+      <c r="M905" s="96"/>
+      <c r="N905" s="96"/>
+      <c r="P905" s="97"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="M906" s="88"/>
-      <c r="N906" s="88"/>
-      <c r="P906" s="89"/>
+      <c r="M906" s="96"/>
+      <c r="N906" s="96"/>
+      <c r="P906" s="97"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="M907" s="88"/>
-      <c r="N907" s="88"/>
-      <c r="P907" s="89"/>
+      <c r="M907" s="96"/>
+      <c r="N907" s="96"/>
+      <c r="P907" s="97"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="M908" s="88"/>
-      <c r="N908" s="88"/>
-      <c r="P908" s="89"/>
+      <c r="M908" s="96"/>
+      <c r="N908" s="96"/>
+      <c r="P908" s="97"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="M909" s="88"/>
-      <c r="N909" s="88"/>
-      <c r="P909" s="89"/>
+      <c r="M909" s="96"/>
+      <c r="N909" s="96"/>
+      <c r="P909" s="97"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="M910" s="88"/>
-      <c r="N910" s="88"/>
-      <c r="P910" s="89"/>
+      <c r="M910" s="96"/>
+      <c r="N910" s="96"/>
+      <c r="P910" s="97"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="M911" s="88"/>
-      <c r="N911" s="88"/>
-      <c r="P911" s="89"/>
+      <c r="M911" s="96"/>
+      <c r="N911" s="96"/>
+      <c r="P911" s="97"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="M912" s="88"/>
-      <c r="N912" s="88"/>
-      <c r="P912" s="89"/>
+      <c r="M912" s="96"/>
+      <c r="N912" s="96"/>
+      <c r="P912" s="97"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="M913" s="88"/>
-      <c r="N913" s="88"/>
-      <c r="P913" s="89"/>
+      <c r="M913" s="96"/>
+      <c r="N913" s="96"/>
+      <c r="P913" s="97"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="M914" s="88"/>
-      <c r="N914" s="88"/>
-      <c r="P914" s="89"/>
+      <c r="M914" s="96"/>
+      <c r="N914" s="96"/>
+      <c r="P914" s="97"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="M915" s="88"/>
-      <c r="N915" s="88"/>
-      <c r="P915" s="89"/>
+      <c r="M915" s="96"/>
+      <c r="N915" s="96"/>
+      <c r="P915" s="97"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="M916" s="88"/>
-      <c r="N916" s="88"/>
-      <c r="P916" s="89"/>
+      <c r="M916" s="96"/>
+      <c r="N916" s="96"/>
+      <c r="P916" s="97"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="M917" s="88"/>
-      <c r="N917" s="88"/>
-      <c r="P917" s="89"/>
+      <c r="M917" s="96"/>
+      <c r="N917" s="96"/>
+      <c r="P917" s="97"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="M918" s="88"/>
-      <c r="N918" s="88"/>
-      <c r="P918" s="89"/>
+      <c r="M918" s="96"/>
+      <c r="N918" s="96"/>
+      <c r="P918" s="97"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="M919" s="88"/>
-      <c r="N919" s="88"/>
-      <c r="P919" s="89"/>
+      <c r="M919" s="96"/>
+      <c r="N919" s="96"/>
+      <c r="P919" s="97"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="M920" s="88"/>
-      <c r="N920" s="88"/>
-      <c r="P920" s="89"/>
+      <c r="M920" s="96"/>
+      <c r="N920" s="96"/>
+      <c r="P920" s="97"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="M921" s="88"/>
-      <c r="N921" s="88"/>
-      <c r="P921" s="89"/>
+      <c r="M921" s="96"/>
+      <c r="N921" s="96"/>
+      <c r="P921" s="97"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="M922" s="88"/>
-      <c r="N922" s="88"/>
-      <c r="P922" s="89"/>
+      <c r="M922" s="96"/>
+      <c r="N922" s="96"/>
+      <c r="P922" s="97"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="M923" s="88"/>
-      <c r="N923" s="88"/>
-      <c r="P923" s="89"/>
+      <c r="M923" s="96"/>
+      <c r="N923" s="96"/>
+      <c r="P923" s="97"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="M924" s="88"/>
-      <c r="N924" s="88"/>
-      <c r="P924" s="89"/>
+      <c r="M924" s="96"/>
+      <c r="N924" s="96"/>
+      <c r="P924" s="97"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="M925" s="88"/>
-      <c r="N925" s="88"/>
-      <c r="P925" s="89"/>
+      <c r="M925" s="96"/>
+      <c r="N925" s="96"/>
+      <c r="P925" s="97"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="M926" s="88"/>
-      <c r="N926" s="88"/>
-      <c r="P926" s="89"/>
+      <c r="M926" s="96"/>
+      <c r="N926" s="96"/>
+      <c r="P926" s="97"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="M927" s="88"/>
-      <c r="N927" s="88"/>
-      <c r="P927" s="89"/>
+      <c r="M927" s="96"/>
+      <c r="N927" s="96"/>
+      <c r="P927" s="97"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="M928" s="88"/>
-      <c r="N928" s="88"/>
-      <c r="P928" s="89"/>
+      <c r="M928" s="96"/>
+      <c r="N928" s="96"/>
+      <c r="P928" s="97"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="M929" s="88"/>
-      <c r="N929" s="88"/>
-      <c r="P929" s="89"/>
+      <c r="M929" s="96"/>
+      <c r="N929" s="96"/>
+      <c r="P929" s="97"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="M930" s="88"/>
-      <c r="N930" s="88"/>
-      <c r="P930" s="89"/>
+      <c r="M930" s="96"/>
+      <c r="N930" s="96"/>
+      <c r="P930" s="97"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="M931" s="88"/>
-      <c r="N931" s="88"/>
-      <c r="P931" s="89"/>
+      <c r="M931" s="96"/>
+      <c r="N931" s="96"/>
+      <c r="P931" s="97"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="M932" s="88"/>
-      <c r="N932" s="88"/>
-      <c r="P932" s="89"/>
+      <c r="M932" s="96"/>
+      <c r="N932" s="96"/>
+      <c r="P932" s="97"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="M933" s="88"/>
-      <c r="N933" s="88"/>
-      <c r="P933" s="89"/>
+      <c r="M933" s="96"/>
+      <c r="N933" s="96"/>
+      <c r="P933" s="97"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="M934" s="88"/>
-      <c r="N934" s="88"/>
-      <c r="P934" s="89"/>
+      <c r="M934" s="96"/>
+      <c r="N934" s="96"/>
+      <c r="P934" s="97"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="M935" s="88"/>
-      <c r="N935" s="88"/>
-      <c r="P935" s="89"/>
+      <c r="M935" s="96"/>
+      <c r="N935" s="96"/>
+      <c r="P935" s="97"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="M936" s="88"/>
-      <c r="N936" s="88"/>
-      <c r="P936" s="89"/>
+      <c r="M936" s="96"/>
+      <c r="N936" s="96"/>
+      <c r="P936" s="97"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="M937" s="88"/>
-      <c r="N937" s="88"/>
-      <c r="P937" s="89"/>
+      <c r="M937" s="96"/>
+      <c r="N937" s="96"/>
+      <c r="P937" s="97"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="M938" s="88"/>
-      <c r="N938" s="88"/>
-      <c r="P938" s="89"/>
+      <c r="M938" s="96"/>
+      <c r="N938" s="96"/>
+      <c r="P938" s="97"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="M939" s="88"/>
-      <c r="N939" s="88"/>
-      <c r="P939" s="89"/>
+      <c r="M939" s="96"/>
+      <c r="N939" s="96"/>
+      <c r="P939" s="97"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="M940" s="88"/>
-      <c r="N940" s="88"/>
-      <c r="P940" s="89"/>
+      <c r="M940" s="96"/>
+      <c r="N940" s="96"/>
+      <c r="P940" s="97"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="M941" s="88"/>
-      <c r="N941" s="88"/>
-      <c r="P941" s="89"/>
+      <c r="M941" s="96"/>
+      <c r="N941" s="96"/>
+      <c r="P941" s="97"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="M942" s="88"/>
-      <c r="N942" s="88"/>
-      <c r="P942" s="89"/>
+      <c r="M942" s="96"/>
+      <c r="N942" s="96"/>
+      <c r="P942" s="97"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="M943" s="88"/>
-      <c r="N943" s="88"/>
-      <c r="P943" s="89"/>
+      <c r="M943" s="96"/>
+      <c r="N943" s="96"/>
+      <c r="P943" s="97"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="M944" s="88"/>
-      <c r="N944" s="88"/>
-      <c r="P944" s="89"/>
+      <c r="M944" s="96"/>
+      <c r="N944" s="96"/>
+      <c r="P944" s="97"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="M945" s="88"/>
-      <c r="N945" s="88"/>
-      <c r="P945" s="89"/>
+      <c r="M945" s="96"/>
+      <c r="N945" s="96"/>
+      <c r="P945" s="97"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="M946" s="88"/>
-      <c r="N946" s="88"/>
-      <c r="P946" s="89"/>
+      <c r="M946" s="96"/>
+      <c r="N946" s="96"/>
+      <c r="P946" s="97"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="M947" s="88"/>
-      <c r="N947" s="88"/>
-      <c r="P947" s="89"/>
+      <c r="M947" s="96"/>
+      <c r="N947" s="96"/>
+      <c r="P947" s="97"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="M948" s="88"/>
-      <c r="N948" s="88"/>
-      <c r="P948" s="89"/>
+      <c r="M948" s="96"/>
+      <c r="N948" s="96"/>
+      <c r="P948" s="97"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="M949" s="88"/>
-      <c r="N949" s="88"/>
-      <c r="P949" s="89"/>
+      <c r="M949" s="96"/>
+      <c r="N949" s="96"/>
+      <c r="P949" s="97"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="M950" s="88"/>
-      <c r="N950" s="88"/>
-      <c r="P950" s="89"/>
+      <c r="M950" s="96"/>
+      <c r="N950" s="96"/>
+      <c r="P950" s="97"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="M951" s="88"/>
-      <c r="N951" s="88"/>
-      <c r="P951" s="89"/>
+      <c r="M951" s="96"/>
+      <c r="N951" s="96"/>
+      <c r="P951" s="97"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="M952" s="88"/>
-      <c r="N952" s="88"/>
-      <c r="P952" s="89"/>
+      <c r="M952" s="96"/>
+      <c r="N952" s="96"/>
+      <c r="P952" s="97"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="M953" s="88"/>
-      <c r="N953" s="88"/>
-      <c r="P953" s="89"/>
+      <c r="M953" s="96"/>
+      <c r="N953" s="96"/>
+      <c r="P953" s="97"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="M954" s="88"/>
-      <c r="N954" s="88"/>
-      <c r="P954" s="89"/>
+      <c r="M954" s="96"/>
+      <c r="N954" s="96"/>
+      <c r="P954" s="97"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="M955" s="88"/>
-      <c r="N955" s="88"/>
-      <c r="P955" s="89"/>
+      <c r="M955" s="96"/>
+      <c r="N955" s="96"/>
+      <c r="P955" s="97"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="M956" s="88"/>
-      <c r="N956" s="88"/>
-      <c r="P956" s="89"/>
+      <c r="M956" s="96"/>
+      <c r="N956" s="96"/>
+      <c r="P956" s="97"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="M957" s="88"/>
-      <c r="N957" s="88"/>
-      <c r="P957" s="89"/>
+      <c r="M957" s="96"/>
+      <c r="N957" s="96"/>
+      <c r="P957" s="97"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="M958" s="88"/>
-      <c r="N958" s="88"/>
-      <c r="P958" s="89"/>
+      <c r="M958" s="96"/>
+      <c r="N958" s="96"/>
+      <c r="P958" s="97"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="M959" s="88"/>
-      <c r="N959" s="88"/>
-      <c r="P959" s="89"/>
+      <c r="M959" s="96"/>
+      <c r="N959" s="96"/>
+      <c r="P959" s="97"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="M960" s="88"/>
-      <c r="N960" s="88"/>
-      <c r="P960" s="89"/>
+      <c r="M960" s="96"/>
+      <c r="N960" s="96"/>
+      <c r="P960" s="97"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="M961" s="88"/>
-      <c r="N961" s="88"/>
-      <c r="P961" s="89"/>
+      <c r="M961" s="96"/>
+      <c r="N961" s="96"/>
+      <c r="P961" s="97"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="M962" s="88"/>
-      <c r="N962" s="88"/>
-      <c r="P962" s="89"/>
+      <c r="M962" s="96"/>
+      <c r="N962" s="96"/>
+      <c r="P962" s="97"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="M963" s="88"/>
-      <c r="N963" s="88"/>
-      <c r="P963" s="89"/>
+      <c r="M963" s="96"/>
+      <c r="N963" s="96"/>
+      <c r="P963" s="97"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="M964" s="88"/>
-      <c r="N964" s="88"/>
-      <c r="P964" s="89"/>
+      <c r="M964" s="96"/>
+      <c r="N964" s="96"/>
+      <c r="P964" s="97"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="M965" s="88"/>
-      <c r="N965" s="88"/>
-      <c r="P965" s="89"/>
+      <c r="M965" s="96"/>
+      <c r="N965" s="96"/>
+      <c r="P965" s="97"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="M966" s="88"/>
-      <c r="N966" s="88"/>
-      <c r="P966" s="89"/>
+      <c r="M966" s="96"/>
+      <c r="N966" s="96"/>
+      <c r="P966" s="97"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="M967" s="88"/>
-      <c r="N967" s="88"/>
-      <c r="P967" s="89"/>
+      <c r="M967" s="96"/>
+      <c r="N967" s="96"/>
+      <c r="P967" s="97"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="M968" s="88"/>
-      <c r="N968" s="88"/>
-      <c r="P968" s="89"/>
+      <c r="M968" s="96"/>
+      <c r="N968" s="96"/>
+      <c r="P968" s="97"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="M969" s="88"/>
-      <c r="N969" s="88"/>
-      <c r="P969" s="89"/>
+      <c r="M969" s="96"/>
+      <c r="N969" s="96"/>
+      <c r="P969" s="97"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="M970" s="88"/>
-      <c r="N970" s="88"/>
-      <c r="P970" s="89"/>
+      <c r="M970" s="96"/>
+      <c r="N970" s="96"/>
+      <c r="P970" s="97"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="M971" s="88"/>
-      <c r="N971" s="88"/>
-      <c r="P971" s="89"/>
+      <c r="M971" s="96"/>
+      <c r="N971" s="96"/>
+      <c r="P971" s="97"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="M972" s="88"/>
-      <c r="N972" s="88"/>
-      <c r="P972" s="89"/>
+      <c r="M972" s="96"/>
+      <c r="N972" s="96"/>
+      <c r="P972" s="97"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="M973" s="88"/>
-      <c r="N973" s="88"/>
-      <c r="P973" s="89"/>
+      <c r="M973" s="96"/>
+      <c r="N973" s="96"/>
+      <c r="P973" s="97"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="M974" s="88"/>
-      <c r="N974" s="88"/>
-      <c r="P974" s="89"/>
+      <c r="M974" s="96"/>
+      <c r="N974" s="96"/>
+      <c r="P974" s="97"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="M975" s="88"/>
-      <c r="N975" s="88"/>
-      <c r="P975" s="89"/>
+      <c r="M975" s="96"/>
+      <c r="N975" s="96"/>
+      <c r="P975" s="97"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="M976" s="88"/>
-      <c r="N976" s="88"/>
-      <c r="P976" s="89"/>
+      <c r="M976" s="96"/>
+      <c r="N976" s="96"/>
+      <c r="P976" s="97"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="M977" s="88"/>
-      <c r="N977" s="88"/>
-      <c r="P977" s="89"/>
+      <c r="M977" s="96"/>
+      <c r="N977" s="96"/>
+      <c r="P977" s="97"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="M978" s="88"/>
-      <c r="N978" s="88"/>
-      <c r="P978" s="89"/>
+      <c r="M978" s="96"/>
+      <c r="N978" s="96"/>
+      <c r="P978" s="97"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="M979" s="88"/>
-      <c r="N979" s="88"/>
-      <c r="P979" s="89"/>
+      <c r="M979" s="96"/>
+      <c r="N979" s="96"/>
+      <c r="P979" s="97"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="M980" s="88"/>
-      <c r="N980" s="88"/>
-      <c r="P980" s="89"/>
+      <c r="M980" s="96"/>
+      <c r="N980" s="96"/>
+      <c r="P980" s="97"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="M981" s="88"/>
-      <c r="N981" s="88"/>
-      <c r="P981" s="89"/>
+      <c r="M981" s="96"/>
+      <c r="N981" s="96"/>
+      <c r="P981" s="97"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="M982" s="88"/>
-      <c r="N982" s="88"/>
-      <c r="P982" s="89"/>
+      <c r="M982" s="96"/>
+      <c r="N982" s="96"/>
+      <c r="P982" s="97"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="M983" s="88"/>
-      <c r="N983" s="88"/>
-      <c r="P983" s="89"/>
+      <c r="M983" s="96"/>
+      <c r="N983" s="96"/>
+      <c r="P983" s="97"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="M984" s="88"/>
-      <c r="N984" s="88"/>
-      <c r="P984" s="89"/>
+      <c r="M984" s="96"/>
+      <c r="N984" s="96"/>
+      <c r="P984" s="97"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="M985" s="88"/>
-      <c r="N985" s="88"/>
-      <c r="P985" s="89"/>
+      <c r="M985" s="96"/>
+      <c r="N985" s="96"/>
+      <c r="P985" s="97"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="M986" s="88"/>
-      <c r="N986" s="88"/>
-      <c r="P986" s="89"/>
+      <c r="M986" s="96"/>
+      <c r="N986" s="96"/>
+      <c r="P986" s="97"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="M987" s="88"/>
-      <c r="N987" s="88"/>
-      <c r="P987" s="89"/>
+      <c r="M987" s="96"/>
+      <c r="N987" s="96"/>
+      <c r="P987" s="97"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="M988" s="88"/>
-      <c r="N988" s="88"/>
-      <c r="P988" s="89"/>
+      <c r="M988" s="96"/>
+      <c r="N988" s="96"/>
+      <c r="P988" s="97"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="M989" s="88"/>
-      <c r="N989" s="88"/>
-      <c r="P989" s="89"/>
+      <c r="M989" s="96"/>
+      <c r="N989" s="96"/>
+      <c r="P989" s="97"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="M990" s="88"/>
-      <c r="N990" s="88"/>
-      <c r="P990" s="89"/>
+      <c r="M990" s="96"/>
+      <c r="N990" s="96"/>
+      <c r="P990" s="97"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="M991" s="88"/>
-      <c r="N991" s="88"/>
-      <c r="P991" s="89"/>
+      <c r="M991" s="96"/>
+      <c r="N991" s="96"/>
+      <c r="P991" s="97"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="M992" s="88"/>
-      <c r="N992" s="88"/>
-      <c r="P992" s="89"/>
+      <c r="M992" s="96"/>
+      <c r="N992" s="96"/>
+      <c r="P992" s="97"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="M993" s="88"/>
-      <c r="N993" s="88"/>
-      <c r="P993" s="89"/>
+      <c r="M993" s="96"/>
+      <c r="N993" s="96"/>
+      <c r="P993" s="97"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="M994" s="88"/>
-      <c r="N994" s="88"/>
-      <c r="P994" s="89"/>
+      <c r="M994" s="96"/>
+      <c r="N994" s="96"/>
+      <c r="P994" s="97"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="M995" s="88"/>
-      <c r="N995" s="88"/>
-      <c r="P995" s="89"/>
+      <c r="M995" s="96"/>
+      <c r="N995" s="96"/>
+      <c r="P995" s="97"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="M996" s="88"/>
-      <c r="N996" s="88"/>
-      <c r="P996" s="89"/>
+      <c r="M996" s="96"/>
+      <c r="N996" s="96"/>
+      <c r="P996" s="97"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="M997" s="88"/>
-      <c r="N997" s="88"/>
-      <c r="P997" s="89"/>
+      <c r="M997" s="96"/>
+      <c r="N997" s="96"/>
+      <c r="P997" s="97"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="M998" s="88"/>
-      <c r="N998" s="88"/>
-      <c r="P998" s="89"/>
+      <c r="M998" s="96"/>
+      <c r="N998" s="96"/>
+      <c r="P998" s="97"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="M999" s="88"/>
-      <c r="N999" s="88"/>
-      <c r="P999" s="89"/>
+      <c r="M999" s="96"/>
+      <c r="N999" s="96"/>
+      <c r="P999" s="97"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="M1000" s="88"/>
-      <c r="N1000" s="88"/>
-      <c r="P1000" s="89"/>
+      <c r="M1000" s="96"/>
+      <c r="N1000" s="96"/>
+      <c r="P1000" s="97"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="M1001" s="88"/>
-      <c r="N1001" s="88"/>
-      <c r="P1001" s="89"/>
+      <c r="M1001" s="96"/>
+      <c r="N1001" s="96"/>
+      <c r="P1001" s="97"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="M1002" s="96"/>
+      <c r="N1002" s="96"/>
+      <c r="P1002" s="97"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="M1003" s="96"/>
+      <c r="N1003" s="96"/>
+      <c r="P1003" s="97"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="M1004" s="96"/>
+      <c r="N1004" s="96"/>
+      <c r="P1004" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="I20:P20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resorces/Performance testing using JMETER._Load.xlsx
+++ b/resorces/Performance testing using JMETER._Load.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Load Test Strategy</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Actual TPS</t>
-  </si>
-  <si>
-    <t>2.2(to 2d.p)</t>
   </si>
   <si>
     <t>Load test unsuccessful. The actual TPS is less than 1, with more than 1% error, during 20 minutes of running, where the expected TPS is 2.8</t>
@@ -264,7 +261,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +308,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -702,7 +705,7 @@
     <xf borderId="17" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="16" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -711,7 +714,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="24" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="24" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -719,7 +722,7 @@
     <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="24" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -749,7 +752,7 @@
     <xf borderId="20" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="6" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -761,37 +764,22 @@
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="7" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="20" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="12" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="12" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -806,16 +794,31 @@
     <xf borderId="20" fillId="13" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="13" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="13" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="14" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="14" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="14" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1560,9 +1563,7 @@
       <c r="F22" s="51"/>
       <c r="G22" s="52"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="I22" s="54"/>
       <c r="J22" s="55"/>
       <c r="K22" s="56"/>
     </row>
@@ -1572,7 +1573,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -7482,7 +7483,7 @@
   <sheetData>
     <row r="1">
       <c r="I1" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
@@ -7495,7 +7496,7 @@
     </row>
     <row r="2">
       <c r="I2" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -7508,7 +7509,7 @@
     </row>
     <row r="3">
       <c r="I3" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="64" t="s">
         <v>4</v>
@@ -7517,10 +7518,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="65" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>31</v>
       </c>
       <c r="N3" s="66" t="s">
         <v>11</v>
@@ -7535,7 +7536,7 @@
     </row>
     <row r="4">
       <c r="I4" s="64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="69">
         <v>12.0</v>
@@ -7558,7 +7559,7 @@
     </row>
     <row r="5">
       <c r="I5" s="64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="69">
         <v>1.0</v>
@@ -7580,7 +7581,7 @@
     </row>
     <row r="6">
       <c r="I6" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="69"/>
       <c r="K6" s="69">
@@ -7603,7 +7604,7 @@
     </row>
     <row r="7">
       <c r="I7" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="69"/>
       <c r="K7" s="76">
@@ -7630,7 +7631,7 @@
     </row>
     <row r="8">
       <c r="I8" s="76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="76">
@@ -7657,7 +7658,7 @@
     </row>
     <row r="9">
       <c r="I9" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="69"/>
       <c r="K9" s="76">
@@ -7683,7 +7684,7 @@
     </row>
     <row r="10">
       <c r="I10" s="76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="69"/>
       <c r="K10" s="76">
@@ -7709,7 +7710,7 @@
     </row>
     <row r="11">
       <c r="I11" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="69"/>
       <c r="K11" s="76">
@@ -7735,7 +7736,7 @@
     </row>
     <row r="12">
       <c r="I12" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="76">
@@ -7761,7 +7762,7 @@
     </row>
     <row r="13">
       <c r="I13" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="76">
@@ -7778,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="78">
         <v>0.0333</v>
@@ -7787,7 +7788,7 @@
     </row>
     <row r="14">
       <c r="I14" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="69"/>
       <c r="K14" s="76">
@@ -7804,7 +7805,7 @@
         <v>0.6666666667</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="78">
         <v>0.035</v>
@@ -7813,7 +7814,7 @@
     </row>
     <row r="15">
       <c r="I15" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="69"/>
       <c r="K15" s="76">
@@ -7830,7 +7831,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="O15" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P15" s="78">
         <v>0.0417</v>
@@ -7839,7 +7840,7 @@
     </row>
     <row r="16">
       <c r="I16" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="69"/>
       <c r="K16" s="76">
@@ -7856,7 +7857,7 @@
         <v>0.1666666667</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P16" s="78">
         <v>0.02</v>
@@ -7865,7 +7866,7 @@
     </row>
     <row r="17">
       <c r="I17" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="84">
@@ -7882,7 +7883,7 @@
         <v>0.08333333333</v>
       </c>
       <c r="O17" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" s="87">
         <v>0.012</v>
@@ -7891,7 +7892,7 @@
     </row>
     <row r="18">
       <c r="I18" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="88"/>
       <c r="K18" s="89">
@@ -7908,7 +7909,7 @@
         <v>0.06666666667</v>
       </c>
       <c r="O18" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="92">
         <v>0.0</v>
@@ -7917,7 +7918,7 @@
     </row>
     <row r="19">
       <c r="I19" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
@@ -7938,7 +7939,7 @@
       <c r="G20" s="94"/>
       <c r="H20" s="94"/>
       <c r="I20" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
